--- a/气象/双站寒冷PK.xlsx
+++ b/气象/双站寒冷PK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CFC8DA-2046-4707-9E76-F0E190610A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0006A93F-933E-4124-9CF1-01C0C9C00123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E01B588A-3742-4A11-89A2-9DFEDEEDD47B}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,10 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>月份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二月</t>
   </si>
   <si>
@@ -226,19 +222,7 @@
     <t>八月</t>
   </si>
   <si>
-    <t>青河低温</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青河高温</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一均(℃)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -282,6 +266,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>谢列姆贾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1991-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三池渊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -316,20 +316,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 东戈壁 VS 谢列姆贾</t>
+      <t xml:space="preserve"> 河北康保 VS 朝鲜三池渊</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢列姆贾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1991-2020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1961-1990</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +331,7 @@
     <numFmt numFmtId="178" formatCode="0.0"/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,35 +711,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="17"/>
-      <color rgb="FF92D050"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="17"/>
-      <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="17"/>
-      <color rgb="FFFFFF00"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="59">
+  <fills count="55">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,12 +745,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD1CE6E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD8D174"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -808,12 +763,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4AB4F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF499FEF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -838,60 +787,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBF3100"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCB302"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFBDC75A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4895EF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3D0CA4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4BBFF0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC21A99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDD7A02"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC43C01"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -904,48 +805,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4E0CAA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDED287"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD61E92"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF02488"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF446BEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF4680EF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF530BAC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF6C09B5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -958,18 +829,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7209B7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF560BAD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF3C1DB2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -988,42 +847,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA6B834"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4B0CA9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF670AB3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF83B91"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDD1F8F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA113A6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF5C0BAF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1048,48 +877,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAE16A1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF72585"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3F37C9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF5BB00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8B2008"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD76A03"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9EB224"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFAEBE44"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1097,6 +896,144 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE9D7AC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3E2EC1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4148D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E9D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4C961"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBD17D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCACC67"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6D3A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2E3D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0DCDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6DCFEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800CB2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9B11A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF400CA5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4361EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4259E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF480CA8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF860DB0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBDCB5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA604"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE38A02"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD25F02"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCD5302"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF96AC14"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,7 +1272,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1381,34 +1318,34 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="27" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="27" fillId="25" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="27" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="25" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="31" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="25" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="33" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="25" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="25" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="25" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="34" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1423,179 +1360,23 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="39" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="39" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="41" fillId="43" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="39" fillId="52" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="39" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="32" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="44" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="48" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="45" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="47" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="39" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="53" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="31" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="41" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="41" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="41" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="39" fillId="54" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="41" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="49" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="55" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="56" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="57" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="50" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="58" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="41" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="41" fillId="51" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="43" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1603,9 +1384,45 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="30" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1639,62 +1456,173 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="178" fontId="39" fillId="32" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="39" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="39" fillId="43" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="41" fillId="49" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="41" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="44" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="50" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="31" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="45" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="51" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="52" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="41" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="41" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="41" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="39" fillId="41" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="39" fillId="53" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="41" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="39" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="47" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="54" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="25" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="48" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="41" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2259,17 +2187,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="I1" s="26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J1" s="30">
         <v>-15.3</v>
@@ -2312,59 +2240,59 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="89"/>
-      <c r="B2" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="101" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="105" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="106"/>
+      <c r="G2" s="47"/>
       <c r="I2" s="28" cm="1">
         <f t="array" ref="I2:I14">TRANSPOSE(J1:V1)</f>
         <v>-15.3</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="109"/>
-      <c r="B3" s="115" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="116" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="108"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="I3" s="28">
         <v>-6.8</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="110"/>
-      <c r="B4" s="112" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="117" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="118" t="s">
-        <v>43</v>
-      </c>
       <c r="F4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="63" t="s">
         <v>41</v>
-      </c>
-      <c r="G4" s="119" t="s">
-        <v>43</v>
       </c>
       <c r="I4" s="27">
         <v>14.5</v>
@@ -2374,23 +2302,23 @@
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31">
-        <v>-34.200000000000003</v>
-      </c>
-      <c r="C5" s="32">
-        <v>-35.5</v>
-      </c>
-      <c r="D5" s="33">
-        <v>-50.3</v>
-      </c>
-      <c r="E5" s="34">
-        <v>-57.4</v>
-      </c>
-      <c r="F5" s="35">
-        <v>-15.3</v>
-      </c>
-      <c r="G5" s="36">
-        <v>-5</v>
+      <c r="B5" s="64">
+        <v>-17</v>
+      </c>
+      <c r="C5" s="64">
+        <v>-17</v>
+      </c>
+      <c r="D5" s="65">
+        <v>-37.4</v>
+      </c>
+      <c r="E5" s="66">
+        <v>-42</v>
+      </c>
+      <c r="F5" s="67">
+        <v>7.6</v>
+      </c>
+      <c r="G5" s="68">
+        <v>5.3</v>
       </c>
       <c r="I5" s="27">
         <v>31.5</v>
@@ -2400,23 +2328,23 @@
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="37">
-        <v>-30.5</v>
-      </c>
-      <c r="C6" s="38">
-        <v>-29.3</v>
-      </c>
-      <c r="D6" s="39">
-        <v>-51.3</v>
-      </c>
-      <c r="E6" s="40">
-        <v>-55</v>
-      </c>
-      <c r="F6" s="41">
-        <v>-6.8</v>
-      </c>
-      <c r="G6" s="42">
-        <v>1.4</v>
+      <c r="B6" s="69">
+        <v>-12.6</v>
+      </c>
+      <c r="C6" s="70">
+        <v>-13.7</v>
+      </c>
+      <c r="D6" s="71">
+        <v>-35</v>
+      </c>
+      <c r="E6" s="66">
+        <v>-42</v>
+      </c>
+      <c r="F6" s="72">
+        <v>12.7</v>
+      </c>
+      <c r="G6" s="72">
+        <v>12</v>
       </c>
       <c r="I6" s="27">
         <v>33.4</v>
@@ -2426,23 +2354,23 @@
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="43">
-        <v>-18.399999999999999</v>
-      </c>
-      <c r="C7" s="44">
-        <v>-17.100000000000001</v>
-      </c>
-      <c r="D7" s="45">
-        <v>-43</v>
-      </c>
-      <c r="E7" s="46">
-        <v>-47.2</v>
-      </c>
-      <c r="F7" s="47">
-        <v>14.5</v>
-      </c>
-      <c r="G7" s="48">
-        <v>11.7</v>
+      <c r="B7" s="73">
+        <v>-4.2</v>
+      </c>
+      <c r="C7" s="74">
+        <v>-7.3</v>
+      </c>
+      <c r="D7" s="75">
+        <v>-31.5</v>
+      </c>
+      <c r="E7" s="76">
+        <v>-33.6</v>
+      </c>
+      <c r="F7" s="77">
+        <v>20.8</v>
+      </c>
+      <c r="G7" s="78">
+        <v>14.7</v>
       </c>
       <c r="I7" s="27">
         <v>38.5</v>
@@ -2452,23 +2380,23 @@
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="42">
-        <v>1.9</v>
-      </c>
-      <c r="C8" s="49">
-        <v>-4</v>
-      </c>
-      <c r="D8" s="50">
-        <v>-31.8</v>
-      </c>
-      <c r="E8" s="51">
-        <v>-37</v>
-      </c>
-      <c r="F8" s="52">
-        <v>31.5</v>
-      </c>
-      <c r="G8" s="53">
-        <v>19.2</v>
+      <c r="B8" s="79">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C8" s="80">
+        <v>1.4</v>
+      </c>
+      <c r="D8" s="81">
+        <v>-17.5</v>
+      </c>
+      <c r="E8" s="82">
+        <v>-23</v>
+      </c>
+      <c r="F8" s="83">
+        <v>29.3</v>
+      </c>
+      <c r="G8" s="84">
+        <v>24.5</v>
       </c>
       <c r="I8" s="27">
         <v>42</v>
@@ -2478,23 +2406,23 @@
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="54">
-        <v>12.2</v>
-      </c>
-      <c r="C9" s="55">
-        <v>5.2</v>
-      </c>
-      <c r="D9" s="56">
-        <v>-10</v>
-      </c>
-      <c r="E9" s="44">
-        <v>-17.8</v>
-      </c>
-      <c r="F9" s="57">
-        <v>33.4</v>
-      </c>
-      <c r="G9" s="58">
-        <v>29</v>
+      <c r="B9" s="72">
+        <v>12</v>
+      </c>
+      <c r="C9" s="85">
+        <v>8.4</v>
+      </c>
+      <c r="D9" s="86">
+        <v>-10.5</v>
+      </c>
+      <c r="E9" s="87">
+        <v>-9</v>
+      </c>
+      <c r="F9" s="88">
+        <v>32.4</v>
+      </c>
+      <c r="G9" s="88">
+        <v>32.9</v>
       </c>
       <c r="I9" s="27">
         <v>39.5</v>
@@ -2504,23 +2432,23 @@
       <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="53">
-        <v>19.2</v>
-      </c>
-      <c r="C10" s="54">
-        <v>12.3</v>
-      </c>
-      <c r="D10" s="59">
-        <v>-2.4</v>
-      </c>
-      <c r="E10" s="60">
-        <v>-8</v>
-      </c>
-      <c r="F10" s="61">
-        <v>38.5</v>
-      </c>
-      <c r="G10" s="57">
-        <v>33.1</v>
+      <c r="B10" s="89">
+        <v>17</v>
+      </c>
+      <c r="C10" s="90">
+        <v>13.2</v>
+      </c>
+      <c r="D10" s="91">
+        <v>-3.8</v>
+      </c>
+      <c r="E10" s="91">
+        <v>-3.7</v>
+      </c>
+      <c r="F10" s="92">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="G10" s="83">
+        <v>29.8</v>
       </c>
       <c r="I10" s="27">
         <v>34.5</v>
@@ -2530,23 +2458,23 @@
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="62">
-        <v>21.2</v>
-      </c>
-      <c r="C11" s="63">
-        <v>15.8</v>
-      </c>
-      <c r="D11" s="64">
-        <v>5</v>
-      </c>
-      <c r="E11" s="41">
-        <v>-6.6</v>
-      </c>
-      <c r="F11" s="65">
-        <v>42</v>
-      </c>
-      <c r="G11" s="57">
-        <v>33.299999999999997</v>
+      <c r="B11" s="93">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C11" s="94">
+        <v>16.7</v>
+      </c>
+      <c r="D11" s="95">
+        <v>1.2</v>
+      </c>
+      <c r="E11" s="96">
+        <v>0</v>
+      </c>
+      <c r="F11" s="97">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G11" s="88">
+        <v>32.299999999999997</v>
       </c>
       <c r="I11" s="27">
         <v>22.1</v>
@@ -2556,23 +2484,23 @@
       <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="66">
-        <v>18.3</v>
-      </c>
-      <c r="C12" s="54">
-        <v>12.9</v>
-      </c>
-      <c r="D12" s="59">
-        <v>-2.4</v>
-      </c>
-      <c r="E12" s="36">
-        <v>-5</v>
-      </c>
-      <c r="F12" s="67">
-        <v>39.5</v>
-      </c>
-      <c r="G12" s="68">
-        <v>33.5</v>
+      <c r="B12" s="89">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C12" s="98">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="D12" s="91">
+        <v>-3.6</v>
+      </c>
+      <c r="E12" s="91">
+        <v>-3.8</v>
+      </c>
+      <c r="F12" s="88">
+        <v>32.9</v>
+      </c>
+      <c r="G12" s="99">
+        <v>34.200000000000003</v>
       </c>
       <c r="I12" s="27">
         <v>12.5</v>
@@ -2582,23 +2510,23 @@
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="69">
-        <v>10.6</v>
-      </c>
-      <c r="C13" s="55">
-        <v>5.7</v>
-      </c>
-      <c r="D13" s="70">
+      <c r="B13" s="100">
+        <v>11.6</v>
+      </c>
+      <c r="C13" s="101">
+        <v>9.9</v>
+      </c>
+      <c r="D13" s="87">
         <v>-8.8000000000000007</v>
       </c>
-      <c r="E13" s="71">
-        <v>-15</v>
-      </c>
-      <c r="F13" s="72">
-        <v>34.5</v>
-      </c>
-      <c r="G13" s="73">
-        <v>27</v>
+      <c r="E13" s="102">
+        <v>-11.7</v>
+      </c>
+      <c r="F13" s="103">
+        <v>31.7</v>
+      </c>
+      <c r="G13" s="83">
+        <v>29</v>
       </c>
       <c r="I13" s="27">
         <v>-4</v>
@@ -2608,23 +2536,23 @@
       <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="42">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C14" s="74">
-        <v>-5.8</v>
-      </c>
-      <c r="D14" s="75">
-        <v>-27.1</v>
-      </c>
-      <c r="E14" s="51">
-        <v>-36.1</v>
-      </c>
-      <c r="F14" s="76">
-        <v>22.1</v>
-      </c>
-      <c r="G14" s="77">
-        <v>20.2</v>
+      <c r="B14" s="104">
+        <v>3.1</v>
+      </c>
+      <c r="C14" s="105">
+        <v>2.5</v>
+      </c>
+      <c r="D14" s="106">
+        <v>-18.2</v>
+      </c>
+      <c r="E14" s="107">
+        <v>-25.5</v>
+      </c>
+      <c r="F14" s="84">
+        <v>24.7</v>
+      </c>
+      <c r="G14" s="108">
+        <v>23.8</v>
       </c>
       <c r="I14" s="27">
         <v>42</v>
@@ -2634,23 +2562,23 @@
       <c r="A15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="78">
-        <v>-12.1</v>
-      </c>
-      <c r="C15" s="79">
-        <v>-21.5</v>
-      </c>
-      <c r="D15" s="80">
-        <v>-44.5</v>
-      </c>
-      <c r="E15" s="46">
-        <v>-47.5</v>
-      </c>
-      <c r="F15" s="54">
-        <v>12.5</v>
-      </c>
-      <c r="G15" s="81">
-        <v>8.1999999999999993</v>
+      <c r="B15" s="109">
+        <v>-6.7</v>
+      </c>
+      <c r="C15" s="109">
+        <v>-6.6</v>
+      </c>
+      <c r="D15" s="75">
+        <v>-32</v>
+      </c>
+      <c r="E15" s="75">
+        <v>-31.4</v>
+      </c>
+      <c r="F15" s="89">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G15" s="110">
+        <v>18</v>
       </c>
       <c r="I15" s="27"/>
     </row>
@@ -2658,46 +2586,46 @@
       <c r="A16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="82">
-        <v>-26.9</v>
-      </c>
-      <c r="C16" s="83">
-        <v>-33.6</v>
-      </c>
-      <c r="D16" s="84">
-        <v>-55.6</v>
-      </c>
-      <c r="E16" s="85">
-        <v>-57.2</v>
-      </c>
-      <c r="F16" s="49">
-        <v>-4</v>
-      </c>
-      <c r="G16" s="86">
-        <v>-2</v>
+      <c r="B16" s="111">
+        <v>-14.6</v>
+      </c>
+      <c r="C16" s="111">
+        <v>-14.7</v>
+      </c>
+      <c r="D16" s="112">
+        <v>-36.4</v>
+      </c>
+      <c r="E16" s="113">
+        <v>-38.9</v>
+      </c>
+      <c r="F16" s="100">
+        <v>11.3</v>
+      </c>
+      <c r="G16" s="114">
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="49">
-        <v>-3.1</v>
-      </c>
-      <c r="C17" s="60">
-        <v>-7.9</v>
-      </c>
-      <c r="D17" s="84">
-        <v>-55.6</v>
-      </c>
-      <c r="E17" s="34">
-        <v>-57.4</v>
-      </c>
-      <c r="F17" s="65">
-        <v>42</v>
-      </c>
-      <c r="G17" s="68">
-        <v>33.5</v>
+      <c r="B17" s="105">
+        <v>2.5</v>
+      </c>
+      <c r="C17" s="115">
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="65">
+        <v>-37.4</v>
+      </c>
+      <c r="E17" s="66">
+        <v>-42</v>
+      </c>
+      <c r="F17" s="97">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G17" s="99">
+        <v>34.200000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -2715,10 +2643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9152A6-E7B9-4B02-90F6-A2187C19C989}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2726,40 +2654,46 @@
     <col min="2" max="2" width="9.06640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="14" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="93"/>
+    <row r="1" spans="1:11" s="14" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="53"/>
       <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:11" s="15" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
     </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="90" t="s">
-        <v>33</v>
+    <row r="3" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="50" t="s">
+        <v>29</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>4</v>
@@ -2785,11 +2719,17 @@
       <c r="I3" s="16">
         <v>-35.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="90"/>
+      <c r="J3" s="16">
+        <v>-17</v>
+      </c>
+      <c r="K3" s="16">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="50"/>
       <c r="B4" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="16">
         <v>-12.4</v>
@@ -2812,11 +2752,17 @@
       <c r="I4" s="16">
         <v>-29.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="90"/>
+      <c r="J4" s="16">
+        <v>-12.6</v>
+      </c>
+      <c r="K4" s="16">
+        <v>-13.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="50"/>
       <c r="B5" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="16">
         <v>-3.5</v>
@@ -2839,11 +2785,17 @@
       <c r="I5" s="16">
         <v>-17.100000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="90"/>
+      <c r="J5" s="16">
+        <v>-4.2</v>
+      </c>
+      <c r="K5" s="16">
+        <v>-7.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="50"/>
       <c r="B6" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="16">
         <v>9</v>
@@ -2866,11 +2818,17 @@
       <c r="I6" s="16">
         <v>-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="90"/>
+      <c r="J6" s="16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K6" s="16">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="50"/>
       <c r="B7" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="16">
         <v>15.7</v>
@@ -2893,11 +2851,17 @@
       <c r="I7" s="16">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="90"/>
+      <c r="J7" s="16">
+        <v>12</v>
+      </c>
+      <c r="K7" s="16">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="50"/>
       <c r="B8" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="16">
         <v>20.7</v>
@@ -2920,11 +2884,17 @@
       <c r="I8" s="16">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="90"/>
+      <c r="J8" s="16">
+        <v>17</v>
+      </c>
+      <c r="K8" s="16">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="50"/>
       <c r="B9" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="16">
         <v>21.9</v>
@@ -2947,11 +2917,17 @@
       <c r="I9" s="16">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="90"/>
+      <c r="J9" s="16">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="K9" s="16">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="50"/>
       <c r="B10" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="16">
         <v>20.100000000000001</v>
@@ -2974,9 +2950,15 @@
       <c r="I10" s="16">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="90"/>
+      <c r="J10" s="16">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="K10" s="16">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="50"/>
       <c r="B11" s="19" t="s">
         <v>12</v>
       </c>
@@ -3001,9 +2983,15 @@
       <c r="I11" s="16">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="90"/>
+      <c r="J11" s="16">
+        <v>11.6</v>
+      </c>
+      <c r="K11" s="16">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="50"/>
       <c r="B12" s="19" t="s">
         <v>13</v>
       </c>
@@ -3028,9 +3016,15 @@
       <c r="I12" s="16">
         <v>-5.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="90"/>
+      <c r="J12" s="16">
+        <v>3.1</v>
+      </c>
+      <c r="K12" s="16">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="50"/>
       <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
@@ -3055,9 +3049,15 @@
       <c r="I13" s="16">
         <v>-21.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="90"/>
+      <c r="J13" s="16">
+        <v>-6.7</v>
+      </c>
+      <c r="K13" s="16">
+        <v>-6.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="50"/>
       <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
@@ -3082,9 +3082,15 @@
       <c r="I14" s="16">
         <v>-33.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="90"/>
+      <c r="J14" s="16">
+        <v>-14.6</v>
+      </c>
+      <c r="K14" s="16">
+        <v>-14.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="50"/>
       <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
@@ -3109,14 +3115,20 @@
       <c r="I15" s="16">
         <v>-7.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="17" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J15" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="17" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23"/>
       <c r="B16" s="20"/>
     </row>
-    <row r="17" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="91" t="s">
-        <v>34</v>
+    <row r="17" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="51" t="s">
+        <v>30</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>4</v>
@@ -3142,11 +3154,17 @@
       <c r="I17" s="16">
         <v>-57.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="91"/>
+      <c r="J17" s="16">
+        <v>-37.4</v>
+      </c>
+      <c r="K17" s="16">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="51"/>
       <c r="B18" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="16">
         <v>-41.5</v>
@@ -3169,11 +3187,17 @@
       <c r="I18" s="16">
         <v>-55</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="91"/>
+      <c r="J18" s="16">
+        <v>-35</v>
+      </c>
+      <c r="K18" s="16">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="51"/>
       <c r="B19" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="16">
         <v>-36.4</v>
@@ -3196,11 +3220,17 @@
       <c r="I19" s="16">
         <v>-47.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="91"/>
+      <c r="J19" s="16">
+        <v>-31.5</v>
+      </c>
+      <c r="K19" s="16">
+        <v>-33.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="51"/>
       <c r="B20" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="16">
         <v>-17.3</v>
@@ -3223,11 +3253,17 @@
       <c r="I20" s="16">
         <v>-37</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="91"/>
+      <c r="J20" s="16">
+        <v>-17.5</v>
+      </c>
+      <c r="K20" s="16">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="51"/>
       <c r="B21" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="16">
         <v>-4.3</v>
@@ -3250,11 +3286,17 @@
       <c r="I21" s="16">
         <v>-17.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="91"/>
+      <c r="J21" s="16">
+        <v>-10.5</v>
+      </c>
+      <c r="K21" s="16">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="51"/>
       <c r="B22" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="16">
         <v>1.9</v>
@@ -3277,11 +3319,17 @@
       <c r="I22" s="16">
         <v>-8</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="91"/>
+      <c r="J22" s="16">
+        <v>-3.8</v>
+      </c>
+      <c r="K22" s="16">
+        <v>-3.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="51"/>
       <c r="B23" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="16">
         <v>6</v>
@@ -3304,11 +3352,17 @@
       <c r="I23" s="16">
         <v>-6.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="91"/>
+      <c r="J23" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="K23" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="51"/>
       <c r="B24" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="16">
         <v>0.4</v>
@@ -3331,9 +3385,15 @@
       <c r="I24" s="16">
         <v>-5</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="91"/>
+      <c r="J24" s="16">
+        <v>-3.6</v>
+      </c>
+      <c r="K24" s="16">
+        <v>-3.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="51"/>
       <c r="B25" s="21" t="s">
         <v>12</v>
       </c>
@@ -3358,9 +3418,15 @@
       <c r="I25" s="16">
         <v>-15</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="91"/>
+      <c r="J25" s="16">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="K25" s="16">
+        <v>-11.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="51"/>
       <c r="B26" s="21" t="s">
         <v>13</v>
       </c>
@@ -3385,9 +3451,15 @@
       <c r="I26" s="16">
         <v>-36.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="91"/>
+      <c r="J26" s="16">
+        <v>-18.2</v>
+      </c>
+      <c r="K26" s="16">
+        <v>-25.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="51"/>
       <c r="B27" s="21" t="s">
         <v>14</v>
       </c>
@@ -3412,9 +3484,15 @@
       <c r="I27" s="16">
         <v>-47.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="91"/>
+      <c r="J27" s="16">
+        <v>-32</v>
+      </c>
+      <c r="K27" s="16">
+        <v>-31.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="51"/>
       <c r="B28" s="21" t="s">
         <v>15</v>
       </c>
@@ -3439,9 +3517,15 @@
       <c r="I28" s="16">
         <v>-57.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="91"/>
+      <c r="J28" s="16">
+        <v>-36.4</v>
+      </c>
+      <c r="K28" s="16">
+        <v>-38.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="51"/>
       <c r="B29" s="21" t="s">
         <v>16</v>
       </c>
@@ -3466,14 +3550,20 @@
       <c r="I29" s="16">
         <v>-57.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" s="17" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J29" s="16">
+        <v>-37.4</v>
+      </c>
+      <c r="K29" s="16">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="17" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="24"/>
       <c r="B30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="92" t="s">
-        <v>35</v>
+    <row r="31" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="52" t="s">
+        <v>31</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>4</v>
@@ -3499,11 +3589,17 @@
       <c r="I31" s="16">
         <v>-5</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="92"/>
+      <c r="J31" s="16">
+        <v>7.6</v>
+      </c>
+      <c r="K31" s="16">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="52"/>
       <c r="B32" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="16">
         <v>8.3000000000000007</v>
@@ -3526,11 +3622,17 @@
       <c r="I32" s="16">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="92"/>
+      <c r="J32" s="16">
+        <v>12.7</v>
+      </c>
+      <c r="K32" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="52"/>
       <c r="B33" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="16">
         <v>23.1</v>
@@ -3553,11 +3655,17 @@
       <c r="I33" s="16">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="92"/>
+      <c r="J33" s="16">
+        <v>20.8</v>
+      </c>
+      <c r="K33" s="16">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="52"/>
       <c r="B34" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="16">
         <v>31.4</v>
@@ -3580,11 +3688,17 @@
       <c r="I34" s="16">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="92"/>
+      <c r="J34" s="16">
+        <v>29.3</v>
+      </c>
+      <c r="K34" s="16">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="52"/>
       <c r="B35" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="16">
         <v>35.9</v>
@@ -3607,11 +3721,17 @@
       <c r="I35" s="16">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="92"/>
+      <c r="J35" s="16">
+        <v>32.4</v>
+      </c>
+      <c r="K35" s="16">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="52"/>
       <c r="B36" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="16">
         <v>37</v>
@@ -3634,11 +3754,17 @@
       <c r="I36" s="16">
         <v>33.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="92"/>
+      <c r="J36" s="16">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="K36" s="16">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="52"/>
       <c r="B37" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" s="16">
         <v>39.5</v>
@@ -3661,11 +3787,17 @@
       <c r="I37" s="16">
         <v>33.299999999999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="92"/>
+      <c r="J37" s="16">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="K37" s="16">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="52"/>
       <c r="B38" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="16">
         <v>37.6</v>
@@ -3688,9 +3820,15 @@
       <c r="I38" s="16">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="92"/>
+      <c r="J38" s="16">
+        <v>32.9</v>
+      </c>
+      <c r="K38" s="16">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="52"/>
       <c r="B39" s="25" t="s">
         <v>12</v>
       </c>
@@ -3715,9 +3853,15 @@
       <c r="I39" s="16">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="92"/>
+      <c r="J39" s="16">
+        <v>31.7</v>
+      </c>
+      <c r="K39" s="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="52"/>
       <c r="B40" s="25" t="s">
         <v>13</v>
       </c>
@@ -3742,9 +3886,15 @@
       <c r="I40" s="16">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="92"/>
+      <c r="J40" s="16">
+        <v>24.7</v>
+      </c>
+      <c r="K40" s="16">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="52"/>
       <c r="B41" s="25" t="s">
         <v>14</v>
       </c>
@@ -3769,9 +3919,15 @@
       <c r="I41" s="16">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="92"/>
+      <c r="J41" s="16">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="K41" s="16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="52"/>
       <c r="B42" s="25" t="s">
         <v>15</v>
       </c>
@@ -3796,9 +3952,15 @@
       <c r="I42" s="16">
         <v>-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="92"/>
+      <c r="J42" s="16">
+        <v>11.3</v>
+      </c>
+      <c r="K42" s="16">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="52"/>
       <c r="B43" s="25" t="s">
         <v>16</v>
       </c>
@@ -3822,6 +3984,12 @@
       </c>
       <c r="I43" s="16">
         <v>33.5</v>
+      </c>
+      <c r="J43" s="16">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="K43" s="16">
+        <v>34.200000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -3838,266 +4006,231 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3E905B-CA4A-4CD6-9044-5006DDE03841}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1961</v>
       </c>
       <c r="B2">
-        <v>-25.2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="D2" s="116" cm="1">
+        <f t="array" ref="D2:AG2">TRANSPOSE(B2:B31)</f>
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="E2">
+        <v>-20</v>
+      </c>
+      <c r="F2">
+        <v>-19.399999999999999</v>
       </c>
       <c r="G2">
-        <v>-49.7</v>
+        <v>-17.8</v>
       </c>
       <c r="H2">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+        <v>-17.8</v>
+      </c>
+      <c r="I2">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="J2">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="K2">
+        <v>-21.1</v>
+      </c>
+      <c r="L2">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="M2">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="N2">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="O2">
+        <v>-17.8</v>
+      </c>
+      <c r="P2">
+        <v>-16.8</v>
+      </c>
+      <c r="Q2">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="R2">
+        <v>-15.6</v>
+      </c>
+      <c r="S2">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="T2">
+        <v>-22.6</v>
+      </c>
+      <c r="U2">
+        <v>-17.3</v>
+      </c>
+      <c r="V2">
+        <v>-14.1</v>
+      </c>
+      <c r="W2">
+        <v>-17.7</v>
+      </c>
+      <c r="X2">
+        <v>-21</v>
+      </c>
+      <c r="Y2">
+        <v>-18.2</v>
+      </c>
+      <c r="Z2">
+        <v>-17.7</v>
+      </c>
+      <c r="AA2">
+        <v>-19.3</v>
+      </c>
+      <c r="AB2">
+        <v>-19</v>
+      </c>
+      <c r="AC2">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="AD2">
+        <v>-15.1</v>
+      </c>
+      <c r="AE2">
+        <v>-16.8</v>
+      </c>
+      <c r="AF2">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="AG2">
+        <v>-19.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1962</v>
       </c>
       <c r="B3">
-        <v>-21.6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3">
-        <v>-46.7</v>
-      </c>
-      <c r="H3">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1963</v>
       </c>
       <c r="B4">
-        <v>-20.2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4">
-        <v>-39.5</v>
-      </c>
-      <c r="H4">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>-19.399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1964</v>
       </c>
       <c r="B5">
-        <v>-21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5">
-        <v>-24.6</v>
-      </c>
-      <c r="H5">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+        <v>-17.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1965</v>
       </c>
       <c r="B6">
-        <v>-20.3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6">
-        <v>-6.5</v>
-      </c>
-      <c r="H6">
-        <v>33.200000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+        <v>-17.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1966</v>
       </c>
       <c r="B7">
-        <v>-20.8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7">
-        <v>-2.8</v>
-      </c>
-      <c r="H7">
-        <v>35.700000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>-16.600000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1967</v>
       </c>
       <c r="B8">
-        <v>-28.7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8">
-        <v>1.4</v>
-      </c>
-      <c r="H8">
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+        <v>-17.399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1968</v>
       </c>
       <c r="B9">
-        <v>-23.4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9">
-        <v>-1.5</v>
-      </c>
-      <c r="H9">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+        <v>-21.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1969</v>
       </c>
       <c r="B10">
-        <v>-29.5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>-10.7</v>
-      </c>
-      <c r="H10">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+        <v>-20.100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1970</v>
       </c>
       <c r="B11">
-        <v>-21.7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>-26.1</v>
-      </c>
-      <c r="H11">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+        <v>-18.399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1971</v>
       </c>
       <c r="B12">
-        <v>-25.2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12">
-        <v>-42.9</v>
-      </c>
-      <c r="H12">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+        <v>-17.600000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1972</v>
       </c>
       <c r="B13">
-        <v>-23.6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <v>-47.7</v>
-      </c>
-      <c r="H13">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+        <v>-17.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1973</v>
       </c>
       <c r="B14">
-        <v>-21.8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14">
-        <v>-49.7</v>
-      </c>
-      <c r="H14">
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+        <v>-16.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1974</v>
       </c>
       <c r="B15">
-        <v>-21.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+        <v>-17.100000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1975</v>
       </c>
       <c r="B16">
-        <v>-22.3</v>
+        <v>-15.6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -4105,7 +4238,7 @@
         <v>1976</v>
       </c>
       <c r="B17">
-        <v>-20.3</v>
+        <v>-17.399999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -4113,7 +4246,7 @@
         <v>1977</v>
       </c>
       <c r="B18">
-        <v>-27.9</v>
+        <v>-22.6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -4121,7 +4254,7 @@
         <v>1978</v>
       </c>
       <c r="B19">
-        <v>-24.2</v>
+        <v>-17.3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -4129,7 +4262,7 @@
         <v>1979</v>
       </c>
       <c r="B20">
-        <v>-22.9</v>
+        <v>-14.1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -4137,7 +4270,7 @@
         <v>1980</v>
       </c>
       <c r="B21">
-        <v>-24.6</v>
+        <v>-17.7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -4145,7 +4278,7 @@
         <v>1981</v>
       </c>
       <c r="B22">
-        <v>-19.899999999999999</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
@@ -4153,7 +4286,7 @@
         <v>1982</v>
       </c>
       <c r="B23">
-        <v>-18.100000000000001</v>
+        <v>-18.2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
@@ -4161,7 +4294,7 @@
         <v>1983</v>
       </c>
       <c r="B24">
-        <v>-20.3</v>
+        <v>-17.7</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
@@ -4169,7 +4302,7 @@
         <v>1984</v>
       </c>
       <c r="B25">
-        <v>-22.6</v>
+        <v>-19.3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
@@ -4177,7 +4310,7 @@
         <v>1985</v>
       </c>
       <c r="B26">
-        <v>-23.6</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
@@ -4185,7 +4318,7 @@
         <v>1986</v>
       </c>
       <c r="B27">
-        <v>-22.6</v>
+        <v>-17.100000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
@@ -4193,7 +4326,7 @@
         <v>1987</v>
       </c>
       <c r="B28">
-        <v>-20.5</v>
+        <v>-15.1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
@@ -4201,7 +4334,7 @@
         <v>1988</v>
       </c>
       <c r="B29">
-        <v>-23.5</v>
+        <v>-16.8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
@@ -4209,7 +4342,7 @@
         <v>1989</v>
       </c>
       <c r="B30">
-        <v>-21.6</v>
+        <v>-16.600000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
@@ -4217,13 +4350,13 @@
         <v>1990</v>
       </c>
       <c r="B31">
-        <v>-21.1</v>
+        <v>-19.2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B32">
         <f>AVERAGE(B2:B31)</f>
-        <v>-22.696666666666669</v>
+        <v>-18.000000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -4250,18 +4383,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:5" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="96"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4276,7 +4409,7 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="97"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="9">
         <v>42398</v>
       </c>
@@ -4291,7 +4424,7 @@
       <c r="B4" s="5">
         <v>-42.1</v>
       </c>
-      <c r="C4" s="97"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="9">
         <v>42399</v>
       </c>
@@ -4306,7 +4439,7 @@
       <c r="B5" s="5">
         <v>-40.5</v>
       </c>
-      <c r="C5" s="97"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="9">
         <v>42400</v>
       </c>
@@ -4321,7 +4454,7 @@
       <c r="B6" s="5">
         <v>-44.8</v>
       </c>
-      <c r="C6" s="97"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="8">
         <v>42401</v>
       </c>
@@ -4336,7 +4469,7 @@
       <c r="B7" s="5">
         <v>-40.6</v>
       </c>
-      <c r="C7" s="97"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="8">
         <v>42402</v>
       </c>
@@ -4351,7 +4484,7 @@
       <c r="B8" s="5">
         <v>-48.6</v>
       </c>
-      <c r="C8" s="97"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="8">
         <v>42403</v>
       </c>
@@ -4366,7 +4499,7 @@
       <c r="B9" s="5">
         <v>-46.8</v>
       </c>
-      <c r="C9" s="97"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="9">
         <v>42404</v>
       </c>
@@ -4381,7 +4514,7 @@
       <c r="B10" s="5">
         <v>-40.5</v>
       </c>
-      <c r="C10" s="97"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="9">
         <v>42405</v>
       </c>
@@ -4396,7 +4529,7 @@
       <c r="B11" s="5">
         <v>-47.1</v>
       </c>
-      <c r="C11" s="97"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="9">
         <v>42406</v>
       </c>
@@ -4411,7 +4544,7 @@
       <c r="B12" s="5">
         <v>-47.8</v>
       </c>
-      <c r="C12" s="97"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="6">
         <v>42412</v>
       </c>
@@ -4426,7 +4559,7 @@
       <c r="B13" s="5">
         <v>-42.4</v>
       </c>
-      <c r="C13" s="97"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="6">
         <v>42413</v>
       </c>
@@ -4441,7 +4574,7 @@
       <c r="B14" s="5">
         <v>-47.5</v>
       </c>
-      <c r="C14" s="97"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="4">
         <v>42414</v>
       </c>
@@ -4456,7 +4589,7 @@
       <c r="B15" s="5">
         <v>-40</v>
       </c>
-      <c r="C15" s="97"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="4">
         <v>42415</v>
       </c>
@@ -4471,7 +4604,7 @@
       <c r="B16" s="5">
         <v>-40.1</v>
       </c>
-      <c r="C16" s="97"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="4">
         <v>42416</v>
       </c>
@@ -4486,7 +4619,7 @@
       <c r="B17" s="5">
         <v>-42.6</v>
       </c>
-      <c r="C17" s="97"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="4">
         <v>42417</v>
       </c>
@@ -4501,7 +4634,7 @@
       <c r="B18" s="5">
         <v>-41.1</v>
       </c>
-      <c r="C18" s="97"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="8">
         <v>42419</v>
       </c>
@@ -4516,7 +4649,7 @@
       <c r="B19" s="5">
         <v>-43.4</v>
       </c>
-      <c r="C19" s="97"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="8">
         <v>42420</v>
       </c>
@@ -4531,7 +4664,7 @@
       <c r="B20" s="5">
         <v>-46</v>
       </c>
-      <c r="C20" s="97"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="4">
         <v>42422</v>
       </c>
@@ -4546,7 +4679,7 @@
       <c r="B21" s="5">
         <v>-44.8</v>
       </c>
-      <c r="C21" s="97"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="4">
         <v>42423</v>
       </c>
@@ -4561,7 +4694,7 @@
       <c r="B22" s="5">
         <v>-42.9</v>
       </c>
-      <c r="C22" s="97"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="4">
         <v>42424</v>
       </c>
@@ -4576,7 +4709,7 @@
       <c r="B23" s="5">
         <v>-42.3</v>
       </c>
-      <c r="C23" s="97"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="4">
         <v>42425</v>
       </c>
@@ -4591,7 +4724,7 @@
       <c r="B24" s="5">
         <v>-44</v>
       </c>
-      <c r="C24" s="97"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="8">
         <v>42433</v>
       </c>
@@ -4606,7 +4739,7 @@
       <c r="B25" s="5">
         <v>-45.6</v>
       </c>
-      <c r="C25" s="97"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="8">
         <v>42434</v>
       </c>
@@ -4621,7 +4754,7 @@
       <c r="B26" s="5">
         <v>-47.7</v>
       </c>
-      <c r="C26" s="97"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="8">
         <v>42435</v>
       </c>
@@ -4636,7 +4769,7 @@
       <c r="B27" s="5">
         <v>-48.5</v>
       </c>
-      <c r="C27" s="97"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="8">
         <v>42436</v>
       </c>
@@ -4651,7 +4784,7 @@
       <c r="B28" s="5">
         <v>-50</v>
       </c>
-      <c r="C28" s="97"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="9">
         <v>42437</v>
       </c>
@@ -4666,7 +4799,7 @@
       <c r="B29" s="5">
         <v>-48</v>
       </c>
-      <c r="C29" s="97"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="9">
         <v>42438</v>
       </c>
@@ -4681,7 +4814,7 @@
       <c r="B30" s="5">
         <v>-49.3</v>
       </c>
-      <c r="C30" s="97"/>
+      <c r="C30" s="57"/>
       <c r="D30" s="9">
         <v>42439</v>
       </c>
@@ -4696,7 +4829,7 @@
       <c r="B31" s="5">
         <v>-49.1</v>
       </c>
-      <c r="C31" s="98"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="8">
         <v>42440</v>
       </c>

--- a/气象/双站寒冷PK.xlsx
+++ b/气象/双站寒冷PK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0006A93F-933E-4124-9CF1-01C0C9C00123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EBF6BE-2343-4761-A691-601D0914D520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E01B588A-3742-4A11-89A2-9DFEDEEDD47B}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,6 +282,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>莫斯科</t>
+  </si>
+  <si>
+    <t>莫斯科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈阳</t>
+  </si>
+  <si>
+    <t>沈阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -316,7 +330,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 河北康保 VS 朝鲜三池渊</t>
+      <t xml:space="preserve"> 沈阳 VS 莫斯科</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -712,7 +726,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="55">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,12 +753,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4AAAEF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD8D174"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -757,37 +765,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3D26BA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF499FEF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF403FD0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE0D290"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE99B01"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDC75A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,19 +801,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6C09B5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE3D39A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3C1DB2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,18 +820,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF670AB3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5C0BAF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF790AB5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,31 +849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAEBE44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE9D7AC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3E2EC1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4148D8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E9D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,25 +885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB0DCDD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF6DCFEA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF800CB2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9B11A8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,31 +897,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4361EE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF4259E7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF480CA8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF860DB0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBDCB5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,12 +921,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD25F02"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCD5302"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1034,6 +928,108 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF96AC14"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4895EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4CC9F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEE0BF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9EB224"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA113A6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF560BAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF610AB1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF450CA7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3A0CA3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4AB4F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BBFF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7AE02"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0B701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFAB01"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD7A02"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC94801"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC43C01"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,34 +1314,34 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="27" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="27" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="27" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="31" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="33" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="34" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1360,10 +1356,10 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1378,6 +1374,174 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="31" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="32" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="41" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="41" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="25" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="39" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="39" fillId="39" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="39" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="41" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="41" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="43" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="47" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="48" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="49" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="44" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="50" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="41" fillId="31" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="41" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="39" fillId="51" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="51" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="45" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="39" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1455,174 +1619,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="39" fillId="32" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="39" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="39" fillId="43" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="41" fillId="49" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="41" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="44" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="50" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="31" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="45" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="51" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="52" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="41" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="41" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="41" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="39" fillId="41" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="39" fillId="53" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="41" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="39" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="47" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="54" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="25" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="48" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="41" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2187,398 +2183,372 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="A1" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
       <c r="I1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="30">
-        <v>-15.3</v>
-      </c>
-      <c r="K1" s="29">
-        <v>-6.8</v>
-      </c>
-      <c r="L1" s="29">
-        <v>14.5</v>
-      </c>
-      <c r="M1" s="29">
-        <v>31.5</v>
-      </c>
-      <c r="N1" s="29">
-        <v>33.4</v>
-      </c>
-      <c r="O1" s="29">
-        <v>38.5</v>
-      </c>
-      <c r="P1" s="29">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="29">
-        <v>39.5</v>
-      </c>
-      <c r="R1" s="29">
-        <v>34.5</v>
-      </c>
-      <c r="S1" s="29">
-        <v>22.1</v>
-      </c>
-      <c r="T1" s="29">
-        <v>12.5</v>
-      </c>
-      <c r="U1" s="29">
-        <v>-4</v>
-      </c>
-      <c r="V1" s="29">
-        <v>42</v>
-      </c>
+      <c r="J1" s="30"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
     </row>
     <row r="2" spans="1:22" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="39"/>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="94"/>
+      <c r="D2" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="46" t="s">
+      <c r="E2" s="99"/>
+      <c r="F2" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="47"/>
+      <c r="G2" s="103"/>
       <c r="I2" s="28" cm="1">
         <f t="array" ref="I2:I14">TRANSPOSE(J1:V1)</f>
-        <v>-15.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="40"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="33" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="105"/>
       <c r="I3" s="28">
-        <v>-6.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="41"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="63" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>44</v>
       </c>
       <c r="I4" s="27">
-        <v>14.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="64">
-        <v>-17</v>
-      </c>
-      <c r="C5" s="64">
-        <v>-17</v>
-      </c>
-      <c r="D5" s="65">
-        <v>-37.4</v>
-      </c>
-      <c r="E5" s="66">
-        <v>-42</v>
-      </c>
-      <c r="F5" s="67">
-        <v>7.6</v>
-      </c>
-      <c r="G5" s="68">
-        <v>5.3</v>
+      <c r="B5" s="90">
+        <v>-6.2</v>
+      </c>
+      <c r="C5" s="63">
+        <v>-11.4</v>
+      </c>
+      <c r="D5" s="64">
+        <v>-42.1</v>
+      </c>
+      <c r="E5" s="65">
+        <v>-33.1</v>
+      </c>
+      <c r="F5" s="46">
+        <v>8.6</v>
+      </c>
+      <c r="G5" s="66">
+        <v>8.6</v>
       </c>
       <c r="I5" s="27">
-        <v>31.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="69">
-        <v>-12.6</v>
-      </c>
-      <c r="C6" s="70">
-        <v>-13.7</v>
-      </c>
-      <c r="D6" s="71">
-        <v>-35</v>
-      </c>
-      <c r="E6" s="66">
-        <v>-42</v>
-      </c>
-      <c r="F6" s="72">
-        <v>12.7</v>
-      </c>
-      <c r="G6" s="72">
-        <v>12</v>
+      <c r="B6" s="67">
+        <v>-5.9</v>
+      </c>
+      <c r="C6" s="58">
+        <v>-6.3</v>
+      </c>
+      <c r="D6" s="59">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="E6" s="68">
+        <v>-30.1</v>
+      </c>
+      <c r="F6" s="66">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G6" s="49">
+        <v>17.2</v>
       </c>
       <c r="I6" s="27">
-        <v>33.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="73">
-        <v>-4.2</v>
-      </c>
-      <c r="C7" s="74">
-        <v>-7.3</v>
-      </c>
-      <c r="D7" s="75">
-        <v>-31.5</v>
-      </c>
-      <c r="E7" s="76">
-        <v>-33.6</v>
-      </c>
-      <c r="F7" s="77">
-        <v>20.8</v>
-      </c>
-      <c r="G7" s="78">
-        <v>14.7</v>
+      <c r="B7" s="69">
+        <v>-0.7</v>
+      </c>
+      <c r="C7" s="42">
+        <v>1.7</v>
+      </c>
+      <c r="D7" s="70">
+        <v>-32.4</v>
+      </c>
+      <c r="E7" s="71">
+        <v>-25</v>
+      </c>
+      <c r="F7" s="72">
+        <v>19.7</v>
+      </c>
+      <c r="G7" s="73">
+        <v>26.1</v>
       </c>
       <c r="I7" s="27">
-        <v>38.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="79">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C8" s="80">
-        <v>1.4</v>
-      </c>
-      <c r="D8" s="81">
-        <v>-17.5</v>
-      </c>
-      <c r="E8" s="82">
-        <v>-23</v>
-      </c>
-      <c r="F8" s="83">
-        <v>29.3</v>
-      </c>
-      <c r="G8" s="84">
-        <v>24.5</v>
+      <c r="B8" s="74">
+        <v>6.9</v>
+      </c>
+      <c r="C8" s="60">
+        <v>10.8</v>
+      </c>
+      <c r="D8" s="75">
+        <v>-21</v>
+      </c>
+      <c r="E8" s="38">
+        <v>-12.5</v>
+      </c>
+      <c r="F8" s="76">
+        <v>28.9</v>
+      </c>
+      <c r="G8" s="77">
+        <v>30</v>
       </c>
       <c r="I8" s="27">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="72">
-        <v>12</v>
-      </c>
-      <c r="C9" s="85">
-        <v>8.4</v>
-      </c>
-      <c r="D9" s="86">
-        <v>-10.5</v>
-      </c>
-      <c r="E9" s="87">
-        <v>-9</v>
-      </c>
-      <c r="F9" s="88">
-        <v>32.4</v>
-      </c>
-      <c r="G9" s="88">
-        <v>32.9</v>
+      <c r="B9" s="50">
+        <v>13.6</v>
+      </c>
+      <c r="C9" s="49">
+        <v>17.8</v>
+      </c>
+      <c r="D9" s="40">
+        <v>-7.5</v>
+      </c>
+      <c r="E9" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="78">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="G9" s="79">
+        <v>36.299999999999997</v>
       </c>
       <c r="I9" s="27">
-        <v>39.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="89">
-        <v>17</v>
-      </c>
-      <c r="C10" s="90">
-        <v>13.2</v>
-      </c>
-      <c r="D10" s="91">
-        <v>-3.8</v>
-      </c>
-      <c r="E10" s="91">
-        <v>-3.7</v>
-      </c>
-      <c r="F10" s="92">
-        <v>35.700000000000003</v>
+      <c r="B10" s="49">
+        <v>17.3</v>
+      </c>
+      <c r="C10" s="80">
+        <v>22.3</v>
+      </c>
+      <c r="D10" s="81">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="E10" s="56">
+        <v>3.6</v>
+      </c>
+      <c r="F10" s="82">
+        <v>34.799999999999997</v>
       </c>
       <c r="G10" s="83">
-        <v>29.8</v>
+        <v>37.5</v>
       </c>
       <c r="I10" s="27">
-        <v>34.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="93">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="C11" s="94">
-        <v>16.7</v>
-      </c>
-      <c r="D11" s="95">
-        <v>1.2</v>
-      </c>
-      <c r="E11" s="96">
+      <c r="B11" s="51">
+        <v>19.7</v>
+      </c>
+      <c r="C11" s="84">
+        <v>24.9</v>
+      </c>
+      <c r="D11" s="52">
+        <v>1.3</v>
+      </c>
+      <c r="E11" s="85">
+        <v>12</v>
+      </c>
+      <c r="F11" s="86">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="G11" s="87">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="I11" s="27">
         <v>0</v>
-      </c>
-      <c r="F11" s="97">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="G11" s="88">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="I11" s="27">
-        <v>22.1</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="89">
+      <c r="B12" s="49">
         <v>17.600000000000001</v>
       </c>
-      <c r="C12" s="98">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="D12" s="91">
-        <v>-3.6</v>
-      </c>
-      <c r="E12" s="91">
-        <v>-3.8</v>
-      </c>
-      <c r="F12" s="88">
-        <v>32.9</v>
-      </c>
-      <c r="G12" s="99">
-        <v>34.200000000000003</v>
+      <c r="C12" s="57">
+        <v>23.8</v>
+      </c>
+      <c r="D12" s="88">
+        <v>-1.2</v>
+      </c>
+      <c r="E12" s="89">
+        <v>5.7</v>
+      </c>
+      <c r="F12" s="83">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="G12" s="86">
+        <v>38.4</v>
       </c>
       <c r="I12" s="27">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="100">
-        <v>11.6</v>
-      </c>
-      <c r="C13" s="101">
-        <v>9.9</v>
-      </c>
-      <c r="D13" s="87">
-        <v>-8.8000000000000007</v>
-      </c>
-      <c r="E13" s="102">
-        <v>-11.7</v>
-      </c>
-      <c r="F13" s="103">
-        <v>31.7</v>
-      </c>
-      <c r="G13" s="83">
-        <v>29</v>
+      <c r="B13" s="54">
+        <v>11.9</v>
+      </c>
+      <c r="C13" s="49">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D13" s="47">
+        <v>-8.5</v>
+      </c>
+      <c r="E13" s="81">
+        <v>-2.6</v>
+      </c>
+      <c r="F13" s="48">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="G13" s="48">
+        <v>32.9</v>
       </c>
       <c r="I13" s="27">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="104">
-        <v>3.1</v>
-      </c>
-      <c r="C14" s="105">
-        <v>2.5</v>
-      </c>
-      <c r="D14" s="106">
-        <v>-18.2</v>
-      </c>
-      <c r="E14" s="107">
-        <v>-25.5</v>
-      </c>
-      <c r="F14" s="84">
-        <v>24.7</v>
-      </c>
-      <c r="G14" s="108">
-        <v>23.8</v>
+      <c r="B14" s="89">
+        <v>5.8</v>
+      </c>
+      <c r="C14" s="55">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D14" s="75">
+        <v>-20.3</v>
+      </c>
+      <c r="E14" s="47">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="F14" s="45">
+        <v>24</v>
+      </c>
+      <c r="G14" s="44">
+        <v>29.9</v>
       </c>
       <c r="I14" s="27">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="109">
-        <v>-6.7</v>
-      </c>
-      <c r="C15" s="109">
-        <v>-6.6</v>
-      </c>
-      <c r="D15" s="75">
-        <v>-32</v>
-      </c>
-      <c r="E15" s="75">
-        <v>-31.4</v>
-      </c>
-      <c r="F15" s="89">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G15" s="110">
-        <v>18</v>
+      <c r="B15" s="69">
+        <v>-0.5</v>
+      </c>
+      <c r="C15" s="61">
+        <v>0.3</v>
+      </c>
+      <c r="D15" s="70">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="E15" s="43">
+        <v>-22.9</v>
+      </c>
+      <c r="F15" s="53">
+        <v>16.2</v>
+      </c>
+      <c r="G15" s="57">
+        <v>23.9</v>
       </c>
       <c r="I15" s="27"/>
     </row>
@@ -2586,46 +2556,46 @@
       <c r="A16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="111">
-        <v>-14.6</v>
-      </c>
-      <c r="C16" s="111">
-        <v>-14.7</v>
-      </c>
-      <c r="D16" s="112">
-        <v>-36.4</v>
-      </c>
-      <c r="E16" s="113">
-        <v>-38.9</v>
-      </c>
-      <c r="F16" s="100">
-        <v>11.3</v>
-      </c>
-      <c r="G16" s="114">
-        <v>10.199999999999999</v>
+      <c r="B16" s="39">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="C16" s="47">
+        <v>-8.4</v>
+      </c>
+      <c r="D16" s="59">
+        <v>-38.799999999999997</v>
+      </c>
+      <c r="E16" s="68">
+        <v>-30.5</v>
+      </c>
+      <c r="F16" s="55">
+        <v>9.6</v>
+      </c>
+      <c r="G16" s="41">
+        <v>14.1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="105">
-        <v>2.5</v>
-      </c>
-      <c r="C17" s="115">
-        <v>0.8</v>
-      </c>
-      <c r="D17" s="65">
-        <v>-37.4</v>
-      </c>
-      <c r="E17" s="66">
-        <v>-42</v>
-      </c>
-      <c r="F17" s="97">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="G17" s="99">
-        <v>34.200000000000003</v>
+      <c r="B17" s="74">
+        <v>6.3</v>
+      </c>
+      <c r="C17" s="46">
+        <v>8.6</v>
+      </c>
+      <c r="D17" s="64">
+        <v>-42.1</v>
+      </c>
+      <c r="E17" s="65">
+        <v>-33.1</v>
+      </c>
+      <c r="F17" s="86">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="G17" s="86">
+        <v>38.4</v>
       </c>
     </row>
   </sheetData>
@@ -2643,7 +2613,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9152A6-E7B9-4B02-90F6-A2187C19C989}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -2654,11 +2624,11 @@
     <col min="2" max="2" width="9.06640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:13" s="14" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="109"/>
       <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
@@ -2686,13 +2656,19 @@
       <c r="K1" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="15" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
     </row>
-    <row r="3" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="106" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -2725,9 +2701,15 @@
       <c r="K3" s="16">
         <v>-17</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="50"/>
+      <c r="L3" s="16">
+        <v>-6.2</v>
+      </c>
+      <c r="M3" s="16">
+        <v>-11.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="106"/>
       <c r="B4" s="19" t="s">
         <v>20</v>
       </c>
@@ -2758,9 +2740,15 @@
       <c r="K4" s="16">
         <v>-13.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="50"/>
+      <c r="L4" s="16">
+        <v>-5.9</v>
+      </c>
+      <c r="M4" s="16">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="106"/>
       <c r="B5" s="19" t="s">
         <v>21</v>
       </c>
@@ -2791,9 +2779,15 @@
       <c r="K5" s="16">
         <v>-7.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="50"/>
+      <c r="L5" s="16">
+        <v>-0.7</v>
+      </c>
+      <c r="M5" s="16">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="106"/>
       <c r="B6" s="19" t="s">
         <v>22</v>
       </c>
@@ -2824,9 +2818,15 @@
       <c r="K6" s="16">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="50"/>
+      <c r="L6" s="16">
+        <v>6.9</v>
+      </c>
+      <c r="M6" s="16">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="106"/>
       <c r="B7" s="19" t="s">
         <v>23</v>
       </c>
@@ -2857,9 +2857,15 @@
       <c r="K7" s="16">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="50"/>
+      <c r="L7" s="16">
+        <v>13.6</v>
+      </c>
+      <c r="M7" s="16">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="106"/>
       <c r="B8" s="19" t="s">
         <v>24</v>
       </c>
@@ -2890,9 +2896,15 @@
       <c r="K8" s="16">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="50"/>
+      <c r="L8" s="16">
+        <v>17.3</v>
+      </c>
+      <c r="M8" s="16">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="106"/>
       <c r="B9" s="19" t="s">
         <v>25</v>
       </c>
@@ -2923,9 +2935,15 @@
       <c r="K9" s="16">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="50"/>
+      <c r="L9" s="16">
+        <v>19.7</v>
+      </c>
+      <c r="M9" s="16">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="106"/>
       <c r="B10" s="19" t="s">
         <v>26</v>
       </c>
@@ -2956,9 +2974,15 @@
       <c r="K10" s="16">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="50"/>
+      <c r="L10" s="16">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="M10" s="16">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="106"/>
       <c r="B11" s="19" t="s">
         <v>12</v>
       </c>
@@ -2989,9 +3013,15 @@
       <c r="K11" s="16">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="50"/>
+      <c r="L11" s="16">
+        <v>11.9</v>
+      </c>
+      <c r="M11" s="16">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="106"/>
       <c r="B12" s="19" t="s">
         <v>13</v>
       </c>
@@ -3022,9 +3052,15 @@
       <c r="K12" s="16">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="50"/>
+      <c r="L12" s="16">
+        <v>5.8</v>
+      </c>
+      <c r="M12" s="16">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="106"/>
       <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
@@ -3055,9 +3091,15 @@
       <c r="K13" s="16">
         <v>-6.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="50"/>
+      <c r="L13" s="16">
+        <v>-0.5</v>
+      </c>
+      <c r="M13" s="16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="106"/>
       <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
@@ -3088,9 +3130,15 @@
       <c r="K14" s="16">
         <v>-14.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="50"/>
+      <c r="L14" s="16">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="M14" s="16">
+        <v>-8.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="106"/>
       <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
@@ -3121,13 +3169,19 @@
       <c r="K15" s="16">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" s="17" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L15" s="16">
+        <v>6.3</v>
+      </c>
+      <c r="M15" s="16">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="17" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23"/>
       <c r="B16" s="20"/>
     </row>
-    <row r="17" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="51" t="s">
+    <row r="17" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="107" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -3160,9 +3214,15 @@
       <c r="K17" s="16">
         <v>-42</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="51"/>
+      <c r="L17" s="16">
+        <v>-42.1</v>
+      </c>
+      <c r="M17" s="16">
+        <v>-33.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="107"/>
       <c r="B18" s="21" t="s">
         <v>20</v>
       </c>
@@ -3193,9 +3253,15 @@
       <c r="K18" s="16">
         <v>-42</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="51"/>
+      <c r="L18" s="16">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="M18" s="16">
+        <v>-30.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="107"/>
       <c r="B19" s="21" t="s">
         <v>21</v>
       </c>
@@ -3226,9 +3292,15 @@
       <c r="K19" s="16">
         <v>-33.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="51"/>
+      <c r="L19" s="16">
+        <v>-32.4</v>
+      </c>
+      <c r="M19" s="16">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="107"/>
       <c r="B20" s="21" t="s">
         <v>22</v>
       </c>
@@ -3259,9 +3331,15 @@
       <c r="K20" s="16">
         <v>-23</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="51"/>
+      <c r="L20" s="16">
+        <v>-21</v>
+      </c>
+      <c r="M20" s="16">
+        <v>-12.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="107"/>
       <c r="B21" s="21" t="s">
         <v>23</v>
       </c>
@@ -3292,9 +3370,15 @@
       <c r="K21" s="16">
         <v>-9</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="51"/>
+      <c r="L21" s="16">
+        <v>-7.5</v>
+      </c>
+      <c r="M21" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="107"/>
       <c r="B22" s="21" t="s">
         <v>24</v>
       </c>
@@ -3325,9 +3409,15 @@
       <c r="K22" s="16">
         <v>-3.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="51"/>
+      <c r="L22" s="16">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="M22" s="16">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="107"/>
       <c r="B23" s="21" t="s">
         <v>25</v>
       </c>
@@ -3358,9 +3448,15 @@
       <c r="K23" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="51"/>
+      <c r="L23" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="M23" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="107"/>
       <c r="B24" s="21" t="s">
         <v>26</v>
       </c>
@@ -3391,9 +3487,15 @@
       <c r="K24" s="16">
         <v>-3.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="51"/>
+      <c r="L24" s="16">
+        <v>-1.2</v>
+      </c>
+      <c r="M24" s="16">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="107"/>
       <c r="B25" s="21" t="s">
         <v>12</v>
       </c>
@@ -3424,9 +3526,15 @@
       <c r="K25" s="16">
         <v>-11.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="51"/>
+      <c r="L25" s="16">
+        <v>-8.5</v>
+      </c>
+      <c r="M25" s="16">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="107"/>
       <c r="B26" s="21" t="s">
         <v>13</v>
       </c>
@@ -3457,9 +3565,15 @@
       <c r="K26" s="16">
         <v>-25.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="51"/>
+      <c r="L26" s="16">
+        <v>-20.3</v>
+      </c>
+      <c r="M26" s="16">
+        <v>-8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="107"/>
       <c r="B27" s="21" t="s">
         <v>14</v>
       </c>
@@ -3490,9 +3604,15 @@
       <c r="K27" s="16">
         <v>-31.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="51"/>
+      <c r="L27" s="16">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="M27" s="16">
+        <v>-22.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="107"/>
       <c r="B28" s="21" t="s">
         <v>15</v>
       </c>
@@ -3523,9 +3643,15 @@
       <c r="K28" s="16">
         <v>-38.9</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="51"/>
+      <c r="L28" s="16">
+        <v>-38.799999999999997</v>
+      </c>
+      <c r="M28" s="16">
+        <v>-30.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="107"/>
       <c r="B29" s="21" t="s">
         <v>16</v>
       </c>
@@ -3556,13 +3682,19 @@
       <c r="K29" s="16">
         <v>-42</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" s="17" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L29" s="16">
+        <v>-42.1</v>
+      </c>
+      <c r="M29" s="16">
+        <v>-33.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="17" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="24"/>
       <c r="B30" s="22"/>
     </row>
-    <row r="31" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="52" t="s">
+    <row r="31" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="108" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -3595,9 +3727,15 @@
       <c r="K31" s="16">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="52"/>
+      <c r="L31" s="16">
+        <v>8.6</v>
+      </c>
+      <c r="M31" s="16">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="108"/>
       <c r="B32" s="25" t="s">
         <v>20</v>
       </c>
@@ -3628,9 +3766,15 @@
       <c r="K32" s="16">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="52"/>
+      <c r="L32" s="16">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M32" s="16">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="108"/>
       <c r="B33" s="25" t="s">
         <v>21</v>
       </c>
@@ -3661,9 +3805,15 @@
       <c r="K33" s="16">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="52"/>
+      <c r="L33" s="16">
+        <v>19.7</v>
+      </c>
+      <c r="M33" s="16">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="108"/>
       <c r="B34" s="25" t="s">
         <v>22</v>
       </c>
@@ -3694,9 +3844,15 @@
       <c r="K34" s="16">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="52"/>
+      <c r="L34" s="16">
+        <v>28.9</v>
+      </c>
+      <c r="M34" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="108"/>
       <c r="B35" s="25" t="s">
         <v>23</v>
       </c>
@@ -3727,9 +3883,15 @@
       <c r="K35" s="16">
         <v>32.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="52"/>
+      <c r="L35" s="16">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="M35" s="16">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="108"/>
       <c r="B36" s="25" t="s">
         <v>24</v>
       </c>
@@ -3760,9 +3922,15 @@
       <c r="K36" s="16">
         <v>29.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="52"/>
+      <c r="L36" s="16">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="M36" s="16">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="108"/>
       <c r="B37" s="25" t="s">
         <v>25</v>
       </c>
@@ -3793,9 +3961,15 @@
       <c r="K37" s="16">
         <v>32.299999999999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="52"/>
+      <c r="L37" s="16">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="M37" s="16">
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="108"/>
       <c r="B38" s="25" t="s">
         <v>26</v>
       </c>
@@ -3826,9 +4000,15 @@
       <c r="K38" s="16">
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="52"/>
+      <c r="L38" s="16">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="M38" s="16">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="108"/>
       <c r="B39" s="25" t="s">
         <v>12</v>
       </c>
@@ -3859,9 +4039,15 @@
       <c r="K39" s="16">
         <v>29</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="52"/>
+      <c r="L39" s="16">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="M39" s="16">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="108"/>
       <c r="B40" s="25" t="s">
         <v>13</v>
       </c>
@@ -3892,9 +4078,15 @@
       <c r="K40" s="16">
         <v>23.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="52"/>
+      <c r="L40" s="16">
+        <v>24</v>
+      </c>
+      <c r="M40" s="16">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="108"/>
       <c r="B41" s="25" t="s">
         <v>14</v>
       </c>
@@ -3925,9 +4117,15 @@
       <c r="K41" s="16">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="52"/>
+      <c r="L41" s="16">
+        <v>16.2</v>
+      </c>
+      <c r="M41" s="16">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="108"/>
       <c r="B42" s="25" t="s">
         <v>15</v>
       </c>
@@ -3958,9 +4156,15 @@
       <c r="K42" s="16">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="52"/>
+      <c r="L42" s="16">
+        <v>9.6</v>
+      </c>
+      <c r="M42" s="16">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="108"/>
       <c r="B43" s="25" t="s">
         <v>16</v>
       </c>
@@ -3990,6 +4194,12 @@
       </c>
       <c r="K43" s="16">
         <v>34.200000000000003</v>
+      </c>
+      <c r="L43" s="16">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="M43" s="16">
+        <v>38.4</v>
       </c>
     </row>
   </sheetData>
@@ -4029,7 +4239,7 @@
       <c r="B2">
         <v>-17.399999999999999</v>
       </c>
-      <c r="D2" s="116" cm="1">
+      <c r="D2" s="62" cm="1">
         <f t="array" ref="D2:AG2">TRANSPOSE(B2:B31)</f>
         <v>-17.399999999999999</v>
       </c>
@@ -4383,18 +4593,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
     </row>
     <row r="2" spans="1:5" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="56"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="112"/>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4409,7 +4619,7 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="113"/>
       <c r="D3" s="9">
         <v>42398</v>
       </c>
@@ -4424,7 +4634,7 @@
       <c r="B4" s="5">
         <v>-42.1</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="113"/>
       <c r="D4" s="9">
         <v>42399</v>
       </c>
@@ -4439,7 +4649,7 @@
       <c r="B5" s="5">
         <v>-40.5</v>
       </c>
-      <c r="C5" s="57"/>
+      <c r="C5" s="113"/>
       <c r="D5" s="9">
         <v>42400</v>
       </c>
@@ -4454,7 +4664,7 @@
       <c r="B6" s="5">
         <v>-44.8</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="8">
         <v>42401</v>
       </c>
@@ -4469,7 +4679,7 @@
       <c r="B7" s="5">
         <v>-40.6</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="8">
         <v>42402</v>
       </c>
@@ -4484,7 +4694,7 @@
       <c r="B8" s="5">
         <v>-48.6</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="8">
         <v>42403</v>
       </c>
@@ -4499,7 +4709,7 @@
       <c r="B9" s="5">
         <v>-46.8</v>
       </c>
-      <c r="C9" s="57"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="9">
         <v>42404</v>
       </c>
@@ -4514,7 +4724,7 @@
       <c r="B10" s="5">
         <v>-40.5</v>
       </c>
-      <c r="C10" s="57"/>
+      <c r="C10" s="113"/>
       <c r="D10" s="9">
         <v>42405</v>
       </c>
@@ -4529,7 +4739,7 @@
       <c r="B11" s="5">
         <v>-47.1</v>
       </c>
-      <c r="C11" s="57"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="9">
         <v>42406</v>
       </c>
@@ -4544,7 +4754,7 @@
       <c r="B12" s="5">
         <v>-47.8</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="6">
         <v>42412</v>
       </c>
@@ -4559,7 +4769,7 @@
       <c r="B13" s="5">
         <v>-42.4</v>
       </c>
-      <c r="C13" s="57"/>
+      <c r="C13" s="113"/>
       <c r="D13" s="6">
         <v>42413</v>
       </c>
@@ -4574,7 +4784,7 @@
       <c r="B14" s="5">
         <v>-47.5</v>
       </c>
-      <c r="C14" s="57"/>
+      <c r="C14" s="113"/>
       <c r="D14" s="4">
         <v>42414</v>
       </c>
@@ -4589,7 +4799,7 @@
       <c r="B15" s="5">
         <v>-40</v>
       </c>
-      <c r="C15" s="57"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="4">
         <v>42415</v>
       </c>
@@ -4604,7 +4814,7 @@
       <c r="B16" s="5">
         <v>-40.1</v>
       </c>
-      <c r="C16" s="57"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="4">
         <v>42416</v>
       </c>
@@ -4619,7 +4829,7 @@
       <c r="B17" s="5">
         <v>-42.6</v>
       </c>
-      <c r="C17" s="57"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="4">
         <v>42417</v>
       </c>
@@ -4634,7 +4844,7 @@
       <c r="B18" s="5">
         <v>-41.1</v>
       </c>
-      <c r="C18" s="57"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="8">
         <v>42419</v>
       </c>
@@ -4649,7 +4859,7 @@
       <c r="B19" s="5">
         <v>-43.4</v>
       </c>
-      <c r="C19" s="57"/>
+      <c r="C19" s="113"/>
       <c r="D19" s="8">
         <v>42420</v>
       </c>
@@ -4664,7 +4874,7 @@
       <c r="B20" s="5">
         <v>-46</v>
       </c>
-      <c r="C20" s="57"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="4">
         <v>42422</v>
       </c>
@@ -4679,7 +4889,7 @@
       <c r="B21" s="5">
         <v>-44.8</v>
       </c>
-      <c r="C21" s="57"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="4">
         <v>42423</v>
       </c>
@@ -4694,7 +4904,7 @@
       <c r="B22" s="5">
         <v>-42.9</v>
       </c>
-      <c r="C22" s="57"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="4">
         <v>42424</v>
       </c>
@@ -4709,7 +4919,7 @@
       <c r="B23" s="5">
         <v>-42.3</v>
       </c>
-      <c r="C23" s="57"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="4">
         <v>42425</v>
       </c>
@@ -4724,7 +4934,7 @@
       <c r="B24" s="5">
         <v>-44</v>
       </c>
-      <c r="C24" s="57"/>
+      <c r="C24" s="113"/>
       <c r="D24" s="8">
         <v>42433</v>
       </c>
@@ -4739,7 +4949,7 @@
       <c r="B25" s="5">
         <v>-45.6</v>
       </c>
-      <c r="C25" s="57"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="8">
         <v>42434</v>
       </c>
@@ -4754,7 +4964,7 @@
       <c r="B26" s="5">
         <v>-47.7</v>
       </c>
-      <c r="C26" s="57"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="8">
         <v>42435</v>
       </c>
@@ -4769,7 +4979,7 @@
       <c r="B27" s="5">
         <v>-48.5</v>
       </c>
-      <c r="C27" s="57"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="8">
         <v>42436</v>
       </c>
@@ -4784,7 +4994,7 @@
       <c r="B28" s="5">
         <v>-50</v>
       </c>
-      <c r="C28" s="57"/>
+      <c r="C28" s="113"/>
       <c r="D28" s="9">
         <v>42437</v>
       </c>
@@ -4799,7 +5009,7 @@
       <c r="B29" s="5">
         <v>-48</v>
       </c>
-      <c r="C29" s="57"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="9">
         <v>42438</v>
       </c>
@@ -4814,7 +5024,7 @@
       <c r="B30" s="5">
         <v>-49.3</v>
       </c>
-      <c r="C30" s="57"/>
+      <c r="C30" s="113"/>
       <c r="D30" s="9">
         <v>42439</v>
       </c>
@@ -4829,7 +5039,7 @@
       <c r="B31" s="5">
         <v>-49.1</v>
       </c>
-      <c r="C31" s="58"/>
+      <c r="C31" s="114"/>
       <c r="D31" s="8">
         <v>42440</v>
       </c>

--- a/气象/双站寒冷PK.xlsx
+++ b/气象/双站寒冷PK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EBF6BE-2343-4761-A691-601D0914D520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F2C9FD-9EFC-4AAD-A69A-4DD8073C1A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E01B588A-3742-4A11-89A2-9DFEDEEDD47B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>

--- a/气象/双站寒冷PK.xlsx
+++ b/气象/双站寒冷PK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F2C9FD-9EFC-4AAD-A69A-4DD8073C1A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FF649E-8DAD-44EB-842D-2B197C30F9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E01B588A-3742-4A11-89A2-9DFEDEEDD47B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,23 +283,30 @@
   </si>
   <si>
     <t>莫斯科</t>
-  </si>
-  <si>
-    <t>莫斯科</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈阳</t>
   </si>
   <si>
     <t>沈阳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>东京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海
+徐家汇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="30"/>
+        <sz val="36"/>
         <color rgb="FFF72585"/>
         <rFont val="等线"/>
         <family val="3"/>
@@ -311,7 +318,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="30"/>
+        <sz val="36"/>
         <color theme="2" tint="-0.499984740745262"/>
         <rFont val="等线"/>
         <family val="3"/>
@@ -323,14 +330,14 @@
     <r>
       <rPr>
         <b/>
-        <sz val="30"/>
+        <sz val="36"/>
         <color theme="0"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 沈阳 VS 莫斯科</t>
+      <t xml:space="preserve"> 上海 VS 东京</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -495,60 +502,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="30"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="30"/>
-      <color rgb="FFF72585"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="30"/>
-      <color theme="2" tint="-0.499984740745262"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="30"/>
-      <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FF92D050"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -725,8 +678,62 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF92D050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FFF72585"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="52">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,12 +754,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4150DF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD8D174"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -766,12 +767,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF499FEF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0D290"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,12 +814,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF670AB3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF478BEF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -838,12 +827,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF5BB00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD76A03"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,36 +857,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6D3A3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD2E3D7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6DCFEA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF400CA5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4259E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF860DB0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,48 +910,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA113A6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF560BAD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF610AB1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF450CA7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3A0CA3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4AB4F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4BBFF0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB7AE02"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1011,25 +922,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFAB01"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDD7A02"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC94801"/>
+        <fgColor rgb="FFC43C01"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC43C01"/>
+        <fgColor rgb="FFEBDCB5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6B834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDC75A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA3AA03"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1CE6E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4361EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF446BEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4AAAEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0DCDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCB302"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE99B01"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAE2B03"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF3100"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,7 +1245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1302,251 +1279,146 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="27" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="21" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="27" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="21" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="36" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="42" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="36" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="42" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="34" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="34" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="34" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="42" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="34" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="34" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="31" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="36" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="34" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="42" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="34" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="32" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="34" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="34" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="34" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="41" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="34" fillId="25" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="41" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="36" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="34" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="36" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="25" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="36" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="34" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="34" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="42" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="34" fillId="31" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="42" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="34" fillId="32" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="36" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="36" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="39" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="39" fillId="39" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="39" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="41" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="41" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="43" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="47" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="48" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="49" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="44" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="50" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="41" fillId="31" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="41" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="39" fillId="51" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="51" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="45" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="39" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1554,13 +1426,13 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1587,16 +1459,16 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1618,6 +1490,99 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="39" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="36" fillId="41" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="43" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="44" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="45" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="36" fillId="45" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="36" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2183,372 +2148,399 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="91" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
+      <c r="A1" s="111" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
       <c r="I1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
+      <c r="J1" s="30">
+        <v>5.4</v>
+      </c>
+      <c r="K1" s="29">
+        <v>6.1</v>
+      </c>
+      <c r="L1" s="29">
+        <v>9.4</v>
+      </c>
+      <c r="M1" s="29">
+        <v>14.3</v>
+      </c>
+      <c r="N1" s="29">
+        <v>18.8</v>
+      </c>
+      <c r="O1" s="29">
+        <v>21.9</v>
+      </c>
+      <c r="P1" s="29">
+        <v>25.7</v>
+      </c>
+      <c r="Q1" s="29">
+        <v>26.9</v>
+      </c>
+      <c r="R1" s="29">
+        <v>23.3</v>
+      </c>
+      <c r="S1" s="29">
+        <v>18</v>
+      </c>
+      <c r="T1" s="29">
+        <v>12.5</v>
+      </c>
+      <c r="U1" s="29">
+        <v>7.7</v>
+      </c>
+      <c r="V1" s="29">
+        <v>15.8</v>
+      </c>
     </row>
     <row r="2" spans="1:22" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="95"/>
-      <c r="B2" s="93" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="98" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="99"/>
-      <c r="F2" s="102" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="103"/>
+      <c r="G2" s="68"/>
       <c r="I2" s="28" cm="1">
         <f t="array" ref="I2:I14">TRANSPOSE(J1:V1)</f>
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="96"/>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="105"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
       <c r="I3" s="28">
-        <v>0</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="97"/>
-      <c r="B4" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="36" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="37" t="s">
+      <c r="D4" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="108" t="s">
         <v>44</v>
       </c>
+      <c r="F4" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="110" t="s">
+        <v>44</v>
+      </c>
       <c r="I4" s="27">
-        <v>0</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="90">
-        <v>-6.2</v>
-      </c>
-      <c r="C5" s="63">
-        <v>-11.4</v>
-      </c>
-      <c r="D5" s="64">
-        <v>-42.1</v>
-      </c>
-      <c r="E5" s="65">
-        <v>-33.1</v>
-      </c>
-      <c r="F5" s="46">
-        <v>8.6</v>
-      </c>
-      <c r="G5" s="66">
-        <v>8.6</v>
+      <c r="B5" s="82">
+        <v>5.4</v>
+      </c>
+      <c r="C5" s="82">
+        <v>5.4</v>
+      </c>
+      <c r="D5" s="91">
+        <v>-10.1</v>
+      </c>
+      <c r="E5" s="92">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="F5" s="84">
+        <v>21.6</v>
+      </c>
+      <c r="G5" s="97">
+        <v>22.6</v>
       </c>
       <c r="I5" s="27">
-        <v>0</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="67">
-        <v>-5.9</v>
-      </c>
-      <c r="C6" s="58">
-        <v>-6.3</v>
-      </c>
-      <c r="D6" s="59">
-        <v>-38.200000000000003</v>
-      </c>
-      <c r="E6" s="68">
-        <v>-30.1</v>
-      </c>
-      <c r="F6" s="66">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G6" s="49">
-        <v>17.2</v>
+      <c r="B6" s="83">
+        <v>7</v>
+      </c>
+      <c r="C6" s="53">
+        <v>6.1</v>
+      </c>
+      <c r="D6" s="34">
+        <v>-7.9</v>
+      </c>
+      <c r="E6" s="34">
+        <v>-7.9</v>
+      </c>
+      <c r="F6" s="98">
+        <v>27</v>
+      </c>
+      <c r="G6" s="38">
+        <v>24.9</v>
       </c>
       <c r="I6" s="27">
-        <v>0</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="69">
-        <v>-0.7</v>
-      </c>
-      <c r="C7" s="42">
-        <v>1.7</v>
-      </c>
-      <c r="D7" s="70">
-        <v>-32.4</v>
-      </c>
-      <c r="E7" s="71">
-        <v>-25</v>
-      </c>
-      <c r="F7" s="72">
-        <v>19.7</v>
-      </c>
-      <c r="G7" s="73">
-        <v>26.1</v>
+      <c r="B7" s="48">
+        <v>10.7</v>
+      </c>
+      <c r="C7" s="45">
+        <v>9.4</v>
+      </c>
+      <c r="D7" s="50">
+        <v>-5.4</v>
+      </c>
+      <c r="E7" s="50">
+        <v>-5.6</v>
+      </c>
+      <c r="F7" s="99">
+        <v>31.1</v>
+      </c>
+      <c r="G7" s="54">
+        <v>28.1</v>
       </c>
       <c r="I7" s="27">
-        <v>0</v>
-      </c>
+        <v>21.9</v>
+      </c>
+      <c r="L7" s="104"/>
     </row>
     <row r="8" spans="1:22" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="74">
-        <v>6.9</v>
-      </c>
-      <c r="C8" s="60">
-        <v>10.8</v>
-      </c>
-      <c r="D8" s="75">
-        <v>-21</v>
-      </c>
-      <c r="E8" s="38">
-        <v>-12.5</v>
-      </c>
-      <c r="F8" s="76">
-        <v>28.9</v>
-      </c>
-      <c r="G8" s="77">
-        <v>30</v>
+      <c r="B8" s="44">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C8" s="35">
+        <v>14.3</v>
+      </c>
+      <c r="D8" s="51">
+        <v>-0.5</v>
+      </c>
+      <c r="E8" s="93">
+        <v>-3.1</v>
+      </c>
+      <c r="F8" s="55">
+        <v>33.9</v>
+      </c>
+      <c r="G8" s="37">
+        <v>29.2</v>
       </c>
       <c r="I8" s="27">
-        <v>0</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="50">
-        <v>13.6</v>
-      </c>
-      <c r="C9" s="49">
-        <v>17.8</v>
-      </c>
-      <c r="D9" s="40">
-        <v>-7.5</v>
-      </c>
-      <c r="E9" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="78">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="G9" s="79">
-        <v>36.299999999999997</v>
+      <c r="B9" s="84">
+        <v>21.3</v>
+      </c>
+      <c r="C9" s="85">
+        <v>18.8</v>
+      </c>
+      <c r="D9" s="53">
+        <v>6.9</v>
+      </c>
+      <c r="E9" s="94">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F9" s="56">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G9" s="41">
+        <v>32.6</v>
       </c>
       <c r="I9" s="27">
-        <v>0</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="49">
-        <v>17.3</v>
-      </c>
-      <c r="C10" s="80">
-        <v>22.3</v>
-      </c>
-      <c r="D10" s="81">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="E10" s="56">
-        <v>3.6</v>
-      </c>
-      <c r="F10" s="82">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="G10" s="83">
-        <v>37.5</v>
+      <c r="B10" s="38">
+        <v>24.7</v>
+      </c>
+      <c r="C10" s="84">
+        <v>21.9</v>
+      </c>
+      <c r="D10" s="89">
+        <v>12.3</v>
+      </c>
+      <c r="E10" s="39">
+        <v>8.5</v>
+      </c>
+      <c r="F10" s="57">
+        <v>38.5</v>
+      </c>
+      <c r="G10" s="56">
+        <v>36.4</v>
       </c>
       <c r="I10" s="27">
-        <v>0</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="51">
-        <v>19.7</v>
-      </c>
-      <c r="C11" s="84">
-        <v>24.9</v>
-      </c>
-      <c r="D11" s="52">
-        <v>1.3</v>
-      </c>
-      <c r="E11" s="85">
-        <v>12</v>
-      </c>
-      <c r="F11" s="86">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="G11" s="87">
-        <v>38.299999999999997</v>
+      <c r="B11" s="86">
+        <v>29.1</v>
+      </c>
+      <c r="C11" s="87">
+        <v>25.7</v>
+      </c>
+      <c r="D11" s="44">
+        <v>16.3</v>
+      </c>
+      <c r="E11" s="43">
+        <v>13</v>
+      </c>
+      <c r="F11" s="100">
+        <v>40.9</v>
+      </c>
+      <c r="G11" s="101">
+        <v>39.5</v>
       </c>
       <c r="I11" s="27">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="49">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="C12" s="57">
-        <v>23.8</v>
-      </c>
-      <c r="D12" s="88">
-        <v>-1.2</v>
-      </c>
-      <c r="E12" s="89">
-        <v>5.7</v>
-      </c>
-      <c r="F12" s="83">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="G12" s="86">
-        <v>38.4</v>
+      <c r="B12" s="54">
+        <v>28.8</v>
+      </c>
+      <c r="C12" s="88">
+        <v>26.9</v>
+      </c>
+      <c r="D12" s="95">
+        <v>18.8</v>
+      </c>
+      <c r="E12" s="96">
+        <v>15.4</v>
+      </c>
+      <c r="F12" s="102">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="G12" s="103">
+        <v>39.1</v>
       </c>
       <c r="I12" s="27">
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="54">
-        <v>11.9</v>
-      </c>
-      <c r="C13" s="49">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="D13" s="47">
-        <v>-8.5</v>
-      </c>
-      <c r="E13" s="81">
-        <v>-2.6</v>
-      </c>
-      <c r="F13" s="48">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="G13" s="48">
-        <v>32.9</v>
+      <c r="B13" s="87">
+        <v>25.1</v>
+      </c>
+      <c r="C13" s="46">
+        <v>23.3</v>
+      </c>
+      <c r="D13" s="48">
+        <v>10.8</v>
+      </c>
+      <c r="E13" s="48">
+        <v>10.5</v>
+      </c>
+      <c r="F13" s="57">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="G13" s="57">
+        <v>38.1</v>
       </c>
       <c r="I13" s="27">
-        <v>0</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="89">
-        <v>5.8</v>
-      </c>
-      <c r="C14" s="55">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D14" s="75">
-        <v>-20.3</v>
-      </c>
-      <c r="E14" s="47">
-        <v>-8.3000000000000007</v>
-      </c>
-      <c r="F14" s="45">
-        <v>24</v>
-      </c>
-      <c r="G14" s="44">
-        <v>29.9</v>
+      <c r="B14" s="52">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C14" s="85">
+        <v>18</v>
+      </c>
+      <c r="D14" s="36">
+        <v>1.7</v>
+      </c>
+      <c r="E14" s="51">
+        <v>-0.5</v>
+      </c>
+      <c r="F14" s="56">
+        <v>36</v>
+      </c>
+      <c r="G14" s="41">
+        <v>32.6</v>
       </c>
       <c r="I14" s="27">
-        <v>0</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="69">
-        <v>-0.5</v>
-      </c>
-      <c r="C15" s="61">
-        <v>0.3</v>
-      </c>
-      <c r="D15" s="70">
-        <v>-32.799999999999997</v>
-      </c>
-      <c r="E15" s="43">
-        <v>-22.9</v>
-      </c>
-      <c r="F15" s="53">
-        <v>16.2</v>
-      </c>
-      <c r="G15" s="57">
-        <v>23.9</v>
+      <c r="B15" s="35">
+        <v>14.2</v>
+      </c>
+      <c r="C15" s="89">
+        <v>12.5</v>
+      </c>
+      <c r="D15" s="33">
+        <v>-4.2</v>
+      </c>
+      <c r="E15" s="93">
+        <v>-3.1</v>
+      </c>
+      <c r="F15" s="54">
+        <v>28.5</v>
+      </c>
+      <c r="G15" s="98">
+        <v>27.5</v>
       </c>
       <c r="I15" s="27"/>
     </row>
@@ -2556,46 +2548,46 @@
       <c r="A16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="39">
-        <v>-4.4000000000000004</v>
-      </c>
-      <c r="C16" s="47">
-        <v>-8.4</v>
-      </c>
-      <c r="D16" s="59">
-        <v>-38.799999999999997</v>
-      </c>
-      <c r="E16" s="68">
-        <v>-30.5</v>
-      </c>
-      <c r="F16" s="55">
-        <v>9.6</v>
-      </c>
-      <c r="G16" s="41">
-        <v>14.1</v>
+      <c r="B16" s="83">
+        <v>7.9</v>
+      </c>
+      <c r="C16" s="83">
+        <v>7.7</v>
+      </c>
+      <c r="D16" s="40">
+        <v>-8.5</v>
+      </c>
+      <c r="E16" s="47">
+        <v>-6.8</v>
+      </c>
+      <c r="F16" s="46">
+        <v>23.4</v>
+      </c>
+      <c r="G16" s="38">
+        <v>24.8</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="74">
-        <v>6.3</v>
-      </c>
-      <c r="C17" s="46">
-        <v>8.6</v>
-      </c>
-      <c r="D17" s="64">
-        <v>-42.1</v>
-      </c>
-      <c r="E17" s="65">
-        <v>-33.1</v>
-      </c>
-      <c r="F17" s="86">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="G17" s="86">
-        <v>38.4</v>
+      <c r="B17" s="42">
+        <v>17.5</v>
+      </c>
+      <c r="C17" s="90">
+        <v>15.8</v>
+      </c>
+      <c r="D17" s="91">
+        <v>-10.1</v>
+      </c>
+      <c r="E17" s="92">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="F17" s="100">
+        <v>40.9</v>
+      </c>
+      <c r="G17" s="101">
+        <v>39.5</v>
       </c>
     </row>
   </sheetData>
@@ -2613,10 +2605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9152A6-E7B9-4B02-90F6-A2187C19C989}">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2624,11 +2616,11 @@
     <col min="2" max="2" width="9.06640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:15" s="14" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="109"/>
+      <c r="B1" s="74"/>
       <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
@@ -2657,18 +2649,24 @@
         <v>41</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O1" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="15" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
     </row>
-    <row r="3" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="106" t="s">
+    <row r="3" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="71" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -2707,9 +2705,15 @@
       <c r="M3" s="16">
         <v>-11.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="106"/>
+      <c r="N3" s="16">
+        <v>5.4</v>
+      </c>
+      <c r="O3" s="16">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="71"/>
       <c r="B4" s="19" t="s">
         <v>20</v>
       </c>
@@ -2746,9 +2750,15 @@
       <c r="M4" s="16">
         <v>-6.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="106"/>
+      <c r="N4" s="16">
+        <v>7</v>
+      </c>
+      <c r="O4" s="16">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="71"/>
       <c r="B5" s="19" t="s">
         <v>21</v>
       </c>
@@ -2785,9 +2795,15 @@
       <c r="M5" s="16">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="106"/>
+      <c r="N5" s="16">
+        <v>10.7</v>
+      </c>
+      <c r="O5" s="16">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="71"/>
       <c r="B6" s="19" t="s">
         <v>22</v>
       </c>
@@ -2824,9 +2840,15 @@
       <c r="M6" s="16">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="106"/>
+      <c r="N6" s="16">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="O6" s="16">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="71"/>
       <c r="B7" s="19" t="s">
         <v>23</v>
       </c>
@@ -2863,9 +2885,15 @@
       <c r="M7" s="16">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="106"/>
+      <c r="N7" s="16">
+        <v>21.3</v>
+      </c>
+      <c r="O7" s="16">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="71"/>
       <c r="B8" s="19" t="s">
         <v>24</v>
       </c>
@@ -2902,9 +2930,15 @@
       <c r="M8" s="16">
         <v>22.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="106"/>
+      <c r="N8" s="16">
+        <v>24.7</v>
+      </c>
+      <c r="O8" s="16">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="71"/>
       <c r="B9" s="19" t="s">
         <v>25</v>
       </c>
@@ -2941,9 +2975,15 @@
       <c r="M9" s="16">
         <v>24.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="106"/>
+      <c r="N9" s="16">
+        <v>29.1</v>
+      </c>
+      <c r="O9" s="16">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="71"/>
       <c r="B10" s="19" t="s">
         <v>26</v>
       </c>
@@ -2980,9 +3020,15 @@
       <c r="M10" s="16">
         <v>23.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="106"/>
+      <c r="N10" s="16">
+        <v>28.8</v>
+      </c>
+      <c r="O10" s="16">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="71"/>
       <c r="B11" s="19" t="s">
         <v>12</v>
       </c>
@@ -3019,9 +3065,15 @@
       <c r="M11" s="16">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="106"/>
+      <c r="N11" s="16">
+        <v>25.1</v>
+      </c>
+      <c r="O11" s="16">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="71"/>
       <c r="B12" s="19" t="s">
         <v>13</v>
       </c>
@@ -3058,9 +3110,15 @@
       <c r="M12" s="16">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="106"/>
+      <c r="N12" s="16">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="O12" s="16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="71"/>
       <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
@@ -3097,9 +3155,15 @@
       <c r="M13" s="16">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="106"/>
+      <c r="N13" s="16">
+        <v>14.2</v>
+      </c>
+      <c r="O13" s="16">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="71"/>
       <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
@@ -3136,9 +3200,15 @@
       <c r="M14" s="16">
         <v>-8.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="106"/>
+      <c r="N14" s="16">
+        <v>7.9</v>
+      </c>
+      <c r="O14" s="16">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="71"/>
       <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
@@ -3175,13 +3245,19 @@
       <c r="M15" s="16">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" s="17" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N15" s="16">
+        <v>17.5</v>
+      </c>
+      <c r="O15" s="16">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="17" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23"/>
       <c r="B16" s="20"/>
     </row>
-    <row r="17" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="107" t="s">
+    <row r="17" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="72" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -3220,9 +3296,15 @@
       <c r="M17" s="16">
         <v>-33.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="107"/>
+      <c r="N17" s="16">
+        <v>-10.1</v>
+      </c>
+      <c r="O17" s="16">
+        <v>-9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="72"/>
       <c r="B18" s="21" t="s">
         <v>20</v>
       </c>
@@ -3259,9 +3341,15 @@
       <c r="M18" s="16">
         <v>-30.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="107"/>
+      <c r="N18" s="16">
+        <v>-7.9</v>
+      </c>
+      <c r="O18" s="16">
+        <v>-7.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="72"/>
       <c r="B19" s="21" t="s">
         <v>21</v>
       </c>
@@ -3298,9 +3386,15 @@
       <c r="M19" s="16">
         <v>-25</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="107"/>
+      <c r="N19" s="16">
+        <v>-5.4</v>
+      </c>
+      <c r="O19" s="16">
+        <v>-5.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="72"/>
       <c r="B20" s="21" t="s">
         <v>22</v>
       </c>
@@ -3337,9 +3431,15 @@
       <c r="M20" s="16">
         <v>-12.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="107"/>
+      <c r="N20" s="16">
+        <v>-0.5</v>
+      </c>
+      <c r="O20" s="16">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="72"/>
       <c r="B21" s="21" t="s">
         <v>23</v>
       </c>
@@ -3376,9 +3476,15 @@
       <c r="M21" s="16">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="107"/>
+      <c r="N21" s="16">
+        <v>6.9</v>
+      </c>
+      <c r="O21" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="72"/>
       <c r="B22" s="21" t="s">
         <v>24</v>
       </c>
@@ -3415,9 +3521,15 @@
       <c r="M22" s="16">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="107"/>
+      <c r="N22" s="16">
+        <v>12.3</v>
+      </c>
+      <c r="O22" s="16">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="72"/>
       <c r="B23" s="21" t="s">
         <v>25</v>
       </c>
@@ -3454,9 +3566,15 @@
       <c r="M23" s="16">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="107"/>
+      <c r="N23" s="16">
+        <v>16.3</v>
+      </c>
+      <c r="O23" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="72"/>
       <c r="B24" s="21" t="s">
         <v>26</v>
       </c>
@@ -3493,9 +3611,15 @@
       <c r="M24" s="16">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="107"/>
+      <c r="N24" s="16">
+        <v>18.8</v>
+      </c>
+      <c r="O24" s="16">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="72"/>
       <c r="B25" s="21" t="s">
         <v>12</v>
       </c>
@@ -3532,9 +3656,15 @@
       <c r="M25" s="16">
         <v>-2.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="107"/>
+      <c r="N25" s="16">
+        <v>10.8</v>
+      </c>
+      <c r="O25" s="16">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="72"/>
       <c r="B26" s="21" t="s">
         <v>13</v>
       </c>
@@ -3571,9 +3701,15 @@
       <c r="M26" s="16">
         <v>-8.3000000000000007</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="107"/>
+      <c r="N26" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="O26" s="16">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="72"/>
       <c r="B27" s="21" t="s">
         <v>14</v>
       </c>
@@ -3610,9 +3746,15 @@
       <c r="M27" s="16">
         <v>-22.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="107"/>
+      <c r="N27" s="16">
+        <v>-4.2</v>
+      </c>
+      <c r="O27" s="16">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="72"/>
       <c r="B28" s="21" t="s">
         <v>15</v>
       </c>
@@ -3649,9 +3791,15 @@
       <c r="M28" s="16">
         <v>-30.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="107"/>
+      <c r="N28" s="16">
+        <v>-8.5</v>
+      </c>
+      <c r="O28" s="16">
+        <v>-6.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="72"/>
       <c r="B29" s="21" t="s">
         <v>16</v>
       </c>
@@ -3688,13 +3836,19 @@
       <c r="M29" s="16">
         <v>-33.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" s="17" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N29" s="16">
+        <v>-10.1</v>
+      </c>
+      <c r="O29" s="16">
+        <v>-9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="17" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="24"/>
       <c r="B30" s="22"/>
     </row>
-    <row r="31" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="108" t="s">
+    <row r="31" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="73" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -3733,9 +3887,15 @@
       <c r="M31" s="16">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="108"/>
+      <c r="N31" s="16">
+        <v>21.6</v>
+      </c>
+      <c r="O31" s="16">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="73"/>
       <c r="B32" s="25" t="s">
         <v>20</v>
       </c>
@@ -3772,9 +3932,15 @@
       <c r="M32" s="16">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="108"/>
+      <c r="N32" s="16">
+        <v>27</v>
+      </c>
+      <c r="O32" s="16">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="73"/>
       <c r="B33" s="25" t="s">
         <v>21</v>
       </c>
@@ -3811,9 +3977,15 @@
       <c r="M33" s="16">
         <v>26.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="108"/>
+      <c r="N33" s="16">
+        <v>31.1</v>
+      </c>
+      <c r="O33" s="16">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="73"/>
       <c r="B34" s="25" t="s">
         <v>22</v>
       </c>
@@ -3850,9 +4022,15 @@
       <c r="M34" s="16">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="108"/>
+      <c r="N34" s="16">
+        <v>33.9</v>
+      </c>
+      <c r="O34" s="16">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="73"/>
       <c r="B35" s="25" t="s">
         <v>23</v>
       </c>
@@ -3889,9 +4067,15 @@
       <c r="M35" s="16">
         <v>36.299999999999997</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="108"/>
+      <c r="N35" s="16">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="O35" s="16">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="73"/>
       <c r="B36" s="25" t="s">
         <v>24</v>
       </c>
@@ -3928,9 +4112,15 @@
       <c r="M36" s="16">
         <v>37.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="108"/>
+      <c r="N36" s="16">
+        <v>38.5</v>
+      </c>
+      <c r="O36" s="16">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="73"/>
       <c r="B37" s="25" t="s">
         <v>25</v>
       </c>
@@ -3967,9 +4157,15 @@
       <c r="M37" s="16">
         <v>38.299999999999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="108"/>
+      <c r="N37" s="16">
+        <v>40.9</v>
+      </c>
+      <c r="O37" s="16">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="73"/>
       <c r="B38" s="25" t="s">
         <v>26</v>
       </c>
@@ -4006,9 +4202,15 @@
       <c r="M38" s="16">
         <v>38.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="108"/>
+      <c r="N38" s="16">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="O38" s="16">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="73"/>
       <c r="B39" s="25" t="s">
         <v>12</v>
       </c>
@@ -4045,9 +4247,15 @@
       <c r="M39" s="16">
         <v>32.9</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="108"/>
+      <c r="N39" s="16">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="O39" s="16">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="73"/>
       <c r="B40" s="25" t="s">
         <v>13</v>
       </c>
@@ -4084,9 +4292,15 @@
       <c r="M40" s="16">
         <v>29.9</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="108"/>
+      <c r="N40" s="16">
+        <v>36</v>
+      </c>
+      <c r="O40" s="16">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="73"/>
       <c r="B41" s="25" t="s">
         <v>14</v>
       </c>
@@ -4123,9 +4337,15 @@
       <c r="M41" s="16">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="108"/>
+      <c r="N41" s="16">
+        <v>28.5</v>
+      </c>
+      <c r="O41" s="16">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="73"/>
       <c r="B42" s="25" t="s">
         <v>15</v>
       </c>
@@ -4162,9 +4382,15 @@
       <c r="M42" s="16">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="108"/>
+      <c r="N42" s="16">
+        <v>23.4</v>
+      </c>
+      <c r="O42" s="16">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="73"/>
       <c r="B43" s="25" t="s">
         <v>16</v>
       </c>
@@ -4200,6 +4426,12 @@
       </c>
       <c r="M43" s="16">
         <v>38.4</v>
+      </c>
+      <c r="N43" s="16">
+        <v>40.9</v>
+      </c>
+      <c r="O43" s="16">
+        <v>39.5</v>
       </c>
     </row>
   </sheetData>
@@ -4239,7 +4471,7 @@
       <c r="B2">
         <v>-17.399999999999999</v>
       </c>
-      <c r="D2" s="62" cm="1">
+      <c r="D2" s="49" cm="1">
         <f t="array" ref="D2:AG2">TRANSPOSE(B2:B31)</f>
         <v>-17.399999999999999</v>
       </c>
@@ -4593,18 +4825,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
     </row>
     <row r="2" spans="1:5" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="115"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="112"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="77"/>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4619,7 +4851,7 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="113"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="9">
         <v>42398</v>
       </c>
@@ -4634,7 +4866,7 @@
       <c r="B4" s="5">
         <v>-42.1</v>
       </c>
-      <c r="C4" s="113"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="9">
         <v>42399</v>
       </c>
@@ -4649,7 +4881,7 @@
       <c r="B5" s="5">
         <v>-40.5</v>
       </c>
-      <c r="C5" s="113"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="9">
         <v>42400</v>
       </c>
@@ -4664,7 +4896,7 @@
       <c r="B6" s="5">
         <v>-44.8</v>
       </c>
-      <c r="C6" s="113"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="8">
         <v>42401</v>
       </c>
@@ -4679,7 +4911,7 @@
       <c r="B7" s="5">
         <v>-40.6</v>
       </c>
-      <c r="C7" s="113"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="8">
         <v>42402</v>
       </c>
@@ -4694,7 +4926,7 @@
       <c r="B8" s="5">
         <v>-48.6</v>
       </c>
-      <c r="C8" s="113"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="8">
         <v>42403</v>
       </c>
@@ -4709,7 +4941,7 @@
       <c r="B9" s="5">
         <v>-46.8</v>
       </c>
-      <c r="C9" s="113"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="9">
         <v>42404</v>
       </c>
@@ -4724,7 +4956,7 @@
       <c r="B10" s="5">
         <v>-40.5</v>
       </c>
-      <c r="C10" s="113"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="9">
         <v>42405</v>
       </c>
@@ -4739,7 +4971,7 @@
       <c r="B11" s="5">
         <v>-47.1</v>
       </c>
-      <c r="C11" s="113"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="9">
         <v>42406</v>
       </c>
@@ -4754,7 +4986,7 @@
       <c r="B12" s="5">
         <v>-47.8</v>
       </c>
-      <c r="C12" s="113"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="6">
         <v>42412</v>
       </c>
@@ -4769,7 +5001,7 @@
       <c r="B13" s="5">
         <v>-42.4</v>
       </c>
-      <c r="C13" s="113"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="6">
         <v>42413</v>
       </c>
@@ -4784,7 +5016,7 @@
       <c r="B14" s="5">
         <v>-47.5</v>
       </c>
-      <c r="C14" s="113"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="4">
         <v>42414</v>
       </c>
@@ -4799,7 +5031,7 @@
       <c r="B15" s="5">
         <v>-40</v>
       </c>
-      <c r="C15" s="113"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="4">
         <v>42415</v>
       </c>
@@ -4814,7 +5046,7 @@
       <c r="B16" s="5">
         <v>-40.1</v>
       </c>
-      <c r="C16" s="113"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="4">
         <v>42416</v>
       </c>
@@ -4829,7 +5061,7 @@
       <c r="B17" s="5">
         <v>-42.6</v>
       </c>
-      <c r="C17" s="113"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="4">
         <v>42417</v>
       </c>
@@ -4844,7 +5076,7 @@
       <c r="B18" s="5">
         <v>-41.1</v>
       </c>
-      <c r="C18" s="113"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="8">
         <v>42419</v>
       </c>
@@ -4859,7 +5091,7 @@
       <c r="B19" s="5">
         <v>-43.4</v>
       </c>
-      <c r="C19" s="113"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="8">
         <v>42420</v>
       </c>
@@ -4874,7 +5106,7 @@
       <c r="B20" s="5">
         <v>-46</v>
       </c>
-      <c r="C20" s="113"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="4">
         <v>42422</v>
       </c>
@@ -4889,7 +5121,7 @@
       <c r="B21" s="5">
         <v>-44.8</v>
       </c>
-      <c r="C21" s="113"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="4">
         <v>42423</v>
       </c>
@@ -4904,7 +5136,7 @@
       <c r="B22" s="5">
         <v>-42.9</v>
       </c>
-      <c r="C22" s="113"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="4">
         <v>42424</v>
       </c>
@@ -4919,7 +5151,7 @@
       <c r="B23" s="5">
         <v>-42.3</v>
       </c>
-      <c r="C23" s="113"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="4">
         <v>42425</v>
       </c>
@@ -4934,7 +5166,7 @@
       <c r="B24" s="5">
         <v>-44</v>
       </c>
-      <c r="C24" s="113"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="8">
         <v>42433</v>
       </c>
@@ -4949,7 +5181,7 @@
       <c r="B25" s="5">
         <v>-45.6</v>
       </c>
-      <c r="C25" s="113"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="8">
         <v>42434</v>
       </c>
@@ -4964,7 +5196,7 @@
       <c r="B26" s="5">
         <v>-47.7</v>
       </c>
-      <c r="C26" s="113"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="8">
         <v>42435</v>
       </c>
@@ -4979,7 +5211,7 @@
       <c r="B27" s="5">
         <v>-48.5</v>
       </c>
-      <c r="C27" s="113"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="8">
         <v>42436</v>
       </c>
@@ -4994,7 +5226,7 @@
       <c r="B28" s="5">
         <v>-50</v>
       </c>
-      <c r="C28" s="113"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="9">
         <v>42437</v>
       </c>
@@ -5009,7 +5241,7 @@
       <c r="B29" s="5">
         <v>-48</v>
       </c>
-      <c r="C29" s="113"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="9">
         <v>42438</v>
       </c>
@@ -5024,7 +5256,7 @@
       <c r="B30" s="5">
         <v>-49.3</v>
       </c>
-      <c r="C30" s="113"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="9">
         <v>42439</v>
       </c>
@@ -5039,7 +5271,7 @@
       <c r="B31" s="5">
         <v>-49.1</v>
       </c>
-      <c r="C31" s="114"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="8">
         <v>42440</v>
       </c>

--- a/气象/双站寒冷PK.xlsx
+++ b/气象/双站寒冷PK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FF649E-8DAD-44EB-842D-2B197C30F9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0F5683-AA19-4968-BC65-08303351C541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E01B588A-3742-4A11-89A2-9DFEDEEDD47B}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="站点存档" sheetId="4" r:id="rId2"/>
     <sheet name="临时草稿" sheetId="3" r:id="rId3"/>
     <sheet name="车臣乌拉2016" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +342,26 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>最低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可托海滑雪场山顶(3100m)
+近日高低气温记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站点20-20时24小时最低、最高气温(℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -352,7 +373,7 @@
     <numFmt numFmtId="178" formatCode="0.0"/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,8 +753,61 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Franklin Gothic Heavy"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFFFF3F"/>
+      <name val="Franklin Gothic Heavy"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Franklin Gothic Heavy"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF0000FF"/>
+      <name val="Franklin Gothic Heavy"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Franklin Gothic Heavy"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="47">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1010,8 +1084,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BBFF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6DCFEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4AB4F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E9D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1239,13 +1337,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1420,6 +1542,96 @@
     <xf numFmtId="178" fontId="36" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="35" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="39" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="36" fillId="41" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="43" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="44" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="45" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="36" fillId="45" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="36" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1492,98 +1704,65 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="35" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="39" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="41" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="43" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="44" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="45" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="45" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="43" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="178" fontId="44" fillId="47" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="178" fontId="43" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="178" fontId="43" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="178" fontId="43" fillId="48" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="178" fontId="43" fillId="49" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="178" fontId="45" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="178" fontId="45" fillId="48" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="178" fontId="43" fillId="41" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="178" fontId="46" fillId="50" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="178" fontId="47" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="25" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2137,7 +2316,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2148,15 +2327,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
       <c r="I1" s="26" t="s">
         <v>35</v>
       </c>
@@ -2201,58 +2380,58 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="60"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="90"/>
+      <c r="B2" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="63" t="s">
+      <c r="C2" s="89"/>
+      <c r="D2" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="67" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="68"/>
+      <c r="G2" s="98"/>
       <c r="I2" s="28" cm="1">
         <f t="array" ref="I2:I14">TRANSPOSE(J1:V1)</f>
         <v>5.4</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="61"/>
+      <c r="A3" s="91"/>
       <c r="B3" s="31" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
       <c r="I3" s="28">
         <v>6.1</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="62"/>
-      <c r="B4" s="105" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="109" t="s">
+      <c r="F4" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="110" t="s">
+      <c r="G4" s="85" t="s">
         <v>44</v>
       </c>
       <c r="I4" s="27">
@@ -2263,22 +2442,22 @@
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="82">
+      <c r="B5" s="58">
         <v>5.4</v>
       </c>
-      <c r="C5" s="82">
+      <c r="C5" s="58">
         <v>5.4</v>
       </c>
-      <c r="D5" s="91">
+      <c r="D5" s="67">
         <v>-10.1</v>
       </c>
-      <c r="E5" s="92">
+      <c r="E5" s="68">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="F5" s="84">
+      <c r="F5" s="60">
         <v>21.6</v>
       </c>
-      <c r="G5" s="97">
+      <c r="G5" s="73">
         <v>22.6</v>
       </c>
       <c r="I5" s="27">
@@ -2289,7 +2468,7 @@
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="83">
+      <c r="B6" s="59">
         <v>7</v>
       </c>
       <c r="C6" s="53">
@@ -2301,7 +2480,7 @@
       <c r="E6" s="34">
         <v>-7.9</v>
       </c>
-      <c r="F6" s="98">
+      <c r="F6" s="74">
         <v>27</v>
       </c>
       <c r="G6" s="38">
@@ -2327,7 +2506,7 @@
       <c r="E7" s="50">
         <v>-5.6</v>
       </c>
-      <c r="F7" s="99">
+      <c r="F7" s="75">
         <v>31.1</v>
       </c>
       <c r="G7" s="54">
@@ -2336,7 +2515,6 @@
       <c r="I7" s="27">
         <v>21.9</v>
       </c>
-      <c r="L7" s="104"/>
     </row>
     <row r="8" spans="1:22" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
@@ -2351,7 +2529,7 @@
       <c r="D8" s="51">
         <v>-0.5</v>
       </c>
-      <c r="E8" s="93">
+      <c r="E8" s="69">
         <v>-3.1</v>
       </c>
       <c r="F8" s="55">
@@ -2368,16 +2546,16 @@
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="84">
+      <c r="B9" s="60">
         <v>21.3</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="61">
         <v>18.8</v>
       </c>
       <c r="D9" s="53">
         <v>6.9</v>
       </c>
-      <c r="E9" s="94">
+      <c r="E9" s="70">
         <v>2.2000000000000002</v>
       </c>
       <c r="F9" s="56">
@@ -2397,10 +2575,10 @@
       <c r="B10" s="38">
         <v>24.7</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="60">
         <v>21.9</v>
       </c>
-      <c r="D10" s="89">
+      <c r="D10" s="65">
         <v>12.3</v>
       </c>
       <c r="E10" s="39">
@@ -2420,10 +2598,10 @@
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="86">
+      <c r="B11" s="62">
         <v>29.1</v>
       </c>
-      <c r="C11" s="87">
+      <c r="C11" s="63">
         <v>25.7</v>
       </c>
       <c r="D11" s="44">
@@ -2432,10 +2610,10 @@
       <c r="E11" s="43">
         <v>13</v>
       </c>
-      <c r="F11" s="100">
+      <c r="F11" s="76">
         <v>40.9</v>
       </c>
-      <c r="G11" s="101">
+      <c r="G11" s="77">
         <v>39.5</v>
       </c>
       <c r="I11" s="27">
@@ -2449,19 +2627,19 @@
       <c r="B12" s="54">
         <v>28.8</v>
       </c>
-      <c r="C12" s="88">
+      <c r="C12" s="64">
         <v>26.9</v>
       </c>
-      <c r="D12" s="95">
+      <c r="D12" s="71">
         <v>18.8</v>
       </c>
-      <c r="E12" s="96">
+      <c r="E12" s="72">
         <v>15.4</v>
       </c>
-      <c r="F12" s="102">
+      <c r="F12" s="78">
         <v>40.799999999999997</v>
       </c>
-      <c r="G12" s="103">
+      <c r="G12" s="79">
         <v>39.1</v>
       </c>
       <c r="I12" s="27">
@@ -2472,7 +2650,7 @@
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="87">
+      <c r="B13" s="63">
         <v>25.1</v>
       </c>
       <c r="C13" s="46">
@@ -2501,7 +2679,7 @@
       <c r="B14" s="52">
         <v>19.899999999999999</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="61">
         <v>18</v>
       </c>
       <c r="D14" s="36">
@@ -2527,19 +2705,19 @@
       <c r="B15" s="35">
         <v>14.2</v>
       </c>
-      <c r="C15" s="89">
+      <c r="C15" s="65">
         <v>12.5</v>
       </c>
       <c r="D15" s="33">
         <v>-4.2</v>
       </c>
-      <c r="E15" s="93">
+      <c r="E15" s="69">
         <v>-3.1</v>
       </c>
       <c r="F15" s="54">
         <v>28.5</v>
       </c>
-      <c r="G15" s="98">
+      <c r="G15" s="74">
         <v>27.5</v>
       </c>
       <c r="I15" s="27"/>
@@ -2548,10 +2726,10 @@
       <c r="A16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="83">
+      <c r="B16" s="59">
         <v>7.9</v>
       </c>
-      <c r="C16" s="83">
+      <c r="C16" s="59">
         <v>7.7</v>
       </c>
       <c r="D16" s="40">
@@ -2574,19 +2752,19 @@
       <c r="B17" s="42">
         <v>17.5</v>
       </c>
-      <c r="C17" s="90">
+      <c r="C17" s="66">
         <v>15.8</v>
       </c>
-      <c r="D17" s="91">
+      <c r="D17" s="67">
         <v>-10.1</v>
       </c>
-      <c r="E17" s="92">
+      <c r="E17" s="68">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="F17" s="100">
+      <c r="F17" s="76">
         <v>40.9</v>
       </c>
-      <c r="G17" s="101">
+      <c r="G17" s="77">
         <v>39.5</v>
       </c>
     </row>
@@ -2617,10 +2795,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="14" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="104"/>
       <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
@@ -2666,7 +2844,7 @@
       <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="101" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -2713,7 +2891,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="71"/>
+      <c r="A4" s="101"/>
       <c r="B4" s="19" t="s">
         <v>20</v>
       </c>
@@ -2758,7 +2936,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="71"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="19" t="s">
         <v>21</v>
       </c>
@@ -2803,7 +2981,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="71"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="19" t="s">
         <v>22</v>
       </c>
@@ -2848,7 +3026,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="71"/>
+      <c r="A7" s="101"/>
       <c r="B7" s="19" t="s">
         <v>23</v>
       </c>
@@ -2893,7 +3071,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="71"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="19" t="s">
         <v>24</v>
       </c>
@@ -2938,7 +3116,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="71"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="19" t="s">
         <v>25</v>
       </c>
@@ -2983,7 +3161,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="71"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="19" t="s">
         <v>26</v>
       </c>
@@ -3028,7 +3206,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="71"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="19" t="s">
         <v>12</v>
       </c>
@@ -3073,7 +3251,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="71"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="19" t="s">
         <v>13</v>
       </c>
@@ -3118,7 +3296,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="71"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
@@ -3163,7 +3341,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="71"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
@@ -3208,7 +3386,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="71"/>
+      <c r="A15" s="101"/>
       <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
@@ -3257,7 +3435,7 @@
       <c r="B16" s="20"/>
     </row>
     <row r="17" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="102" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -3304,7 +3482,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="72"/>
+      <c r="A18" s="102"/>
       <c r="B18" s="21" t="s">
         <v>20</v>
       </c>
@@ -3349,7 +3527,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="72"/>
+      <c r="A19" s="102"/>
       <c r="B19" s="21" t="s">
         <v>21</v>
       </c>
@@ -3394,7 +3572,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="72"/>
+      <c r="A20" s="102"/>
       <c r="B20" s="21" t="s">
         <v>22</v>
       </c>
@@ -3439,7 +3617,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="72"/>
+      <c r="A21" s="102"/>
       <c r="B21" s="21" t="s">
         <v>23</v>
       </c>
@@ -3484,7 +3662,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="72"/>
+      <c r="A22" s="102"/>
       <c r="B22" s="21" t="s">
         <v>24</v>
       </c>
@@ -3529,7 +3707,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="72"/>
+      <c r="A23" s="102"/>
       <c r="B23" s="21" t="s">
         <v>25</v>
       </c>
@@ -3574,7 +3752,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="72"/>
+      <c r="A24" s="102"/>
       <c r="B24" s="21" t="s">
         <v>26</v>
       </c>
@@ -3619,7 +3797,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="72"/>
+      <c r="A25" s="102"/>
       <c r="B25" s="21" t="s">
         <v>12</v>
       </c>
@@ -3664,7 +3842,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="72"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="21" t="s">
         <v>13</v>
       </c>
@@ -3709,7 +3887,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="72"/>
+      <c r="A27" s="102"/>
       <c r="B27" s="21" t="s">
         <v>14</v>
       </c>
@@ -3754,7 +3932,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="72"/>
+      <c r="A28" s="102"/>
       <c r="B28" s="21" t="s">
         <v>15</v>
       </c>
@@ -3799,7 +3977,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="72"/>
+      <c r="A29" s="102"/>
       <c r="B29" s="21" t="s">
         <v>16</v>
       </c>
@@ -3848,7 +4026,7 @@
       <c r="B30" s="22"/>
     </row>
     <row r="31" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="103" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -3895,7 +4073,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="73"/>
+      <c r="A32" s="103"/>
       <c r="B32" s="25" t="s">
         <v>20</v>
       </c>
@@ -3940,7 +4118,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="73"/>
+      <c r="A33" s="103"/>
       <c r="B33" s="25" t="s">
         <v>21</v>
       </c>
@@ -3985,7 +4163,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="73"/>
+      <c r="A34" s="103"/>
       <c r="B34" s="25" t="s">
         <v>22</v>
       </c>
@@ -4030,7 +4208,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="73"/>
+      <c r="A35" s="103"/>
       <c r="B35" s="25" t="s">
         <v>23</v>
       </c>
@@ -4075,7 +4253,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="73"/>
+      <c r="A36" s="103"/>
       <c r="B36" s="25" t="s">
         <v>24</v>
       </c>
@@ -4120,7 +4298,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="73"/>
+      <c r="A37" s="103"/>
       <c r="B37" s="25" t="s">
         <v>25</v>
       </c>
@@ -4165,7 +4343,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="73"/>
+      <c r="A38" s="103"/>
       <c r="B38" s="25" t="s">
         <v>26</v>
       </c>
@@ -4210,7 +4388,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="73"/>
+      <c r="A39" s="103"/>
       <c r="B39" s="25" t="s">
         <v>12</v>
       </c>
@@ -4255,7 +4433,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="73"/>
+      <c r="A40" s="103"/>
       <c r="B40" s="25" t="s">
         <v>13</v>
       </c>
@@ -4300,7 +4478,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="73"/>
+      <c r="A41" s="103"/>
       <c r="B41" s="25" t="s">
         <v>14</v>
       </c>
@@ -4345,7 +4523,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="73"/>
+      <c r="A42" s="103"/>
       <c r="B42" s="25" t="s">
         <v>15</v>
       </c>
@@ -4390,7 +4568,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="73"/>
+      <c r="A43" s="103"/>
       <c r="B43" s="25" t="s">
         <v>16</v>
       </c>
@@ -4451,7 +4629,7 @@
   <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4586,6 +4764,7 @@
       <c r="B5">
         <v>-17.8</v>
       </c>
+      <c r="D5" s="112"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6">
@@ -4594,6 +4773,7 @@
       <c r="B6">
         <v>-17.8</v>
       </c>
+      <c r="D6" s="112"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7">
@@ -4602,6 +4782,7 @@
       <c r="B7">
         <v>-16.600000000000001</v>
       </c>
+      <c r="D7" s="112"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8">
@@ -4610,6 +4791,7 @@
       <c r="B8">
         <v>-17.399999999999999</v>
       </c>
+      <c r="D8" s="112"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9">
@@ -4618,6 +4800,7 @@
       <c r="B9">
         <v>-21.1</v>
       </c>
+      <c r="D9" s="112"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10">
@@ -4626,6 +4809,7 @@
       <c r="B10">
         <v>-20.100000000000001</v>
       </c>
+      <c r="D10" s="112"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11">
@@ -4634,6 +4818,7 @@
       <c r="B11">
         <v>-18.399999999999999</v>
       </c>
+      <c r="D11" s="112"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12">
@@ -4642,6 +4827,7 @@
       <c r="B12">
         <v>-17.600000000000001</v>
       </c>
+      <c r="D12" s="112"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13">
@@ -4650,6 +4836,7 @@
       <c r="B13">
         <v>-17.8</v>
       </c>
+      <c r="D13" s="112"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14">
@@ -4658,6 +4845,7 @@
       <c r="B14">
         <v>-16.8</v>
       </c>
+      <c r="D14" s="112"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15">
@@ -4666,6 +4854,7 @@
       <c r="B15">
         <v>-17.100000000000001</v>
       </c>
+      <c r="D15" s="112"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16">
@@ -4674,16 +4863,18 @@
       <c r="B16">
         <v>-15.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D16" s="112"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1976</v>
       </c>
       <c r="B17">
         <v>-17.399999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D17" s="112"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1977</v>
       </c>
@@ -4691,7 +4882,7 @@
         <v>-22.6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1978</v>
       </c>
@@ -4699,7 +4890,7 @@
         <v>-17.3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1979</v>
       </c>
@@ -4707,7 +4898,7 @@
         <v>-14.1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1980</v>
       </c>
@@ -4715,7 +4906,7 @@
         <v>-17.7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1981</v>
       </c>
@@ -4723,7 +4914,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1982</v>
       </c>
@@ -4731,7 +4922,7 @@
         <v>-18.2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1983</v>
       </c>
@@ -4739,7 +4930,7 @@
         <v>-17.7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1984</v>
       </c>
@@ -4747,7 +4938,7 @@
         <v>-19.3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1985</v>
       </c>
@@ -4755,7 +4946,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1986</v>
       </c>
@@ -4763,7 +4954,7 @@
         <v>-17.100000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1987</v>
       </c>
@@ -4771,7 +4962,7 @@
         <v>-15.1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1988</v>
       </c>
@@ -4779,7 +4970,7 @@
         <v>-16.8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1989</v>
       </c>
@@ -4787,7 +4978,7 @@
         <v>-16.600000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1990</v>
       </c>
@@ -4795,7 +4986,7 @@
         <v>-19.2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B32">
         <f>AVERAGE(B2:B31)</f>
         <v>-18.000000000000004</v>
@@ -4825,18 +5016,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
     </row>
     <row r="2" spans="1:5" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="77"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="107"/>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4851,7 +5042,7 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="78"/>
+      <c r="C3" s="108"/>
       <c r="D3" s="9">
         <v>42398</v>
       </c>
@@ -4866,7 +5057,7 @@
       <c r="B4" s="5">
         <v>-42.1</v>
       </c>
-      <c r="C4" s="78"/>
+      <c r="C4" s="108"/>
       <c r="D4" s="9">
         <v>42399</v>
       </c>
@@ -4881,7 +5072,7 @@
       <c r="B5" s="5">
         <v>-40.5</v>
       </c>
-      <c r="C5" s="78"/>
+      <c r="C5" s="108"/>
       <c r="D5" s="9">
         <v>42400</v>
       </c>
@@ -4896,7 +5087,7 @@
       <c r="B6" s="5">
         <v>-44.8</v>
       </c>
-      <c r="C6" s="78"/>
+      <c r="C6" s="108"/>
       <c r="D6" s="8">
         <v>42401</v>
       </c>
@@ -4911,7 +5102,7 @@
       <c r="B7" s="5">
         <v>-40.6</v>
       </c>
-      <c r="C7" s="78"/>
+      <c r="C7" s="108"/>
       <c r="D7" s="8">
         <v>42402</v>
       </c>
@@ -4926,7 +5117,7 @@
       <c r="B8" s="5">
         <v>-48.6</v>
       </c>
-      <c r="C8" s="78"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="8">
         <v>42403</v>
       </c>
@@ -4941,7 +5132,7 @@
       <c r="B9" s="5">
         <v>-46.8</v>
       </c>
-      <c r="C9" s="78"/>
+      <c r="C9" s="108"/>
       <c r="D9" s="9">
         <v>42404</v>
       </c>
@@ -4956,7 +5147,7 @@
       <c r="B10" s="5">
         <v>-40.5</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="9">
         <v>42405</v>
       </c>
@@ -4971,7 +5162,7 @@
       <c r="B11" s="5">
         <v>-47.1</v>
       </c>
-      <c r="C11" s="78"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="9">
         <v>42406</v>
       </c>
@@ -4986,7 +5177,7 @@
       <c r="B12" s="5">
         <v>-47.8</v>
       </c>
-      <c r="C12" s="78"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="6">
         <v>42412</v>
       </c>
@@ -5001,7 +5192,7 @@
       <c r="B13" s="5">
         <v>-42.4</v>
       </c>
-      <c r="C13" s="78"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="6">
         <v>42413</v>
       </c>
@@ -5016,7 +5207,7 @@
       <c r="B14" s="5">
         <v>-47.5</v>
       </c>
-      <c r="C14" s="78"/>
+      <c r="C14" s="108"/>
       <c r="D14" s="4">
         <v>42414</v>
       </c>
@@ -5031,7 +5222,7 @@
       <c r="B15" s="5">
         <v>-40</v>
       </c>
-      <c r="C15" s="78"/>
+      <c r="C15" s="108"/>
       <c r="D15" s="4">
         <v>42415</v>
       </c>
@@ -5046,7 +5237,7 @@
       <c r="B16" s="5">
         <v>-40.1</v>
       </c>
-      <c r="C16" s="78"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="4">
         <v>42416</v>
       </c>
@@ -5061,7 +5252,7 @@
       <c r="B17" s="5">
         <v>-42.6</v>
       </c>
-      <c r="C17" s="78"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="4">
         <v>42417</v>
       </c>
@@ -5076,7 +5267,7 @@
       <c r="B18" s="5">
         <v>-41.1</v>
       </c>
-      <c r="C18" s="78"/>
+      <c r="C18" s="108"/>
       <c r="D18" s="8">
         <v>42419</v>
       </c>
@@ -5091,7 +5282,7 @@
       <c r="B19" s="5">
         <v>-43.4</v>
       </c>
-      <c r="C19" s="78"/>
+      <c r="C19" s="108"/>
       <c r="D19" s="8">
         <v>42420</v>
       </c>
@@ -5106,7 +5297,7 @@
       <c r="B20" s="5">
         <v>-46</v>
       </c>
-      <c r="C20" s="78"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="4">
         <v>42422</v>
       </c>
@@ -5121,7 +5312,7 @@
       <c r="B21" s="5">
         <v>-44.8</v>
       </c>
-      <c r="C21" s="78"/>
+      <c r="C21" s="108"/>
       <c r="D21" s="4">
         <v>42423</v>
       </c>
@@ -5136,7 +5327,7 @@
       <c r="B22" s="5">
         <v>-42.9</v>
       </c>
-      <c r="C22" s="78"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="4">
         <v>42424</v>
       </c>
@@ -5151,7 +5342,7 @@
       <c r="B23" s="5">
         <v>-42.3</v>
       </c>
-      <c r="C23" s="78"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="4">
         <v>42425</v>
       </c>
@@ -5166,7 +5357,7 @@
       <c r="B24" s="5">
         <v>-44</v>
       </c>
-      <c r="C24" s="78"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="8">
         <v>42433</v>
       </c>
@@ -5181,7 +5372,7 @@
       <c r="B25" s="5">
         <v>-45.6</v>
       </c>
-      <c r="C25" s="78"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="8">
         <v>42434</v>
       </c>
@@ -5196,7 +5387,7 @@
       <c r="B26" s="5">
         <v>-47.7</v>
       </c>
-      <c r="C26" s="78"/>
+      <c r="C26" s="108"/>
       <c r="D26" s="8">
         <v>42435</v>
       </c>
@@ -5211,7 +5402,7 @@
       <c r="B27" s="5">
         <v>-48.5</v>
       </c>
-      <c r="C27" s="78"/>
+      <c r="C27" s="108"/>
       <c r="D27" s="8">
         <v>42436</v>
       </c>
@@ -5226,7 +5417,7 @@
       <c r="B28" s="5">
         <v>-50</v>
       </c>
-      <c r="C28" s="78"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="9">
         <v>42437</v>
       </c>
@@ -5241,7 +5432,7 @@
       <c r="B29" s="5">
         <v>-48</v>
       </c>
-      <c r="C29" s="78"/>
+      <c r="C29" s="108"/>
       <c r="D29" s="9">
         <v>42438</v>
       </c>
@@ -5256,7 +5447,7 @@
       <c r="B30" s="5">
         <v>-49.3</v>
       </c>
-      <c r="C30" s="78"/>
+      <c r="C30" s="108"/>
       <c r="D30" s="9">
         <v>42439</v>
       </c>
@@ -5271,7 +5462,7 @@
       <c r="B31" s="5">
         <v>-49.1</v>
       </c>
-      <c r="C31" s="79"/>
+      <c r="C31" s="109"/>
       <c r="D31" s="8">
         <v>42440</v>
       </c>
@@ -5578,4 +5769,162 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D769BAF-7E60-4325-8C4C-DEEC69D3192E}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="3" width="22.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="61.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="126"/>
+    </row>
+    <row r="2" spans="1:3" ht="31.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="127" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="128" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="129"/>
+    </row>
+    <row r="3" spans="1:3" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="127"/>
+      <c r="B3" s="130" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="130" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="131">
+        <v>45903</v>
+      </c>
+      <c r="B4" s="113">
+        <v>-4.3</v>
+      </c>
+      <c r="C4" s="114">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="131">
+        <v>45904</v>
+      </c>
+      <c r="B5" s="115">
+        <v>-6</v>
+      </c>
+      <c r="C5" s="116">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="131">
+        <v>45905</v>
+      </c>
+      <c r="B6" s="115">
+        <v>-5.3</v>
+      </c>
+      <c r="C6" s="117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="131">
+        <v>45911</v>
+      </c>
+      <c r="B7" s="118">
+        <v>-2.7</v>
+      </c>
+      <c r="C7" s="119">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="131">
+        <v>45912</v>
+      </c>
+      <c r="B8" s="113">
+        <v>-5</v>
+      </c>
+      <c r="C8" s="116">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="131">
+        <v>45913</v>
+      </c>
+      <c r="B9" s="115">
+        <v>-5.2</v>
+      </c>
+      <c r="C9" s="119">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="131">
+        <v>45914</v>
+      </c>
+      <c r="B10" s="113">
+        <v>-4.2</v>
+      </c>
+      <c r="C10" s="116">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="131">
+        <v>45915</v>
+      </c>
+      <c r="B11" s="115">
+        <v>-6</v>
+      </c>
+      <c r="C11" s="120">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="131">
+        <v>45916</v>
+      </c>
+      <c r="B12" s="121">
+        <v>-3.8</v>
+      </c>
+      <c r="C12" s="122">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="131">
+        <v>45917</v>
+      </c>
+      <c r="B13" s="118">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="C13" s="123"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/气象/双站寒冷PK.xlsx
+++ b/气象/双站寒冷PK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0F5683-AA19-4968-BC65-08303351C541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC3C8F2-76D3-4500-8D17-A409E66462C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E01B588A-3742-4A11-89A2-9DFEDEEDD47B}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,7 +300,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上海</t>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>最低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可托海滑雪场山顶(3100m)
+近日高低气温记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站点20-20时24小时最低、最高气温(℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华盛顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -338,28 +362,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 上海 VS 东京</t>
+      <t xml:space="preserve"> 北京 VS 华盛顿</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>最低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可可托海滑雪场山顶(3100m)
-近日高低气温记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>站点20-20时24小时最低、最高气温(℃)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,7 +377,7 @@
     <numFmt numFmtId="178" formatCode="0.0"/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,42 +669,6 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
-      <color rgb="FFFFFF3F"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="24"/>
       <color rgb="FF92D050"/>
       <name val="等线"/>
@@ -806,8 +774,67 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FF92D050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFFFF3F"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="51">
+  <fills count="56">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -858,43 +885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDED287"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4680EF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE3D39A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FD6E4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB6C454"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF478BEF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4576EE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,12 +898,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE9D7AC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4C961"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,12 +922,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8EA604"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE38A02"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,12 +999,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBDC75A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA3AA03"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1033,12 +1006,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD1CE6E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4361EE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,12 +1047,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBF3100"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF4BBFF0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1105,6 +1066,102 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3E9D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2E3D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF400CA5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF480CA8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4E0CAA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4B0CA9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF403FD0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3F37C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0D290"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4150DF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4259E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3C1DB2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF450CA7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD25F02"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9D2506"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC94801"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFAB01"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,7 +1424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1467,171 +1524,66 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="36" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="25" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="36" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="31" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="32" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="39" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="41" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="43" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="44" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="45" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="45" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="39" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="178" fontId="39" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="178" fontId="39" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="178" fontId="39" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="178" fontId="39" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="178" fontId="41" fillId="32" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="178" fontId="41" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="178" fontId="39" fillId="31" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="39" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="178" fontId="43" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="25" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1704,41 +1656,8 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="43" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="178" fontId="44" fillId="47" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="178" fontId="43" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="178" fontId="43" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="178" fontId="43" fillId="48" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="178" fontId="43" fillId="49" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="178" fontId="45" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="178" fontId="45" fillId="48" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="178" fontId="43" fillId="41" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="178" fontId="46" fillId="50" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="178" fontId="47" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1749,19 +1668,178 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="25" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="49" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="50" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="39" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="50" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="41" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="49" fillId="43" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="49" fillId="44" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="45" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="31" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="32" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="50" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="50" fillId="47" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="47" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="48" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="49" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="50" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="51" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="50" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="50" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="52" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="53" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="54" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="49" fillId="53" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="25" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="55" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2316,7 +2394,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2327,15 +2405,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
+      <c r="A1" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
       <c r="I1" s="26" t="s">
         <v>35</v>
       </c>
@@ -2380,59 +2458,59 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="90"/>
-      <c r="B2" s="88" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="93" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="97" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="98"/>
+      <c r="G2" s="63"/>
       <c r="I2" s="28" cm="1">
         <f t="array" ref="I2:I14">TRANSPOSE(J1:V1)</f>
         <v>5.4</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="91"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="31" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="100"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
       <c r="I3" s="28">
         <v>6.1</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="92"/>
-      <c r="B4" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="84" t="s">
-        <v>46</v>
+      <c r="A4" s="57"/>
+      <c r="B4" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="G4" s="85" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I4" s="27">
         <v>9.4</v>
@@ -2442,23 +2520,23 @@
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="58">
-        <v>5.4</v>
-      </c>
-      <c r="C5" s="58">
-        <v>5.4</v>
-      </c>
-      <c r="D5" s="67">
-        <v>-10.1</v>
-      </c>
-      <c r="E5" s="68">
-        <v>-9.1999999999999993</v>
-      </c>
-      <c r="F5" s="60">
-        <v>21.6</v>
-      </c>
-      <c r="G5" s="73">
-        <v>22.6</v>
+      <c r="B5" s="86">
+        <v>-2.7</v>
+      </c>
+      <c r="C5" s="87">
+        <v>3.1</v>
+      </c>
+      <c r="D5" s="106">
+        <v>-22.8</v>
+      </c>
+      <c r="E5" s="107">
+        <v>-25.6</v>
+      </c>
+      <c r="F5" s="124">
+        <v>14.3</v>
+      </c>
+      <c r="G5" s="125">
+        <v>26.1</v>
       </c>
       <c r="I5" s="27">
         <v>14.3</v>
@@ -2468,23 +2546,23 @@
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="59">
-        <v>7</v>
-      </c>
-      <c r="C6" s="53">
-        <v>6.1</v>
-      </c>
-      <c r="D6" s="34">
-        <v>-7.9</v>
-      </c>
-      <c r="E6" s="34">
-        <v>-7.9</v>
-      </c>
-      <c r="F6" s="74">
-        <v>27</v>
-      </c>
-      <c r="G6" s="38">
-        <v>24.9</v>
+      <c r="B6" s="88">
+        <v>0.6</v>
+      </c>
+      <c r="C6" s="89">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D6" s="108">
+        <v>-27.4</v>
+      </c>
+      <c r="E6" s="109">
+        <v>-26.1</v>
+      </c>
+      <c r="F6" s="96">
+        <v>25.6</v>
+      </c>
+      <c r="G6" s="126">
+        <v>28.9</v>
       </c>
       <c r="I6" s="27">
         <v>18.8</v>
@@ -2494,23 +2572,23 @@
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="48">
-        <v>10.7</v>
-      </c>
-      <c r="C7" s="45">
-        <v>9.4</v>
-      </c>
-      <c r="D7" s="50">
-        <v>-5.4</v>
-      </c>
-      <c r="E7" s="50">
-        <v>-5.6</v>
-      </c>
-      <c r="F7" s="75">
-        <v>31.1</v>
-      </c>
-      <c r="G7" s="54">
-        <v>28.1</v>
+      <c r="B7" s="90">
+        <v>7.5</v>
+      </c>
+      <c r="C7" s="91">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D7" s="110">
+        <v>-15</v>
+      </c>
+      <c r="E7" s="111">
+        <v>-15.6</v>
+      </c>
+      <c r="F7" s="127">
+        <v>29.5</v>
+      </c>
+      <c r="G7" s="128">
+        <v>33.9</v>
       </c>
       <c r="I7" s="27">
         <v>21.9</v>
@@ -2520,23 +2598,23 @@
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="44">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="C8" s="35">
-        <v>14.3</v>
-      </c>
-      <c r="D8" s="51">
-        <v>-0.5</v>
-      </c>
-      <c r="E8" s="69">
-        <v>-3.1</v>
-      </c>
-      <c r="F8" s="55">
-        <v>33.9</v>
-      </c>
-      <c r="G8" s="37">
-        <v>29.2</v>
+      <c r="B8" s="92">
+        <v>15.1</v>
+      </c>
+      <c r="C8" s="93">
+        <v>14.6</v>
+      </c>
+      <c r="D8" s="112">
+        <v>-3.2</v>
+      </c>
+      <c r="E8" s="113">
+        <v>-9.4</v>
+      </c>
+      <c r="F8" s="128">
+        <v>33.5</v>
+      </c>
+      <c r="G8" s="129">
+        <v>35</v>
       </c>
       <c r="I8" s="27">
         <v>25.7</v>
@@ -2546,23 +2624,23 @@
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="94">
         <v>21.3</v>
       </c>
-      <c r="C9" s="61">
-        <v>18.8</v>
-      </c>
-      <c r="D9" s="53">
-        <v>6.9</v>
-      </c>
-      <c r="E9" s="70">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F9" s="56">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="G9" s="41">
-        <v>32.6</v>
+      <c r="C9" s="95">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D9" s="114">
+        <v>2.5</v>
+      </c>
+      <c r="E9" s="88">
+        <v>0.6</v>
+      </c>
+      <c r="F9" s="130">
+        <v>41.1</v>
+      </c>
+      <c r="G9" s="131">
+        <v>37.200000000000003</v>
       </c>
       <c r="I9" s="27">
         <v>26.9</v>
@@ -2572,23 +2650,23 @@
       <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="38">
-        <v>24.7</v>
-      </c>
-      <c r="C10" s="60">
-        <v>21.9</v>
-      </c>
-      <c r="D10" s="65">
-        <v>12.3</v>
-      </c>
-      <c r="E10" s="39">
-        <v>8.5</v>
-      </c>
-      <c r="F10" s="57">
-        <v>38.5</v>
-      </c>
-      <c r="G10" s="56">
-        <v>36.4</v>
+      <c r="B10" s="96">
+        <v>25.3</v>
+      </c>
+      <c r="C10" s="97">
+        <v>24.6</v>
+      </c>
+      <c r="D10" s="104">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E10" s="115">
+        <v>6.1</v>
+      </c>
+      <c r="F10" s="130">
+        <v>41.1</v>
+      </c>
+      <c r="G10" s="132">
+        <v>40</v>
       </c>
       <c r="I10" s="27">
         <v>23.3</v>
@@ -2598,23 +2676,23 @@
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="62">
-        <v>29.1</v>
-      </c>
-      <c r="C11" s="63">
-        <v>25.7</v>
-      </c>
-      <c r="D11" s="44">
-        <v>16.3</v>
-      </c>
-      <c r="E11" s="43">
-        <v>13</v>
-      </c>
-      <c r="F11" s="76">
-        <v>40.9</v>
-      </c>
-      <c r="G11" s="77">
-        <v>39.5</v>
+      <c r="B11" s="98">
+        <v>27.2</v>
+      </c>
+      <c r="C11" s="98">
+        <v>27.2</v>
+      </c>
+      <c r="D11" s="116">
+        <v>15.3</v>
+      </c>
+      <c r="E11" s="117">
+        <v>11.1</v>
+      </c>
+      <c r="F11" s="133">
+        <v>41.9</v>
+      </c>
+      <c r="G11" s="133">
+        <v>41.1</v>
       </c>
       <c r="I11" s="27">
         <v>18</v>
@@ -2624,23 +2702,23 @@
       <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="54">
-        <v>28.8</v>
-      </c>
-      <c r="C12" s="64">
-        <v>26.9</v>
-      </c>
-      <c r="D12" s="71">
-        <v>18.8</v>
-      </c>
-      <c r="E12" s="72">
-        <v>15.4</v>
-      </c>
-      <c r="F12" s="78">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="G12" s="79">
-        <v>39.1</v>
+      <c r="B12" s="99">
+        <v>26.1</v>
+      </c>
+      <c r="C12" s="99">
+        <v>26.3</v>
+      </c>
+      <c r="D12" s="118">
+        <v>11.4</v>
+      </c>
+      <c r="E12" s="104">
+        <v>9.4</v>
+      </c>
+      <c r="F12" s="134">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="G12" s="133">
+        <v>41.1</v>
       </c>
       <c r="I12" s="27">
         <v>12.5</v>
@@ -2650,23 +2728,23 @@
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="63">
-        <v>25.1</v>
-      </c>
-      <c r="C13" s="46">
-        <v>23.3</v>
-      </c>
-      <c r="D13" s="48">
-        <v>10.8</v>
-      </c>
-      <c r="E13" s="48">
-        <v>10.5</v>
-      </c>
-      <c r="F13" s="57">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="G13" s="57">
-        <v>38.1</v>
+      <c r="B13" s="94">
+        <v>21.2</v>
+      </c>
+      <c r="C13" s="100">
+        <v>22.4</v>
+      </c>
+      <c r="D13" s="119">
+        <v>3.7</v>
+      </c>
+      <c r="E13" s="114">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F13" s="129">
+        <v>35.9</v>
+      </c>
+      <c r="G13" s="132">
+        <v>40</v>
       </c>
       <c r="I13" s="27">
         <v>7.7</v>
@@ -2676,23 +2754,23 @@
       <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="52">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="C14" s="61">
-        <v>18</v>
-      </c>
-      <c r="D14" s="36">
-        <v>1.7</v>
-      </c>
-      <c r="E14" s="51">
-        <v>-0.5</v>
-      </c>
-      <c r="F14" s="56">
-        <v>36</v>
-      </c>
-      <c r="G14" s="41">
-        <v>32.6</v>
+      <c r="B14" s="101">
+        <v>13.8</v>
+      </c>
+      <c r="C14" s="102">
+        <v>16</v>
+      </c>
+      <c r="D14" s="112">
+        <v>-3.5</v>
+      </c>
+      <c r="E14" s="112">
+        <v>-3.3</v>
+      </c>
+      <c r="F14" s="135">
+        <v>31</v>
+      </c>
+      <c r="G14" s="136">
+        <v>36.700000000000003</v>
       </c>
       <c r="I14" s="27">
         <v>15.8</v>
@@ -2702,23 +2780,23 @@
       <c r="A15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="35">
-        <v>14.2</v>
-      </c>
-      <c r="C15" s="65">
-        <v>12.5</v>
-      </c>
-      <c r="D15" s="33">
-        <v>-4.2</v>
-      </c>
-      <c r="E15" s="69">
-        <v>-3.1</v>
-      </c>
-      <c r="F15" s="54">
-        <v>28.5</v>
-      </c>
-      <c r="G15" s="74">
-        <v>27.5</v>
+      <c r="B15" s="103">
+        <v>5.2</v>
+      </c>
+      <c r="C15" s="104">
+        <v>9.9</v>
+      </c>
+      <c r="D15" s="120">
+        <v>-12.3</v>
+      </c>
+      <c r="E15" s="121">
+        <v>-11.7</v>
+      </c>
+      <c r="F15" s="137">
+        <v>23.3</v>
+      </c>
+      <c r="G15" s="138">
+        <v>30</v>
       </c>
       <c r="I15" s="27"/>
     </row>
@@ -2726,46 +2804,46 @@
       <c r="A16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="59">
-        <v>7.9</v>
-      </c>
-      <c r="C16" s="59">
-        <v>7.7</v>
-      </c>
-      <c r="D16" s="40">
-        <v>-8.5</v>
-      </c>
-      <c r="E16" s="47">
-        <v>-6.8</v>
-      </c>
-      <c r="F16" s="46">
-        <v>23.4</v>
-      </c>
-      <c r="G16" s="38">
-        <v>24.8</v>
+      <c r="B16" s="105">
+        <v>-1</v>
+      </c>
+      <c r="C16" s="103">
+        <v>5.4</v>
+      </c>
+      <c r="D16" s="122">
+        <v>-18.3</v>
+      </c>
+      <c r="E16" s="123">
+        <v>-25</v>
+      </c>
+      <c r="F16" s="95">
+        <v>19.5</v>
+      </c>
+      <c r="G16" s="125">
+        <v>26.1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="42">
-        <v>17.5</v>
-      </c>
-      <c r="C17" s="66">
-        <v>15.8</v>
-      </c>
-      <c r="D17" s="67">
-        <v>-10.1</v>
-      </c>
-      <c r="E17" s="68">
-        <v>-9.1999999999999993</v>
-      </c>
-      <c r="F17" s="76">
-        <v>40.9</v>
-      </c>
-      <c r="G17" s="77">
-        <v>39.5</v>
+      <c r="B17" s="101">
+        <v>13.3</v>
+      </c>
+      <c r="C17" s="92">
+        <v>15.2</v>
+      </c>
+      <c r="D17" s="108">
+        <v>-27.4</v>
+      </c>
+      <c r="E17" s="109">
+        <v>-26.1</v>
+      </c>
+      <c r="F17" s="133">
+        <v>41.9</v>
+      </c>
+      <c r="G17" s="133">
+        <v>41.1</v>
       </c>
     </row>
   </sheetData>
@@ -2783,10 +2861,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9152A6-E7B9-4B02-90F6-A2187C19C989}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2794,11 +2872,11 @@
     <col min="2" max="2" width="9.06640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="14" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:17" s="14" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
@@ -2838,13 +2916,19 @@
       <c r="O1" s="14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" s="15" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="15" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
     </row>
-    <row r="3" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="101" t="s">
+    <row r="3" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="66" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -2889,9 +2973,15 @@
       <c r="O3" s="16">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="101"/>
+      <c r="P3" s="16">
+        <v>-2.7</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="66"/>
       <c r="B4" s="19" t="s">
         <v>20</v>
       </c>
@@ -2934,9 +3024,15 @@
       <c r="O4" s="16">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="101"/>
+      <c r="P4" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="66"/>
       <c r="B5" s="19" t="s">
         <v>21</v>
       </c>
@@ -2979,9 +3075,15 @@
       <c r="O5" s="16">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="101"/>
+      <c r="P5" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="66"/>
       <c r="B6" s="19" t="s">
         <v>22</v>
       </c>
@@ -3024,9 +3126,15 @@
       <c r="O6" s="16">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="101"/>
+      <c r="P6" s="16">
+        <v>15.1</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="66"/>
       <c r="B7" s="19" t="s">
         <v>23</v>
       </c>
@@ -3069,9 +3177,15 @@
       <c r="O7" s="16">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="101"/>
+      <c r="P7" s="16">
+        <v>21.3</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="66"/>
       <c r="B8" s="19" t="s">
         <v>24</v>
       </c>
@@ -3114,9 +3228,15 @@
       <c r="O8" s="16">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="101"/>
+      <c r="P8" s="16">
+        <v>25.3</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="66"/>
       <c r="B9" s="19" t="s">
         <v>25</v>
       </c>
@@ -3159,9 +3279,15 @@
       <c r="O9" s="16">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="101"/>
+      <c r="P9" s="16">
+        <v>27.2</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="66"/>
       <c r="B10" s="19" t="s">
         <v>26</v>
       </c>
@@ -3204,9 +3330,15 @@
       <c r="O10" s="16">
         <v>26.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="101"/>
+      <c r="P10" s="16">
+        <v>26.1</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="66"/>
       <c r="B11" s="19" t="s">
         <v>12</v>
       </c>
@@ -3249,9 +3381,15 @@
       <c r="O11" s="16">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="101"/>
+      <c r="P11" s="16">
+        <v>21.2</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="66"/>
       <c r="B12" s="19" t="s">
         <v>13</v>
       </c>
@@ -3294,9 +3432,15 @@
       <c r="O12" s="16">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="101"/>
+      <c r="P12" s="16">
+        <v>13.8</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="66"/>
       <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
@@ -3339,9 +3483,15 @@
       <c r="O13" s="16">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="101"/>
+      <c r="P13" s="16">
+        <v>5.2</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="66"/>
       <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
@@ -3384,9 +3534,15 @@
       <c r="O14" s="16">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="101"/>
+      <c r="P14" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="66"/>
       <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
@@ -3429,13 +3585,19 @@
       <c r="O15" s="16">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" s="17" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P15" s="16">
+        <v>13.3</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="17" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23"/>
       <c r="B16" s="20"/>
     </row>
-    <row r="17" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="102" t="s">
+    <row r="17" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="67" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -3480,9 +3642,15 @@
       <c r="O17" s="16">
         <v>-9.1999999999999993</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="102"/>
+      <c r="P17" s="16">
+        <v>-22.8</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>-25.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="67"/>
       <c r="B18" s="21" t="s">
         <v>20</v>
       </c>
@@ -3525,9 +3693,15 @@
       <c r="O18" s="16">
         <v>-7.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="102"/>
+      <c r="P18" s="16">
+        <v>-27.4</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>-26.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="67"/>
       <c r="B19" s="21" t="s">
         <v>21</v>
       </c>
@@ -3570,9 +3744,15 @@
       <c r="O19" s="16">
         <v>-5.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="102"/>
+      <c r="P19" s="16">
+        <v>-15</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>-15.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="67"/>
       <c r="B20" s="21" t="s">
         <v>22</v>
       </c>
@@ -3615,9 +3795,15 @@
       <c r="O20" s="16">
         <v>-3.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="102"/>
+      <c r="P20" s="16">
+        <v>-3.2</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>-9.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="67"/>
       <c r="B21" s="21" t="s">
         <v>23</v>
       </c>
@@ -3660,9 +3846,15 @@
       <c r="O21" s="16">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="102"/>
+      <c r="P21" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="67"/>
       <c r="B22" s="21" t="s">
         <v>24</v>
       </c>
@@ -3705,9 +3897,15 @@
       <c r="O22" s="16">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="102"/>
+      <c r="P22" s="16">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="67"/>
       <c r="B23" s="21" t="s">
         <v>25</v>
       </c>
@@ -3750,9 +3948,15 @@
       <c r="O23" s="16">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="102"/>
+      <c r="P23" s="16">
+        <v>15.3</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="67"/>
       <c r="B24" s="21" t="s">
         <v>26</v>
       </c>
@@ -3795,9 +3999,15 @@
       <c r="O24" s="16">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="102"/>
+      <c r="P24" s="16">
+        <v>11.4</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="67"/>
       <c r="B25" s="21" t="s">
         <v>12</v>
       </c>
@@ -3840,9 +4050,15 @@
       <c r="O25" s="16">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="102"/>
+      <c r="P25" s="16">
+        <v>3.7</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="67"/>
       <c r="B26" s="21" t="s">
         <v>13</v>
       </c>
@@ -3885,9 +4101,15 @@
       <c r="O26" s="16">
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="102"/>
+      <c r="P26" s="16">
+        <v>-3.5</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>-3.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="67"/>
       <c r="B27" s="21" t="s">
         <v>14</v>
       </c>
@@ -3930,9 +4152,15 @@
       <c r="O27" s="16">
         <v>-3.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="102"/>
+      <c r="P27" s="16">
+        <v>-12.3</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>-11.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="67"/>
       <c r="B28" s="21" t="s">
         <v>15</v>
       </c>
@@ -3975,9 +4203,15 @@
       <c r="O28" s="16">
         <v>-6.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="102"/>
+      <c r="P28" s="16">
+        <v>-18.3</v>
+      </c>
+      <c r="Q28" s="16">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="67"/>
       <c r="B29" s="21" t="s">
         <v>16</v>
       </c>
@@ -4020,13 +4254,19 @@
       <c r="O29" s="16">
         <v>-9.1999999999999993</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" s="17" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P29" s="16">
+        <v>-27.4</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>-26.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="17" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="24"/>
       <c r="B30" s="22"/>
     </row>
-    <row r="31" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="103" t="s">
+    <row r="31" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="68" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -4071,9 +4311,15 @@
       <c r="O31" s="16">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="103"/>
+      <c r="P31" s="16">
+        <v>14.3</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="68"/>
       <c r="B32" s="25" t="s">
         <v>20</v>
       </c>
@@ -4116,9 +4362,15 @@
       <c r="O32" s="16">
         <v>24.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="103"/>
+      <c r="P32" s="16">
+        <v>25.6</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="68"/>
       <c r="B33" s="25" t="s">
         <v>21</v>
       </c>
@@ -4161,9 +4413,15 @@
       <c r="O33" s="16">
         <v>28.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="103"/>
+      <c r="P33" s="16">
+        <v>29.5</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="68"/>
       <c r="B34" s="25" t="s">
         <v>22</v>
       </c>
@@ -4206,9 +4464,15 @@
       <c r="O34" s="16">
         <v>29.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="103"/>
+      <c r="P34" s="16">
+        <v>33.5</v>
+      </c>
+      <c r="Q34" s="16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="68"/>
       <c r="B35" s="25" t="s">
         <v>23</v>
       </c>
@@ -4251,9 +4515,15 @@
       <c r="O35" s="16">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="103"/>
+      <c r="P35" s="16">
+        <v>41.1</v>
+      </c>
+      <c r="Q35" s="16">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="68"/>
       <c r="B36" s="25" t="s">
         <v>24</v>
       </c>
@@ -4296,9 +4566,15 @@
       <c r="O36" s="16">
         <v>36.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="103"/>
+      <c r="P36" s="16">
+        <v>41.1</v>
+      </c>
+      <c r="Q36" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="68"/>
       <c r="B37" s="25" t="s">
         <v>25</v>
       </c>
@@ -4341,9 +4617,15 @@
       <c r="O37" s="16">
         <v>39.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="103"/>
+      <c r="P37" s="16">
+        <v>41.9</v>
+      </c>
+      <c r="Q37" s="16">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="68"/>
       <c r="B38" s="25" t="s">
         <v>26</v>
       </c>
@@ -4386,9 +4668,15 @@
       <c r="O38" s="16">
         <v>39.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="103"/>
+      <c r="P38" s="16">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="Q38" s="16">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="68"/>
       <c r="B39" s="25" t="s">
         <v>12</v>
       </c>
@@ -4431,9 +4719,15 @@
       <c r="O39" s="16">
         <v>38.1</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="103"/>
+      <c r="P39" s="16">
+        <v>35.9</v>
+      </c>
+      <c r="Q39" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="68"/>
       <c r="B40" s="25" t="s">
         <v>13</v>
       </c>
@@ -4476,9 +4770,15 @@
       <c r="O40" s="16">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="103"/>
+      <c r="P40" s="16">
+        <v>31</v>
+      </c>
+      <c r="Q40" s="16">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="68"/>
       <c r="B41" s="25" t="s">
         <v>14</v>
       </c>
@@ -4521,9 +4821,15 @@
       <c r="O41" s="16">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="103"/>
+      <c r="P41" s="16">
+        <v>23.3</v>
+      </c>
+      <c r="Q41" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="68"/>
       <c r="B42" s="25" t="s">
         <v>15</v>
       </c>
@@ -4566,9 +4872,15 @@
       <c r="O42" s="16">
         <v>24.8</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="103"/>
+      <c r="P42" s="16">
+        <v>19.5</v>
+      </c>
+      <c r="Q42" s="16">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="68"/>
       <c r="B43" s="25" t="s">
         <v>16</v>
       </c>
@@ -4610,6 +4922,12 @@
       </c>
       <c r="O43" s="16">
         <v>39.5</v>
+      </c>
+      <c r="P43" s="16">
+        <v>41.9</v>
+      </c>
+      <c r="Q43" s="16">
+        <v>41.1</v>
       </c>
     </row>
   </sheetData>
@@ -4649,7 +4967,7 @@
       <c r="B2">
         <v>-17.399999999999999</v>
       </c>
-      <c r="D2" s="49" cm="1">
+      <c r="D2" s="33" cm="1">
         <f t="array" ref="D2:AG2">TRANSPOSE(B2:B31)</f>
         <v>-17.399999999999999</v>
       </c>
@@ -4764,7 +5082,7 @@
       <c r="B5">
         <v>-17.8</v>
       </c>
-      <c r="D5" s="112"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6">
@@ -4773,7 +5091,7 @@
       <c r="B6">
         <v>-17.8</v>
       </c>
-      <c r="D6" s="112"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7">
@@ -4782,7 +5100,7 @@
       <c r="B7">
         <v>-16.600000000000001</v>
       </c>
-      <c r="D7" s="112"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8">
@@ -4791,7 +5109,7 @@
       <c r="B8">
         <v>-17.399999999999999</v>
       </c>
-      <c r="D8" s="112"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9">
@@ -4800,7 +5118,7 @@
       <c r="B9">
         <v>-21.1</v>
       </c>
-      <c r="D9" s="112"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10">
@@ -4809,7 +5127,7 @@
       <c r="B10">
         <v>-20.100000000000001</v>
       </c>
-      <c r="D10" s="112"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11">
@@ -4818,7 +5136,7 @@
       <c r="B11">
         <v>-18.399999999999999</v>
       </c>
-      <c r="D11" s="112"/>
+      <c r="D11" s="37"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12">
@@ -4827,7 +5145,7 @@
       <c r="B12">
         <v>-17.600000000000001</v>
       </c>
-      <c r="D12" s="112"/>
+      <c r="D12" s="37"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13">
@@ -4836,7 +5154,7 @@
       <c r="B13">
         <v>-17.8</v>
       </c>
-      <c r="D13" s="112"/>
+      <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14">
@@ -4845,7 +5163,7 @@
       <c r="B14">
         <v>-16.8</v>
       </c>
-      <c r="D14" s="112"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15">
@@ -4854,7 +5172,7 @@
       <c r="B15">
         <v>-17.100000000000001</v>
       </c>
-      <c r="D15" s="112"/>
+      <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16">
@@ -4863,7 +5181,7 @@
       <c r="B16">
         <v>-15.6</v>
       </c>
-      <c r="D16" s="112"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
@@ -4872,7 +5190,7 @@
       <c r="B17">
         <v>-17.399999999999999</v>
       </c>
-      <c r="D17" s="112"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
@@ -5016,18 +5334,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
     </row>
     <row r="2" spans="1:5" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="110"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="107"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5042,7 +5360,7 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="108"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="9">
         <v>42398</v>
       </c>
@@ -5057,7 +5375,7 @@
       <c r="B4" s="5">
         <v>-42.1</v>
       </c>
-      <c r="C4" s="108"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="9">
         <v>42399</v>
       </c>
@@ -5072,7 +5390,7 @@
       <c r="B5" s="5">
         <v>-40.5</v>
       </c>
-      <c r="C5" s="108"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="9">
         <v>42400</v>
       </c>
@@ -5087,7 +5405,7 @@
       <c r="B6" s="5">
         <v>-44.8</v>
       </c>
-      <c r="C6" s="108"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="8">
         <v>42401</v>
       </c>
@@ -5102,7 +5420,7 @@
       <c r="B7" s="5">
         <v>-40.6</v>
       </c>
-      <c r="C7" s="108"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="8">
         <v>42402</v>
       </c>
@@ -5117,7 +5435,7 @@
       <c r="B8" s="5">
         <v>-48.6</v>
       </c>
-      <c r="C8" s="108"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="8">
         <v>42403</v>
       </c>
@@ -5132,7 +5450,7 @@
       <c r="B9" s="5">
         <v>-46.8</v>
       </c>
-      <c r="C9" s="108"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="9">
         <v>42404</v>
       </c>
@@ -5147,7 +5465,7 @@
       <c r="B10" s="5">
         <v>-40.5</v>
       </c>
-      <c r="C10" s="108"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="9">
         <v>42405</v>
       </c>
@@ -5162,7 +5480,7 @@
       <c r="B11" s="5">
         <v>-47.1</v>
       </c>
-      <c r="C11" s="108"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="9">
         <v>42406</v>
       </c>
@@ -5177,7 +5495,7 @@
       <c r="B12" s="5">
         <v>-47.8</v>
       </c>
-      <c r="C12" s="108"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="6">
         <v>42412</v>
       </c>
@@ -5192,7 +5510,7 @@
       <c r="B13" s="5">
         <v>-42.4</v>
       </c>
-      <c r="C13" s="108"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="6">
         <v>42413</v>
       </c>
@@ -5207,7 +5525,7 @@
       <c r="B14" s="5">
         <v>-47.5</v>
       </c>
-      <c r="C14" s="108"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="4">
         <v>42414</v>
       </c>
@@ -5222,7 +5540,7 @@
       <c r="B15" s="5">
         <v>-40</v>
       </c>
-      <c r="C15" s="108"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="4">
         <v>42415</v>
       </c>
@@ -5237,7 +5555,7 @@
       <c r="B16" s="5">
         <v>-40.1</v>
       </c>
-      <c r="C16" s="108"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="4">
         <v>42416</v>
       </c>
@@ -5252,7 +5570,7 @@
       <c r="B17" s="5">
         <v>-42.6</v>
       </c>
-      <c r="C17" s="108"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="4">
         <v>42417</v>
       </c>
@@ -5267,7 +5585,7 @@
       <c r="B18" s="5">
         <v>-41.1</v>
       </c>
-      <c r="C18" s="108"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="8">
         <v>42419</v>
       </c>
@@ -5282,7 +5600,7 @@
       <c r="B19" s="5">
         <v>-43.4</v>
       </c>
-      <c r="C19" s="108"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="8">
         <v>42420</v>
       </c>
@@ -5297,7 +5615,7 @@
       <c r="B20" s="5">
         <v>-46</v>
       </c>
-      <c r="C20" s="108"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="4">
         <v>42422</v>
       </c>
@@ -5312,7 +5630,7 @@
       <c r="B21" s="5">
         <v>-44.8</v>
       </c>
-      <c r="C21" s="108"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="4">
         <v>42423</v>
       </c>
@@ -5327,7 +5645,7 @@
       <c r="B22" s="5">
         <v>-42.9</v>
       </c>
-      <c r="C22" s="108"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="4">
         <v>42424</v>
       </c>
@@ -5342,7 +5660,7 @@
       <c r="B23" s="5">
         <v>-42.3</v>
       </c>
-      <c r="C23" s="108"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="4">
         <v>42425</v>
       </c>
@@ -5357,7 +5675,7 @@
       <c r="B24" s="5">
         <v>-44</v>
       </c>
-      <c r="C24" s="108"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="8">
         <v>42433</v>
       </c>
@@ -5372,7 +5690,7 @@
       <c r="B25" s="5">
         <v>-45.6</v>
       </c>
-      <c r="C25" s="108"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="8">
         <v>42434</v>
       </c>
@@ -5387,7 +5705,7 @@
       <c r="B26" s="5">
         <v>-47.7</v>
       </c>
-      <c r="C26" s="108"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="8">
         <v>42435</v>
       </c>
@@ -5402,7 +5720,7 @@
       <c r="B27" s="5">
         <v>-48.5</v>
       </c>
-      <c r="C27" s="108"/>
+      <c r="C27" s="73"/>
       <c r="D27" s="8">
         <v>42436</v>
       </c>
@@ -5417,7 +5735,7 @@
       <c r="B28" s="5">
         <v>-50</v>
       </c>
-      <c r="C28" s="108"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="9">
         <v>42437</v>
       </c>
@@ -5432,7 +5750,7 @@
       <c r="B29" s="5">
         <v>-48</v>
       </c>
-      <c r="C29" s="108"/>
+      <c r="C29" s="73"/>
       <c r="D29" s="9">
         <v>42438</v>
       </c>
@@ -5447,7 +5765,7 @@
       <c r="B30" s="5">
         <v>-49.3</v>
       </c>
-      <c r="C30" s="108"/>
+      <c r="C30" s="73"/>
       <c r="D30" s="9">
         <v>42439</v>
       </c>
@@ -5462,7 +5780,7 @@
       <c r="B31" s="5">
         <v>-49.1</v>
       </c>
-      <c r="C31" s="109"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="8">
         <v>42440</v>
       </c>
@@ -5786,137 +6104,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="61.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="124" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="126"/>
+      <c r="A1" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="80"/>
     </row>
     <row r="2" spans="1:3" ht="31.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="82"/>
+    </row>
+    <row r="3" spans="1:3" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="77"/>
+      <c r="B3" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="128" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="129"/>
-    </row>
-    <row r="3" spans="1:3" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="127"/>
-      <c r="B3" s="130" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="130" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="4" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="131">
+      <c r="A4" s="50">
         <v>45903</v>
       </c>
-      <c r="B4" s="113">
+      <c r="B4" s="38">
         <v>-4.3</v>
       </c>
-      <c r="C4" s="114">
+      <c r="C4" s="39">
         <v>-1.4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="131">
+      <c r="A5" s="50">
         <v>45904</v>
       </c>
-      <c r="B5" s="115">
+      <c r="B5" s="40">
         <v>-6</v>
       </c>
-      <c r="C5" s="116">
+      <c r="C5" s="41">
         <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="131">
+      <c r="A6" s="50">
         <v>45905</v>
       </c>
-      <c r="B6" s="115">
+      <c r="B6" s="40">
         <v>-5.3</v>
       </c>
-      <c r="C6" s="117">
+      <c r="C6" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="131">
+      <c r="A7" s="50">
         <v>45911</v>
       </c>
-      <c r="B7" s="118">
+      <c r="B7" s="43">
         <v>-2.7</v>
       </c>
-      <c r="C7" s="119">
+      <c r="C7" s="44">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="131">
+      <c r="A8" s="50">
         <v>45912</v>
       </c>
-      <c r="B8" s="113">
+      <c r="B8" s="38">
         <v>-5</v>
       </c>
-      <c r="C8" s="116">
+      <c r="C8" s="41">
         <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="131">
+      <c r="A9" s="50">
         <v>45913</v>
       </c>
-      <c r="B9" s="115">
+      <c r="B9" s="40">
         <v>-5.2</v>
       </c>
-      <c r="C9" s="119">
+      <c r="C9" s="44">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="131">
+      <c r="A10" s="50">
         <v>45914</v>
       </c>
-      <c r="B10" s="113">
+      <c r="B10" s="38">
         <v>-4.2</v>
       </c>
-      <c r="C10" s="116">
+      <c r="C10" s="41">
         <v>-0.9</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="131">
+      <c r="A11" s="50">
         <v>45915</v>
       </c>
-      <c r="B11" s="115">
+      <c r="B11" s="40">
         <v>-6</v>
       </c>
-      <c r="C11" s="120">
+      <c r="C11" s="45">
         <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="131">
+      <c r="A12" s="50">
         <v>45916</v>
       </c>
-      <c r="B12" s="121">
+      <c r="B12" s="46">
         <v>-3.8</v>
       </c>
-      <c r="C12" s="122">
+      <c r="C12" s="47">
         <v>4.2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="131">
+      <c r="A13" s="50">
         <v>45917</v>
       </c>
-      <c r="B13" s="118">
+      <c r="B13" s="43">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="C13" s="123"/>
+      <c r="C13" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/气象/双站寒冷PK.xlsx
+++ b/气象/双站寒冷PK.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC3C8F2-76D3-4500-8D17-A409E66462C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4643C0A5-547F-4D37-B457-0E2DB5E6D62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E01B588A-3742-4A11-89A2-9DFEDEEDD47B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{E01B588A-3742-4A11-89A2-9DFEDEEDD47B}"/>
   </bookViews>
   <sheets>
-    <sheet name="双城寒冷PK" sheetId="2" r:id="rId1"/>
-    <sheet name="站点存档" sheetId="4" r:id="rId2"/>
-    <sheet name="临时草稿" sheetId="3" r:id="rId3"/>
-    <sheet name="车臣乌拉2016" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="简版" sheetId="2" r:id="rId1"/>
+    <sheet name="简版存档" sheetId="4" r:id="rId2"/>
+    <sheet name="高阶" sheetId="6" r:id="rId3"/>
+    <sheet name="高阶存档" sheetId="7" r:id="rId4"/>
+    <sheet name="临时草稿" sheetId="3" r:id="rId5"/>
+    <sheet name="车臣乌拉2016" sheetId="1" r:id="rId6"/>
+    <sheet name="临时" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="83">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,6 +368,197 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>札幌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均
+气温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日
+最低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日
+最高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低
+气温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高
+气温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低
+昼温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高
+夜温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿勒泰 VS 札幌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冷PK(℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低
+月平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高
+月平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿勒泰51076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极端冷月均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极端热月均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低昼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常年平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常年低均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常年高均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>札幌47412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>极端</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单月</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>均温</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>极端</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单日</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>气温</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1991-2020</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>平均</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -377,7 +570,7 @@
     <numFmt numFmtId="178" formatCode="0.0"/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,8 +1026,85 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="44"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF92D050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFF72585"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FFF72585"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color rgb="FFFFFF3F"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="56">
+  <fills count="76">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1165,6 +1435,126 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4361EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3A0CA3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4576EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FD6E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3D26BA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF478BEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4C961"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF420CA6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4680EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9410AB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDC75A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA814A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9B11A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF500BAB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF790AB5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF3100"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF610AB1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5C0BAF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF530BAC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3D0CA4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -1424,7 +1814,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1578,6 +1968,174 @@
     <xf numFmtId="58" fontId="25" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="49" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="50" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="39" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="50" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="41" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="49" fillId="43" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="49" fillId="44" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="45" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="31" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="32" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="50" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="50" fillId="47" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="47" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="48" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="49" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="50" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="51" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="50" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="50" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="52" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="53" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="54" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="49" fillId="53" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="25" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="52" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="55" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1674,173 +2232,269 @@
     <xf numFmtId="0" fontId="45" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="49" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="50" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="39" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="50" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="41" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="49" fillId="43" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="49" fillId="44" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="45" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="31" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="32" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="50" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="50" fillId="47" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="47" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="48" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="49" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="50" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="51" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="50" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="50" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="52" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="53" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="54" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="49" fillId="53" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="25" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="52" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="55" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="31" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="58" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="59" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="48" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="60" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="57" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="61" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="61" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="61" fillId="62" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="32" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="39" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="61" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="47" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="56" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="63" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="56" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="51" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="64" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="49" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="61" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="61" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="65" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="66" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="67" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="68" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="61" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="44" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="69" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="70" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="41" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="61" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="71" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="72" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="72" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="73" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="74" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="75" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="61" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2393,8 +3047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB24D0A-E845-464F-9F9E-69C549F3BD1E}">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2405,15 +3059,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
       <c r="I1" s="26" t="s">
         <v>35</v>
       </c>
@@ -2458,58 +3112,58 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="55"/>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="111"/>
+      <c r="B2" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="58" t="s">
+      <c r="C2" s="110"/>
+      <c r="D2" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="62" t="s">
+      <c r="E2" s="115"/>
+      <c r="F2" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="63"/>
+      <c r="G2" s="119"/>
       <c r="I2" s="28" cm="1">
         <f t="array" ref="I2:I14">TRANSPOSE(J1:V1)</f>
         <v>5.4</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="56"/>
+      <c r="A3" s="112"/>
       <c r="B3" s="31" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="121"/>
       <c r="I3" s="28">
         <v>6.1</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="57"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="51" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="52" t="s">
         <v>51</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="53" t="s">
         <v>51</v>
       </c>
       <c r="I4" s="27">
@@ -2520,22 +3174,22 @@
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="86">
+      <c r="B5" s="54">
         <v>-2.7</v>
       </c>
-      <c r="C5" s="87">
+      <c r="C5" s="55">
         <v>3.1</v>
       </c>
-      <c r="D5" s="106">
+      <c r="D5" s="74">
         <v>-22.8</v>
       </c>
-      <c r="E5" s="107">
+      <c r="E5" s="75">
         <v>-25.6</v>
       </c>
-      <c r="F5" s="124">
+      <c r="F5" s="92">
         <v>14.3</v>
       </c>
-      <c r="G5" s="125">
+      <c r="G5" s="93">
         <v>26.1</v>
       </c>
       <c r="I5" s="27">
@@ -2546,22 +3200,22 @@
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="88">
+      <c r="B6" s="56">
         <v>0.6</v>
       </c>
-      <c r="C6" s="89">
+      <c r="C6" s="57">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D6" s="108">
+      <c r="D6" s="76">
         <v>-27.4</v>
       </c>
-      <c r="E6" s="109">
+      <c r="E6" s="77">
         <v>-26.1</v>
       </c>
-      <c r="F6" s="96">
+      <c r="F6" s="64">
         <v>25.6</v>
       </c>
-      <c r="G6" s="126">
+      <c r="G6" s="94">
         <v>28.9</v>
       </c>
       <c r="I6" s="27">
@@ -2572,22 +3226,22 @@
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="90">
+      <c r="B7" s="58">
         <v>7.5</v>
       </c>
-      <c r="C7" s="91">
+      <c r="C7" s="59">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D7" s="110">
+      <c r="D7" s="78">
         <v>-15</v>
       </c>
-      <c r="E7" s="111">
+      <c r="E7" s="79">
         <v>-15.6</v>
       </c>
-      <c r="F7" s="127">
+      <c r="F7" s="95">
         <v>29.5</v>
       </c>
-      <c r="G7" s="128">
+      <c r="G7" s="96">
         <v>33.9</v>
       </c>
       <c r="I7" s="27">
@@ -2598,22 +3252,22 @@
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="92">
+      <c r="B8" s="60">
         <v>15.1</v>
       </c>
-      <c r="C8" s="93">
+      <c r="C8" s="61">
         <v>14.6</v>
       </c>
-      <c r="D8" s="112">
+      <c r="D8" s="80">
         <v>-3.2</v>
       </c>
-      <c r="E8" s="113">
+      <c r="E8" s="81">
         <v>-9.4</v>
       </c>
-      <c r="F8" s="128">
+      <c r="F8" s="96">
         <v>33.5</v>
       </c>
-      <c r="G8" s="129">
+      <c r="G8" s="97">
         <v>35</v>
       </c>
       <c r="I8" s="27">
@@ -2624,22 +3278,22 @@
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="94">
+      <c r="B9" s="62">
         <v>21.3</v>
       </c>
-      <c r="C9" s="95">
+      <c r="C9" s="63">
         <v>19.600000000000001</v>
       </c>
-      <c r="D9" s="114">
+      <c r="D9" s="82">
         <v>2.5</v>
       </c>
-      <c r="E9" s="88">
+      <c r="E9" s="56">
         <v>0.6</v>
       </c>
-      <c r="F9" s="130">
+      <c r="F9" s="98">
         <v>41.1</v>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="99">
         <v>37.200000000000003</v>
       </c>
       <c r="I9" s="27">
@@ -2650,22 +3304,22 @@
       <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="96">
+      <c r="B10" s="64">
         <v>25.3</v>
       </c>
-      <c r="C10" s="97">
+      <c r="C10" s="65">
         <v>24.6</v>
       </c>
-      <c r="D10" s="104">
+      <c r="D10" s="72">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E10" s="115">
+      <c r="E10" s="83">
         <v>6.1</v>
       </c>
-      <c r="F10" s="130">
+      <c r="F10" s="98">
         <v>41.1</v>
       </c>
-      <c r="G10" s="132">
+      <c r="G10" s="100">
         <v>40</v>
       </c>
       <c r="I10" s="27">
@@ -2676,22 +3330,22 @@
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="98">
+      <c r="B11" s="66">
         <v>27.2</v>
       </c>
-      <c r="C11" s="98">
+      <c r="C11" s="66">
         <v>27.2</v>
       </c>
-      <c r="D11" s="116">
+      <c r="D11" s="84">
         <v>15.3</v>
       </c>
-      <c r="E11" s="117">
+      <c r="E11" s="85">
         <v>11.1</v>
       </c>
-      <c r="F11" s="133">
+      <c r="F11" s="101">
         <v>41.9</v>
       </c>
-      <c r="G11" s="133">
+      <c r="G11" s="101">
         <v>41.1</v>
       </c>
       <c r="I11" s="27">
@@ -2702,22 +3356,22 @@
       <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="99">
+      <c r="B12" s="67">
         <v>26.1</v>
       </c>
-      <c r="C12" s="99">
+      <c r="C12" s="67">
         <v>26.3</v>
       </c>
-      <c r="D12" s="118">
+      <c r="D12" s="86">
         <v>11.4</v>
       </c>
-      <c r="E12" s="104">
+      <c r="E12" s="72">
         <v>9.4</v>
       </c>
-      <c r="F12" s="134">
+      <c r="F12" s="102">
         <v>38.299999999999997</v>
       </c>
-      <c r="G12" s="133">
+      <c r="G12" s="101">
         <v>41.1</v>
       </c>
       <c r="I12" s="27">
@@ -2728,22 +3382,22 @@
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="94">
+      <c r="B13" s="62">
         <v>21.2</v>
       </c>
-      <c r="C13" s="100">
+      <c r="C13" s="68">
         <v>22.4</v>
       </c>
-      <c r="D13" s="119">
+      <c r="D13" s="87">
         <v>3.7</v>
       </c>
-      <c r="E13" s="114">
+      <c r="E13" s="82">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F13" s="129">
+      <c r="F13" s="97">
         <v>35.9</v>
       </c>
-      <c r="G13" s="132">
+      <c r="G13" s="100">
         <v>40</v>
       </c>
       <c r="I13" s="27">
@@ -2754,22 +3408,22 @@
       <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="101">
+      <c r="B14" s="69">
         <v>13.8</v>
       </c>
-      <c r="C14" s="102">
+      <c r="C14" s="70">
         <v>16</v>
       </c>
-      <c r="D14" s="112">
+      <c r="D14" s="80">
         <v>-3.5</v>
       </c>
-      <c r="E14" s="112">
+      <c r="E14" s="80">
         <v>-3.3</v>
       </c>
-      <c r="F14" s="135">
+      <c r="F14" s="103">
         <v>31</v>
       </c>
-      <c r="G14" s="136">
+      <c r="G14" s="104">
         <v>36.700000000000003</v>
       </c>
       <c r="I14" s="27">
@@ -2780,22 +3434,22 @@
       <c r="A15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="103">
+      <c r="B15" s="71">
         <v>5.2</v>
       </c>
-      <c r="C15" s="104">
+      <c r="C15" s="72">
         <v>9.9</v>
       </c>
-      <c r="D15" s="120">
+      <c r="D15" s="88">
         <v>-12.3</v>
       </c>
-      <c r="E15" s="121">
+      <c r="E15" s="89">
         <v>-11.7</v>
       </c>
-      <c r="F15" s="137">
+      <c r="F15" s="105">
         <v>23.3</v>
       </c>
-      <c r="G15" s="138">
+      <c r="G15" s="106">
         <v>30</v>
       </c>
       <c r="I15" s="27"/>
@@ -2804,22 +3458,22 @@
       <c r="A16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="105">
+      <c r="B16" s="73">
         <v>-1</v>
       </c>
-      <c r="C16" s="103">
+      <c r="C16" s="71">
         <v>5.4</v>
       </c>
-      <c r="D16" s="122">
+      <c r="D16" s="90">
         <v>-18.3</v>
       </c>
-      <c r="E16" s="123">
+      <c r="E16" s="91">
         <v>-25</v>
       </c>
-      <c r="F16" s="95">
+      <c r="F16" s="63">
         <v>19.5</v>
       </c>
-      <c r="G16" s="125">
+      <c r="G16" s="93">
         <v>26.1</v>
       </c>
     </row>
@@ -2827,22 +3481,22 @@
       <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="101">
+      <c r="B17" s="69">
         <v>13.3</v>
       </c>
-      <c r="C17" s="92">
+      <c r="C17" s="60">
         <v>15.2</v>
       </c>
-      <c r="D17" s="108">
+      <c r="D17" s="76">
         <v>-27.4</v>
       </c>
-      <c r="E17" s="109">
+      <c r="E17" s="77">
         <v>-26.1</v>
       </c>
-      <c r="F17" s="133">
+      <c r="F17" s="101">
         <v>41.9</v>
       </c>
-      <c r="G17" s="133">
+      <c r="G17" s="101">
         <v>41.1</v>
       </c>
     </row>
@@ -2873,10 +3527,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="14" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="69"/>
+      <c r="B1" s="125"/>
       <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
@@ -2928,7 +3582,7 @@
       <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="122" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -2981,7 +3635,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="66"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="19" t="s">
         <v>20</v>
       </c>
@@ -3032,7 +3686,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="66"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="19" t="s">
         <v>21</v>
       </c>
@@ -3083,7 +3737,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="66"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="19" t="s">
         <v>22</v>
       </c>
@@ -3134,7 +3788,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="66"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="19" t="s">
         <v>23</v>
       </c>
@@ -3185,7 +3839,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="66"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="19" t="s">
         <v>24</v>
       </c>
@@ -3236,7 +3890,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="66"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="19" t="s">
         <v>25</v>
       </c>
@@ -3287,7 +3941,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="66"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="19" t="s">
         <v>26</v>
       </c>
@@ -3338,7 +3992,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="66"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="19" t="s">
         <v>12</v>
       </c>
@@ -3389,7 +4043,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="66"/>
+      <c r="A12" s="122"/>
       <c r="B12" s="19" t="s">
         <v>13</v>
       </c>
@@ -3440,7 +4094,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="66"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
@@ -3491,7 +4145,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="66"/>
+      <c r="A14" s="122"/>
       <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
@@ -3542,7 +4196,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="66"/>
+      <c r="A15" s="122"/>
       <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
@@ -3597,7 +4251,7 @@
       <c r="B16" s="20"/>
     </row>
     <row r="17" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="123" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -3650,7 +4304,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="67"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="21" t="s">
         <v>20</v>
       </c>
@@ -3701,7 +4355,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="67"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="21" t="s">
         <v>21</v>
       </c>
@@ -3752,7 +4406,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="67"/>
+      <c r="A20" s="123"/>
       <c r="B20" s="21" t="s">
         <v>22</v>
       </c>
@@ -3803,7 +4457,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="67"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="21" t="s">
         <v>23</v>
       </c>
@@ -3854,7 +4508,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="67"/>
+      <c r="A22" s="123"/>
       <c r="B22" s="21" t="s">
         <v>24</v>
       </c>
@@ -3905,7 +4559,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="67"/>
+      <c r="A23" s="123"/>
       <c r="B23" s="21" t="s">
         <v>25</v>
       </c>
@@ -3956,7 +4610,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="67"/>
+      <c r="A24" s="123"/>
       <c r="B24" s="21" t="s">
         <v>26</v>
       </c>
@@ -4007,7 +4661,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="67"/>
+      <c r="A25" s="123"/>
       <c r="B25" s="21" t="s">
         <v>12</v>
       </c>
@@ -4058,7 +4712,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="67"/>
+      <c r="A26" s="123"/>
       <c r="B26" s="21" t="s">
         <v>13</v>
       </c>
@@ -4109,7 +4763,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="67"/>
+      <c r="A27" s="123"/>
       <c r="B27" s="21" t="s">
         <v>14</v>
       </c>
@@ -4160,7 +4814,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="67"/>
+      <c r="A28" s="123"/>
       <c r="B28" s="21" t="s">
         <v>15</v>
       </c>
@@ -4211,7 +4865,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="67"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="21" t="s">
         <v>16</v>
       </c>
@@ -4266,7 +4920,7 @@
       <c r="B30" s="22"/>
     </row>
     <row r="31" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="124" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -4319,7 +4973,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="68"/>
+      <c r="A32" s="124"/>
       <c r="B32" s="25" t="s">
         <v>20</v>
       </c>
@@ -4370,7 +5024,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="68"/>
+      <c r="A33" s="124"/>
       <c r="B33" s="25" t="s">
         <v>21</v>
       </c>
@@ -4421,7 +5075,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="68"/>
+      <c r="A34" s="124"/>
       <c r="B34" s="25" t="s">
         <v>22</v>
       </c>
@@ -4472,7 +5126,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="68"/>
+      <c r="A35" s="124"/>
       <c r="B35" s="25" t="s">
         <v>23</v>
       </c>
@@ -4523,7 +5177,7 @@
       </c>
     </row>
     <row r="36" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="68"/>
+      <c r="A36" s="124"/>
       <c r="B36" s="25" t="s">
         <v>24</v>
       </c>
@@ -4574,7 +5228,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="68"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="25" t="s">
         <v>25</v>
       </c>
@@ -4625,7 +5279,7 @@
       </c>
     </row>
     <row r="38" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="68"/>
+      <c r="A38" s="124"/>
       <c r="B38" s="25" t="s">
         <v>26</v>
       </c>
@@ -4676,7 +5330,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="68"/>
+      <c r="A39" s="124"/>
       <c r="B39" s="25" t="s">
         <v>12</v>
       </c>
@@ -4727,7 +5381,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="68"/>
+      <c r="A40" s="124"/>
       <c r="B40" s="25" t="s">
         <v>13</v>
       </c>
@@ -4778,7 +5432,7 @@
       </c>
     </row>
     <row r="41" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="68"/>
+      <c r="A41" s="124"/>
       <c r="B41" s="25" t="s">
         <v>14</v>
       </c>
@@ -4829,7 +5483,7 @@
       </c>
     </row>
     <row r="42" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="68"/>
+      <c r="A42" s="124"/>
       <c r="B42" s="25" t="s">
         <v>15</v>
       </c>
@@ -4880,7 +5534,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="68"/>
+      <c r="A43" s="124"/>
       <c r="B43" s="25" t="s">
         <v>16</v>
       </c>
@@ -4943,6 +5597,1123 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFA9B50-D2A9-4DE5-A2DF-68E680391ADE}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.59765625" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" style="144" customWidth="1"/>
+    <col min="3" max="11" width="13.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="145" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+    </row>
+    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="150"/>
+      <c r="C2" s="140" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="139" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+    </row>
+    <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="151"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="146" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="147" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="148" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="147" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="148" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="147" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="148" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="147" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="148" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="224" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="222" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="154">
+        <v>-3.9</v>
+      </c>
+      <c r="D4" s="155">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="E4" s="157">
+        <v>1.4</v>
+      </c>
+      <c r="F4" s="180">
+        <v>-10.8</v>
+      </c>
+      <c r="G4" s="157">
+        <v>1.6</v>
+      </c>
+      <c r="H4" s="194">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="I4" s="195">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J4" s="212">
+        <v>-32.6</v>
+      </c>
+      <c r="K4" s="181">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="224"/>
+      <c r="B5" s="223" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="156">
+        <v>5.2</v>
+      </c>
+      <c r="D5" s="157">
+        <v>1.6</v>
+      </c>
+      <c r="E5" s="170">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F5" s="160">
+        <v>-0.1</v>
+      </c>
+      <c r="G5" s="181">
+        <v>7.5</v>
+      </c>
+      <c r="H5" s="196">
+        <v>-15.5</v>
+      </c>
+      <c r="I5" s="197">
+        <v>22.4</v>
+      </c>
+      <c r="J5" s="213">
+        <v>-4.7</v>
+      </c>
+      <c r="K5" s="179">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="225" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="222" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="158">
+        <v>-12.8</v>
+      </c>
+      <c r="D6" s="159">
+        <v>-17.7</v>
+      </c>
+      <c r="E6" s="163">
+        <v>-7</v>
+      </c>
+      <c r="F6" s="182">
+        <v>-23.7</v>
+      </c>
+      <c r="G6" s="154">
+        <v>-3.9</v>
+      </c>
+      <c r="H6" s="198">
+        <v>-43.5</v>
+      </c>
+      <c r="I6" s="199">
+        <v>6.6</v>
+      </c>
+      <c r="J6" s="214">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="K6" s="174">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="225"/>
+      <c r="B7" s="223" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="160">
+        <v>-0.9</v>
+      </c>
+      <c r="D7" s="154">
+        <v>-4</v>
+      </c>
+      <c r="E7" s="171">
+        <v>2</v>
+      </c>
+      <c r="F7" s="163">
+        <v>-6.5</v>
+      </c>
+      <c r="G7" s="157">
+        <v>1.9</v>
+      </c>
+      <c r="H7" s="186">
+        <v>-24.7</v>
+      </c>
+      <c r="I7" s="200">
+        <v>14.8</v>
+      </c>
+      <c r="J7" s="188">
+        <v>-11.7</v>
+      </c>
+      <c r="K7" s="169">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="226" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="222" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="161">
+        <v>-15.8</v>
+      </c>
+      <c r="D8" s="162">
+        <v>-20.9</v>
+      </c>
+      <c r="E8" s="172">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="F8" s="183">
+        <v>-25.1</v>
+      </c>
+      <c r="G8" s="184">
+        <v>-10.3</v>
+      </c>
+      <c r="H8" s="201">
+        <v>-41.2</v>
+      </c>
+      <c r="I8" s="202">
+        <v>5.3</v>
+      </c>
+      <c r="J8" s="215">
+        <v>-31.6</v>
+      </c>
+      <c r="K8" s="216">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="226"/>
+      <c r="B9" s="223" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="154">
+        <v>-3.2</v>
+      </c>
+      <c r="D9" s="163">
+        <v>-6.4</v>
+      </c>
+      <c r="E9" s="160">
+        <v>-0.4</v>
+      </c>
+      <c r="F9" s="180">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="G9" s="185">
+        <v>-1.2</v>
+      </c>
+      <c r="H9" s="203">
+        <v>-27</v>
+      </c>
+      <c r="I9" s="178">
+        <v>11.2</v>
+      </c>
+      <c r="J9" s="180">
+        <v>-11</v>
+      </c>
+      <c r="K9" s="189">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="225" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="222" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="158">
+        <v>-12.4</v>
+      </c>
+      <c r="D10" s="159">
+        <v>-17.8</v>
+      </c>
+      <c r="E10" s="173">
+        <v>-5.7</v>
+      </c>
+      <c r="F10" s="186">
+        <v>-24.9</v>
+      </c>
+      <c r="G10" s="155">
+        <v>-8.1</v>
+      </c>
+      <c r="H10" s="201">
+        <v>-41.5</v>
+      </c>
+      <c r="I10" s="170">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J10" s="217">
+        <v>-29.3</v>
+      </c>
+      <c r="K10" s="185">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="225"/>
+      <c r="B11" s="223" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="164">
+        <v>-2.7</v>
+      </c>
+      <c r="D11" s="163">
+        <v>-6.2</v>
+      </c>
+      <c r="E11" s="174">
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="187">
+        <v>-7.9</v>
+      </c>
+      <c r="G11" s="160">
+        <v>-0.6</v>
+      </c>
+      <c r="H11" s="204">
+        <v>-28.5</v>
+      </c>
+      <c r="I11" s="179">
+        <v>13.9</v>
+      </c>
+      <c r="J11" s="180">
+        <v>-10.8</v>
+      </c>
+      <c r="K11" s="171">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="224" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="222" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="154">
+        <v>-3.5</v>
+      </c>
+      <c r="D12" s="155">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="E12" s="171">
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="188">
+        <v>-11.4</v>
+      </c>
+      <c r="G12" s="189">
+        <v>3.6</v>
+      </c>
+      <c r="H12" s="205">
+        <v>-36.4</v>
+      </c>
+      <c r="I12" s="206">
+        <v>23.1</v>
+      </c>
+      <c r="J12" s="218">
+        <v>-21.4</v>
+      </c>
+      <c r="K12" s="178">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="224"/>
+      <c r="B13" s="223" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="157">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D13" s="164">
+        <v>-2.4</v>
+      </c>
+      <c r="E13" s="175">
+        <v>4.5</v>
+      </c>
+      <c r="F13" s="173">
+        <v>-5.6</v>
+      </c>
+      <c r="G13" s="175">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H13" s="207">
+        <v>-22.6</v>
+      </c>
+      <c r="I13" s="208">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="J13" s="155">
+        <v>-8.6</v>
+      </c>
+      <c r="K13" s="169">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="221" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="222" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="165">
+        <v>21.9</v>
+      </c>
+      <c r="D14" s="166">
+        <v>15.1</v>
+      </c>
+      <c r="E14" s="176">
+        <v>28.5</v>
+      </c>
+      <c r="F14" s="190">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G14" s="191">
+        <v>24.9</v>
+      </c>
+      <c r="H14" s="209">
+        <v>6</v>
+      </c>
+      <c r="I14" s="210">
+        <v>39.5</v>
+      </c>
+      <c r="J14" s="168">
+        <v>17.3</v>
+      </c>
+      <c r="K14" s="219">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="221"/>
+      <c r="B15" s="223" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="167">
+        <v>21.1</v>
+      </c>
+      <c r="D15" s="168">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E15" s="177">
+        <v>25.4</v>
+      </c>
+      <c r="F15" s="192">
+        <v>16</v>
+      </c>
+      <c r="G15" s="177">
+        <v>25.8</v>
+      </c>
+      <c r="H15" s="156">
+        <v>5.2</v>
+      </c>
+      <c r="I15" s="211">
+        <v>36</v>
+      </c>
+      <c r="J15" s="179">
+        <v>13.5</v>
+      </c>
+      <c r="K15" s="220">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="143" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="222" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="156">
+        <v>5</v>
+      </c>
+      <c r="D16" s="160">
+        <v>-0.8</v>
+      </c>
+      <c r="E16" s="178">
+        <v>11.3</v>
+      </c>
+      <c r="F16" s="183">
+        <v>-25.1</v>
+      </c>
+      <c r="G16" s="191">
+        <v>24.9</v>
+      </c>
+      <c r="H16" s="198">
+        <v>-43.5</v>
+      </c>
+      <c r="I16" s="210">
+        <v>39.5</v>
+      </c>
+      <c r="J16" s="214">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="K16" s="219">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="143"/>
+      <c r="B17" s="223" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="169">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D17" s="156">
+        <v>5.7</v>
+      </c>
+      <c r="E17" s="179">
+        <v>13.1</v>
+      </c>
+      <c r="F17" s="180">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="G17" s="193">
+        <v>26.7</v>
+      </c>
+      <c r="H17" s="204">
+        <v>-28.5</v>
+      </c>
+      <c r="I17" s="211">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="J17" s="188">
+        <v>-11.7</v>
+      </c>
+      <c r="K17" s="220">
+        <v>27.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D29C00-D786-416E-9666-6B64D7F817A9}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="6" width="12.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="153" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <v>-3.9</v>
+      </c>
+      <c r="C3">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="D3">
+        <v>1.4</v>
+      </c>
+      <c r="E3">
+        <v>-10.8</v>
+      </c>
+      <c r="F3">
+        <v>1.6</v>
+      </c>
+      <c r="G3">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="H3">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="I3">
+        <v>-32.6</v>
+      </c>
+      <c r="J3">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>-12.8</v>
+      </c>
+      <c r="C4">
+        <v>-17.7</v>
+      </c>
+      <c r="D4">
+        <v>-7</v>
+      </c>
+      <c r="E4">
+        <v>-23.7</v>
+      </c>
+      <c r="F4">
+        <v>-3.9</v>
+      </c>
+      <c r="G4">
+        <v>-43.5</v>
+      </c>
+      <c r="H4">
+        <v>6.6</v>
+      </c>
+      <c r="I4">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="J4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-15.8</v>
+      </c>
+      <c r="C5">
+        <v>-20.9</v>
+      </c>
+      <c r="D5">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="E5">
+        <v>-25.1</v>
+      </c>
+      <c r="F5">
+        <v>-10.3</v>
+      </c>
+      <c r="G5">
+        <v>-41.2</v>
+      </c>
+      <c r="H5">
+        <v>5.3</v>
+      </c>
+      <c r="I5">
+        <v>-31.6</v>
+      </c>
+      <c r="J5">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>-12.4</v>
+      </c>
+      <c r="C6">
+        <v>-17.8</v>
+      </c>
+      <c r="D6">
+        <v>-5.7</v>
+      </c>
+      <c r="E6">
+        <v>-24.9</v>
+      </c>
+      <c r="F6">
+        <v>-8.1</v>
+      </c>
+      <c r="G6">
+        <v>-41.5</v>
+      </c>
+      <c r="H6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I6">
+        <v>-29.3</v>
+      </c>
+      <c r="J6">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>-3.5</v>
+      </c>
+      <c r="C7">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="D7">
+        <v>2.5</v>
+      </c>
+      <c r="E7">
+        <v>-11.4</v>
+      </c>
+      <c r="F7">
+        <v>3.6</v>
+      </c>
+      <c r="G7">
+        <v>-36.4</v>
+      </c>
+      <c r="H7">
+        <v>23.1</v>
+      </c>
+      <c r="I7">
+        <v>-21.4</v>
+      </c>
+      <c r="J7">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>21.9</v>
+      </c>
+      <c r="C8">
+        <v>15.1</v>
+      </c>
+      <c r="D8">
+        <v>28.5</v>
+      </c>
+      <c r="E8">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F8">
+        <v>24.9</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>39.5</v>
+      </c>
+      <c r="I8">
+        <v>17.3</v>
+      </c>
+      <c r="J8">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>-0.8</v>
+      </c>
+      <c r="D9">
+        <v>11.3</v>
+      </c>
+      <c r="E9">
+        <v>-25.1</v>
+      </c>
+      <c r="F9">
+        <v>24.9</v>
+      </c>
+      <c r="G9">
+        <v>-43.5</v>
+      </c>
+      <c r="H9">
+        <v>39.5</v>
+      </c>
+      <c r="I9">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="J9">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="153" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <v>5.2</v>
+      </c>
+      <c r="C13">
+        <v>1.6</v>
+      </c>
+      <c r="D13">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E13">
+        <v>-0.1</v>
+      </c>
+      <c r="F13">
+        <v>7.5</v>
+      </c>
+      <c r="G13">
+        <v>-15.5</v>
+      </c>
+      <c r="H13">
+        <v>22.4</v>
+      </c>
+      <c r="I13">
+        <v>-4.7</v>
+      </c>
+      <c r="J13">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>-0.9</v>
+      </c>
+      <c r="C14">
+        <v>-4</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>-6.5</v>
+      </c>
+      <c r="F14">
+        <v>1.9</v>
+      </c>
+      <c r="G14">
+        <v>-24.7</v>
+      </c>
+      <c r="H14">
+        <v>14.8</v>
+      </c>
+      <c r="I14">
+        <v>-11.7</v>
+      </c>
+      <c r="J14">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>-3.2</v>
+      </c>
+      <c r="C15">
+        <v>-6.4</v>
+      </c>
+      <c r="D15">
+        <v>-0.4</v>
+      </c>
+      <c r="E15">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="F15">
+        <v>-1.2</v>
+      </c>
+      <c r="G15">
+        <v>-27</v>
+      </c>
+      <c r="H15">
+        <v>11.2</v>
+      </c>
+      <c r="I15">
+        <v>-11</v>
+      </c>
+      <c r="J15">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>-2.7</v>
+      </c>
+      <c r="C16">
+        <v>-6.2</v>
+      </c>
+      <c r="D16">
+        <v>0.4</v>
+      </c>
+      <c r="E16">
+        <v>-7.9</v>
+      </c>
+      <c r="F16">
+        <v>-0.6</v>
+      </c>
+      <c r="G16">
+        <v>-28.5</v>
+      </c>
+      <c r="H16">
+        <v>13.9</v>
+      </c>
+      <c r="I16">
+        <v>-10.8</v>
+      </c>
+      <c r="J16">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C17">
+        <v>-2.4</v>
+      </c>
+      <c r="D17">
+        <v>4.5</v>
+      </c>
+      <c r="E17">
+        <v>-5.6</v>
+      </c>
+      <c r="F17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G17">
+        <v>-22.6</v>
+      </c>
+      <c r="H17">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="I17">
+        <v>-8.6</v>
+      </c>
+      <c r="J17">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>21.1</v>
+      </c>
+      <c r="C18">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D18">
+        <v>25.4</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>25.8</v>
+      </c>
+      <c r="G18">
+        <v>5.2</v>
+      </c>
+      <c r="H18">
+        <v>36</v>
+      </c>
+      <c r="I18">
+        <v>13.5</v>
+      </c>
+      <c r="J18">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C19">
+        <v>5.7</v>
+      </c>
+      <c r="D19">
+        <v>13.1</v>
+      </c>
+      <c r="E19">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="F19">
+        <v>26.7</v>
+      </c>
+      <c r="G19">
+        <v>-28.5</v>
+      </c>
+      <c r="H19">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="I19">
+        <v>-11.7</v>
+      </c>
+      <c r="J19">
+        <v>27.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3E905B-CA4A-4CD6-9044-5006DDE03841}">
   <dimension ref="A1:AG32"/>
   <sheetViews>
@@ -5316,7 +7087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C07DFB-DA3D-4FD8-8738-18B1985FD85B}">
   <dimension ref="A1:E97"/>
   <sheetViews>
@@ -5334,18 +7105,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
     </row>
     <row r="2" spans="1:5" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="72"/>
+      <c r="A2" s="131"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="128"/>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5360,7 +7131,7 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
+      <c r="C3" s="129"/>
       <c r="D3" s="9">
         <v>42398</v>
       </c>
@@ -5375,7 +7146,7 @@
       <c r="B4" s="5">
         <v>-42.1</v>
       </c>
-      <c r="C4" s="73"/>
+      <c r="C4" s="129"/>
       <c r="D4" s="9">
         <v>42399</v>
       </c>
@@ -5390,7 +7161,7 @@
       <c r="B5" s="5">
         <v>-40.5</v>
       </c>
-      <c r="C5" s="73"/>
+      <c r="C5" s="129"/>
       <c r="D5" s="9">
         <v>42400</v>
       </c>
@@ -5405,7 +7176,7 @@
       <c r="B6" s="5">
         <v>-44.8</v>
       </c>
-      <c r="C6" s="73"/>
+      <c r="C6" s="129"/>
       <c r="D6" s="8">
         <v>42401</v>
       </c>
@@ -5420,7 +7191,7 @@
       <c r="B7" s="5">
         <v>-40.6</v>
       </c>
-      <c r="C7" s="73"/>
+      <c r="C7" s="129"/>
       <c r="D7" s="8">
         <v>42402</v>
       </c>
@@ -5435,7 +7206,7 @@
       <c r="B8" s="5">
         <v>-48.6</v>
       </c>
-      <c r="C8" s="73"/>
+      <c r="C8" s="129"/>
       <c r="D8" s="8">
         <v>42403</v>
       </c>
@@ -5450,7 +7221,7 @@
       <c r="B9" s="5">
         <v>-46.8</v>
       </c>
-      <c r="C9" s="73"/>
+      <c r="C9" s="129"/>
       <c r="D9" s="9">
         <v>42404</v>
       </c>
@@ -5465,7 +7236,7 @@
       <c r="B10" s="5">
         <v>-40.5</v>
       </c>
-      <c r="C10" s="73"/>
+      <c r="C10" s="129"/>
       <c r="D10" s="9">
         <v>42405</v>
       </c>
@@ -5480,7 +7251,7 @@
       <c r="B11" s="5">
         <v>-47.1</v>
       </c>
-      <c r="C11" s="73"/>
+      <c r="C11" s="129"/>
       <c r="D11" s="9">
         <v>42406</v>
       </c>
@@ -5495,7 +7266,7 @@
       <c r="B12" s="5">
         <v>-47.8</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="129"/>
       <c r="D12" s="6">
         <v>42412</v>
       </c>
@@ -5510,7 +7281,7 @@
       <c r="B13" s="5">
         <v>-42.4</v>
       </c>
-      <c r="C13" s="73"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="6">
         <v>42413</v>
       </c>
@@ -5525,7 +7296,7 @@
       <c r="B14" s="5">
         <v>-47.5</v>
       </c>
-      <c r="C14" s="73"/>
+      <c r="C14" s="129"/>
       <c r="D14" s="4">
         <v>42414</v>
       </c>
@@ -5540,7 +7311,7 @@
       <c r="B15" s="5">
         <v>-40</v>
       </c>
-      <c r="C15" s="73"/>
+      <c r="C15" s="129"/>
       <c r="D15" s="4">
         <v>42415</v>
       </c>
@@ -5555,7 +7326,7 @@
       <c r="B16" s="5">
         <v>-40.1</v>
       </c>
-      <c r="C16" s="73"/>
+      <c r="C16" s="129"/>
       <c r="D16" s="4">
         <v>42416</v>
       </c>
@@ -5570,7 +7341,7 @@
       <c r="B17" s="5">
         <v>-42.6</v>
       </c>
-      <c r="C17" s="73"/>
+      <c r="C17" s="129"/>
       <c r="D17" s="4">
         <v>42417</v>
       </c>
@@ -5585,7 +7356,7 @@
       <c r="B18" s="5">
         <v>-41.1</v>
       </c>
-      <c r="C18" s="73"/>
+      <c r="C18" s="129"/>
       <c r="D18" s="8">
         <v>42419</v>
       </c>
@@ -5600,7 +7371,7 @@
       <c r="B19" s="5">
         <v>-43.4</v>
       </c>
-      <c r="C19" s="73"/>
+      <c r="C19" s="129"/>
       <c r="D19" s="8">
         <v>42420</v>
       </c>
@@ -5615,7 +7386,7 @@
       <c r="B20" s="5">
         <v>-46</v>
       </c>
-      <c r="C20" s="73"/>
+      <c r="C20" s="129"/>
       <c r="D20" s="4">
         <v>42422</v>
       </c>
@@ -5630,7 +7401,7 @@
       <c r="B21" s="5">
         <v>-44.8</v>
       </c>
-      <c r="C21" s="73"/>
+      <c r="C21" s="129"/>
       <c r="D21" s="4">
         <v>42423</v>
       </c>
@@ -5645,7 +7416,7 @@
       <c r="B22" s="5">
         <v>-42.9</v>
       </c>
-      <c r="C22" s="73"/>
+      <c r="C22" s="129"/>
       <c r="D22" s="4">
         <v>42424</v>
       </c>
@@ -5660,7 +7431,7 @@
       <c r="B23" s="5">
         <v>-42.3</v>
       </c>
-      <c r="C23" s="73"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="4">
         <v>42425</v>
       </c>
@@ -5675,7 +7446,7 @@
       <c r="B24" s="5">
         <v>-44</v>
       </c>
-      <c r="C24" s="73"/>
+      <c r="C24" s="129"/>
       <c r="D24" s="8">
         <v>42433</v>
       </c>
@@ -5690,7 +7461,7 @@
       <c r="B25" s="5">
         <v>-45.6</v>
       </c>
-      <c r="C25" s="73"/>
+      <c r="C25" s="129"/>
       <c r="D25" s="8">
         <v>42434</v>
       </c>
@@ -5705,7 +7476,7 @@
       <c r="B26" s="5">
         <v>-47.7</v>
       </c>
-      <c r="C26" s="73"/>
+      <c r="C26" s="129"/>
       <c r="D26" s="8">
         <v>42435</v>
       </c>
@@ -5720,7 +7491,7 @@
       <c r="B27" s="5">
         <v>-48.5</v>
       </c>
-      <c r="C27" s="73"/>
+      <c r="C27" s="129"/>
       <c r="D27" s="8">
         <v>42436</v>
       </c>
@@ -5735,7 +7506,7 @@
       <c r="B28" s="5">
         <v>-50</v>
       </c>
-      <c r="C28" s="73"/>
+      <c r="C28" s="129"/>
       <c r="D28" s="9">
         <v>42437</v>
       </c>
@@ -5750,7 +7521,7 @@
       <c r="B29" s="5">
         <v>-48</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="129"/>
       <c r="D29" s="9">
         <v>42438</v>
       </c>
@@ -5765,7 +7536,7 @@
       <c r="B30" s="5">
         <v>-49.3</v>
       </c>
-      <c r="C30" s="73"/>
+      <c r="C30" s="129"/>
       <c r="D30" s="9">
         <v>42439</v>
       </c>
@@ -5780,7 +7551,7 @@
       <c r="B31" s="5">
         <v>-49.1</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="130"/>
       <c r="D31" s="8">
         <v>42440</v>
       </c>
@@ -6089,12 +7860,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D769BAF-7E60-4325-8C4C-DEEC69D3192E}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6104,23 +7875,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="61.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="80"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="136"/>
     </row>
     <row r="2" spans="1:3" ht="31.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="82"/>
+      <c r="C2" s="138"/>
     </row>
     <row r="3" spans="1:3" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="77"/>
+      <c r="A3" s="133"/>
       <c r="B3" s="49" t="s">
         <v>47</v>
       </c>

--- a/气象/双站寒冷PK.xlsx
+++ b/气象/双站寒冷PK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4643C0A5-547F-4D37-B457-0E2DB5E6D62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16133A11-3D0F-43DB-B6FF-7F41FDC7E1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{E01B588A-3742-4A11-89A2-9DFEDEEDD47B}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="88">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,10 +369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>札幌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>十二月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,10 +413,6 @@
   <si>
     <t>最高
 夜温</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿勒泰 VS 札幌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -559,6 +551,35 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>哈尔滨市
+木兰县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨木兰 VS 乌兰巴托</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨木兰50962</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙古乌兰巴托44292, 最低昼温和最高夜温来自NOAA逐日档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌兰巴托</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -570,7 +591,7 @@
     <numFmt numFmtId="178" formatCode="0.0"/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="63" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1028,15 +1049,6 @@
     </font>
     <font>
       <b/>
-      <sz val="44"/>
-      <color rgb="FFFFFF00"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="20"/>
       <color rgb="FF92D050"/>
       <name val="等线"/>
@@ -1082,14 +1094,6 @@
     <font>
       <b/>
       <sz val="25"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="25"/>
       <color rgb="FFFFFF3F"/>
       <name val="等线"/>
       <family val="3"/>
@@ -1103,8 +1107,33 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="44"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="76">
+  <fills count="79">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1437,7 +1466,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF478BEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF4361EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3D26BA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,7 +1490,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4576EE"/>
+        <fgColor rgb="FF3D0CA4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3E2EC1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF420CA6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4148D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDC75A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3B15AB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF500BAB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF560BAD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,13 +1544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3D26BA"/>
+        <fgColor rgb="FFAEBE44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF478BEF"/>
+        <fgColor rgb="FF610AB1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1479,25 +1562,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF420CA6"/>
+        <fgColor rgb="FF6C09B5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4680EF"/>
+        <fgColor rgb="FF9B11A8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9410AB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDC75A"/>
+        <fgColor rgb="FFA113A6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1509,49 +1586,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9B11A8"/>
+        <fgColor rgb="FF7209B7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF500BAB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF790AB5"/>
+        <fgColor rgb="FF800CB2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBF3100"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF610AB1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5C0BAF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF530BAC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3D0CA4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1814,7 +1861,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2136,6 +2183,27 @@
     <xf numFmtId="178" fontId="51" fillId="55" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2193,6 +2261,45 @@
     <xf numFmtId="49" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2232,269 +2339,200 @@
     <xf numFmtId="0" fontId="45" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="57" fillId="56" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="57" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="58" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="50" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="59" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="60" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="45" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="61" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="31" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="49" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="62" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="41" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="63" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="44" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="60" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="32" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="48" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="64" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="65" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="66" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="67" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="45" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="43" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="68" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="69" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="70" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="71" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="72" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="73" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="74" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="75" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="47" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="76" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="69" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="77" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="64" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="58" fillId="78" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="57" fillId="54" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="59" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="61" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="31" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="58" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="59" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="48" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="60" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="60" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="60" fillId="57" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="61" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="61" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="61" fillId="62" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="32" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="60" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="39" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="61" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="47" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="56" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="63" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="60" fillId="42" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="60" fillId="56" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="51" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="64" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="49" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="61" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="61" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="65" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="66" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="60" fillId="67" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="68" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="61" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="44" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="69" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="70" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="41" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="61" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="60" fillId="71" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="72" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="60" fillId="72" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="73" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="60" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="74" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="75" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="59" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="61" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3059,15 +3097,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
       <c r="I1" s="26" t="s">
         <v>35</v>
       </c>
@@ -3112,42 +3150,42 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="111"/>
-      <c r="B2" s="109" t="s">
+      <c r="A2" s="118"/>
+      <c r="B2" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="114" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="122"/>
+      <c r="F2" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="119"/>
+      <c r="G2" s="126"/>
       <c r="I2" s="28" cm="1">
         <f t="array" ref="I2:I14">TRANSPOSE(J1:V1)</f>
         <v>5.4</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="112"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="31" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="121"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="128"/>
       <c r="I3" s="28">
         <v>6.1</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="113"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="34" t="s">
         <v>52</v>
       </c>
@@ -3527,10 +3565,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="14" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="125"/>
+      <c r="B1" s="132"/>
       <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
@@ -3582,7 +3620,7 @@
       <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="129" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -3635,7 +3673,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="122"/>
+      <c r="A4" s="129"/>
       <c r="B4" s="19" t="s">
         <v>20</v>
       </c>
@@ -3686,7 +3724,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="122"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="19" t="s">
         <v>21</v>
       </c>
@@ -3737,7 +3775,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="122"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="19" t="s">
         <v>22</v>
       </c>
@@ -3788,7 +3826,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="122"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="19" t="s">
         <v>23</v>
       </c>
@@ -3839,7 +3877,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="122"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="19" t="s">
         <v>24</v>
       </c>
@@ -3890,7 +3928,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="122"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="19" t="s">
         <v>25</v>
       </c>
@@ -3941,7 +3979,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="122"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="19" t="s">
         <v>26</v>
       </c>
@@ -3992,7 +4030,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="122"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="19" t="s">
         <v>12</v>
       </c>
@@ -4043,7 +4081,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="122"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="19" t="s">
         <v>13</v>
       </c>
@@ -4094,7 +4132,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="122"/>
+      <c r="A13" s="129"/>
       <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
@@ -4145,7 +4183,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="122"/>
+      <c r="A14" s="129"/>
       <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
@@ -4196,7 +4234,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="122"/>
+      <c r="A15" s="129"/>
       <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
@@ -4251,7 +4289,7 @@
       <c r="B16" s="20"/>
     </row>
     <row r="17" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="130" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -4304,7 +4342,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="123"/>
+      <c r="A18" s="130"/>
       <c r="B18" s="21" t="s">
         <v>20</v>
       </c>
@@ -4355,7 +4393,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="123"/>
+      <c r="A19" s="130"/>
       <c r="B19" s="21" t="s">
         <v>21</v>
       </c>
@@ -4406,7 +4444,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="123"/>
+      <c r="A20" s="130"/>
       <c r="B20" s="21" t="s">
         <v>22</v>
       </c>
@@ -4457,7 +4495,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="123"/>
+      <c r="A21" s="130"/>
       <c r="B21" s="21" t="s">
         <v>23</v>
       </c>
@@ -4508,7 +4546,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="123"/>
+      <c r="A22" s="130"/>
       <c r="B22" s="21" t="s">
         <v>24</v>
       </c>
@@ -4559,7 +4597,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="123"/>
+      <c r="A23" s="130"/>
       <c r="B23" s="21" t="s">
         <v>25</v>
       </c>
@@ -4610,7 +4648,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="123"/>
+      <c r="A24" s="130"/>
       <c r="B24" s="21" t="s">
         <v>26</v>
       </c>
@@ -4661,7 +4699,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="123"/>
+      <c r="A25" s="130"/>
       <c r="B25" s="21" t="s">
         <v>12</v>
       </c>
@@ -4712,7 +4750,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="123"/>
+      <c r="A26" s="130"/>
       <c r="B26" s="21" t="s">
         <v>13</v>
       </c>
@@ -4763,7 +4801,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="123"/>
+      <c r="A27" s="130"/>
       <c r="B27" s="21" t="s">
         <v>14</v>
       </c>
@@ -4814,7 +4852,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="123"/>
+      <c r="A28" s="130"/>
       <c r="B28" s="21" t="s">
         <v>15</v>
       </c>
@@ -4865,7 +4903,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="123"/>
+      <c r="A29" s="130"/>
       <c r="B29" s="21" t="s">
         <v>16</v>
       </c>
@@ -4920,7 +4958,7 @@
       <c r="B30" s="22"/>
     </row>
     <row r="31" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="124" t="s">
+      <c r="A31" s="131" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -4973,7 +5011,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="124"/>
+      <c r="A32" s="131"/>
       <c r="B32" s="25" t="s">
         <v>20</v>
       </c>
@@ -5024,7 +5062,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="124"/>
+      <c r="A33" s="131"/>
       <c r="B33" s="25" t="s">
         <v>21</v>
       </c>
@@ -5075,7 +5113,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="124"/>
+      <c r="A34" s="131"/>
       <c r="B34" s="25" t="s">
         <v>22</v>
       </c>
@@ -5126,7 +5164,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="124"/>
+      <c r="A35" s="131"/>
       <c r="B35" s="25" t="s">
         <v>23</v>
       </c>
@@ -5177,7 +5215,7 @@
       </c>
     </row>
     <row r="36" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="124"/>
+      <c r="A36" s="131"/>
       <c r="B36" s="25" t="s">
         <v>24</v>
       </c>
@@ -5228,7 +5266,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="124"/>
+      <c r="A37" s="131"/>
       <c r="B37" s="25" t="s">
         <v>25</v>
       </c>
@@ -5279,7 +5317,7 @@
       </c>
     </row>
     <row r="38" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="124"/>
+      <c r="A38" s="131"/>
       <c r="B38" s="25" t="s">
         <v>26</v>
       </c>
@@ -5330,7 +5368,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="124"/>
+      <c r="A39" s="131"/>
       <c r="B39" s="25" t="s">
         <v>12</v>
       </c>
@@ -5381,7 +5419,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="124"/>
+      <c r="A40" s="131"/>
       <c r="B40" s="25" t="s">
         <v>13</v>
       </c>
@@ -5432,7 +5470,7 @@
       </c>
     </row>
     <row r="41" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="124"/>
+      <c r="A41" s="131"/>
       <c r="B41" s="25" t="s">
         <v>14</v>
       </c>
@@ -5483,7 +5521,7 @@
       </c>
     </row>
     <row r="42" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="124"/>
+      <c r="A42" s="131"/>
       <c r="B42" s="25" t="s">
         <v>15</v>
       </c>
@@ -5534,7 +5572,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="124"/>
+      <c r="A43" s="131"/>
       <c r="B43" s="25" t="s">
         <v>16</v>
       </c>
@@ -5607,551 +5645,551 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6.59765625" customWidth="1"/>
-    <col min="2" max="2" width="20.59765625" style="144" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" style="107" customWidth="1"/>
     <col min="3" max="11" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="223" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+    </row>
+    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="139" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="140"/>
+      <c r="C2" s="135" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="136"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="138" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+    </row>
+    <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="141"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-    </row>
-    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="149" t="s">
+      <c r="G3" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="140" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="139" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139" t="s">
+      <c r="H3" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="110" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="110" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="143" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-    </row>
-    <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="151"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="146" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="147" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="148" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="147" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="148" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="147" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="148" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="147" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="148" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="224" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="222" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="154">
-        <v>-3.9</v>
-      </c>
-      <c r="D4" s="155">
-        <v>-8.1999999999999993</v>
-      </c>
-      <c r="E4" s="157">
-        <v>1.4</v>
-      </c>
-      <c r="F4" s="180">
-        <v>-10.8</v>
-      </c>
-      <c r="G4" s="157">
-        <v>1.6</v>
-      </c>
-      <c r="H4" s="194">
-        <v>-40.799999999999997</v>
-      </c>
-      <c r="I4" s="195">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="J4" s="212">
-        <v>-32.6</v>
-      </c>
-      <c r="K4" s="181">
-        <v>7.4</v>
+      <c r="C4" s="159">
+        <v>-6.3</v>
+      </c>
+      <c r="D4" s="172">
+        <v>-11.4</v>
+      </c>
+      <c r="E4" s="173">
+        <v>-0.7</v>
+      </c>
+      <c r="F4" s="172">
+        <v>-11.6</v>
+      </c>
+      <c r="G4" s="190">
+        <v>-2.5</v>
+      </c>
+      <c r="H4" s="204">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="I4" s="205">
+        <v>17.8</v>
+      </c>
+      <c r="J4" s="194">
+        <v>-19.5</v>
+      </c>
+      <c r="K4" s="193">
+        <v>6.2</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="224"/>
-      <c r="B5" s="223" t="s">
+      <c r="A5" s="143"/>
+      <c r="B5" s="113" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="160">
+        <v>-10.6</v>
+      </c>
+      <c r="D5" s="174">
+        <v>-15.1</v>
+      </c>
+      <c r="E5" s="175">
+        <v>-4.8</v>
+      </c>
+      <c r="F5" s="194">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="G5" s="192">
+        <v>-5.4</v>
+      </c>
+      <c r="H5" s="206">
+        <v>-35</v>
+      </c>
+      <c r="I5" s="188">
+        <v>13</v>
+      </c>
+      <c r="J5" s="222">
+        <v>-25.2</v>
+      </c>
+      <c r="K5" s="222">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="156">
-        <v>5.2</v>
-      </c>
-      <c r="D5" s="157">
-        <v>1.6</v>
-      </c>
-      <c r="E5" s="170">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F5" s="160">
-        <v>-0.1</v>
-      </c>
-      <c r="G5" s="181">
-        <v>7.5</v>
-      </c>
-      <c r="H5" s="196">
+      <c r="B6" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="161">
+        <v>-17.5</v>
+      </c>
+      <c r="D6" s="176">
+        <v>-23.1</v>
+      </c>
+      <c r="E6" s="172">
+        <v>-11.3</v>
+      </c>
+      <c r="F6" s="176">
+        <v>-23.5</v>
+      </c>
+      <c r="G6" s="185">
+        <v>-13</v>
+      </c>
+      <c r="H6" s="207">
+        <v>-42</v>
+      </c>
+      <c r="I6" s="208">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J6" s="195">
+        <v>-28.4</v>
+      </c>
+      <c r="K6" s="167">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="144"/>
+      <c r="B7" s="113" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="162">
+        <v>-19</v>
+      </c>
+      <c r="D7" s="177">
+        <v>-22.9</v>
+      </c>
+      <c r="E7" s="178">
+        <v>-13.7</v>
+      </c>
+      <c r="F7" s="195">
+        <v>-28.9</v>
+      </c>
+      <c r="G7" s="178">
+        <v>-13.8</v>
+      </c>
+      <c r="H7" s="209">
+        <v>-42.2</v>
+      </c>
+      <c r="I7" s="193">
+        <v>6.1</v>
+      </c>
+      <c r="J7" s="222">
+        <v>-28</v>
+      </c>
+      <c r="K7" s="222">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="145" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="163">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="D8" s="179">
+        <v>-26.7</v>
+      </c>
+      <c r="E8" s="178">
+        <v>-13.2</v>
+      </c>
+      <c r="F8" s="195">
+        <v>-28.2</v>
+      </c>
+      <c r="G8" s="165">
+        <v>-14.2</v>
+      </c>
+      <c r="H8" s="209">
+        <v>-42.9</v>
+      </c>
+      <c r="I8" s="170">
+        <v>3.9</v>
+      </c>
+      <c r="J8" s="195">
+        <v>-28.8</v>
+      </c>
+      <c r="K8" s="183">
+        <v>-9.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="145"/>
+      <c r="B9" s="113" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="164">
+        <v>-21.3</v>
+      </c>
+      <c r="D9" s="180">
+        <v>-25.6</v>
+      </c>
+      <c r="E9" s="181">
         <v>-15.5</v>
       </c>
-      <c r="I5" s="197">
+      <c r="F9" s="196">
+        <v>-30.5</v>
+      </c>
+      <c r="G9" s="197">
+        <v>-14.7</v>
+      </c>
+      <c r="H9" s="210">
+        <v>-43.9</v>
+      </c>
+      <c r="I9" s="211">
+        <v>0</v>
+      </c>
+      <c r="J9" s="222">
+        <v>-31.3</v>
+      </c>
+      <c r="K9" s="222">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="165">
+        <v>-14.8</v>
+      </c>
+      <c r="D10" s="177">
+        <v>-22.1</v>
+      </c>
+      <c r="E10" s="159">
+        <v>-7</v>
+      </c>
+      <c r="F10" s="177">
+        <v>-22.8</v>
+      </c>
+      <c r="G10" s="160">
+        <v>-10.3</v>
+      </c>
+      <c r="H10" s="209">
+        <v>-42.5</v>
+      </c>
+      <c r="I10" s="191">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J10" s="176">
+        <v>-23.8</v>
+      </c>
+      <c r="K10" s="173">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="144"/>
+      <c r="B11" s="113" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="166">
+        <v>-16.2</v>
+      </c>
+      <c r="D11" s="182">
+        <v>-21.7</v>
+      </c>
+      <c r="E11" s="183">
+        <v>-9.4</v>
+      </c>
+      <c r="F11" s="198">
+        <v>-27.3</v>
+      </c>
+      <c r="G11" s="160">
+        <v>-10.9</v>
+      </c>
+      <c r="H11" s="209">
+        <v>-42.2</v>
+      </c>
+      <c r="I11" s="212">
+        <v>11.3</v>
+      </c>
+      <c r="J11" s="222">
+        <v>-27</v>
+      </c>
+      <c r="K11" s="222">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="143" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="167">
+        <v>-4</v>
+      </c>
+      <c r="D12" s="160">
+        <v>-10.5</v>
+      </c>
+      <c r="E12" s="184">
+        <v>2.4</v>
+      </c>
+      <c r="F12" s="178">
+        <v>-13.8</v>
+      </c>
+      <c r="G12" s="199">
+        <v>1.3</v>
+      </c>
+      <c r="H12" s="213">
+        <v>-35.1</v>
+      </c>
+      <c r="I12" s="214">
+        <v>20.2</v>
+      </c>
+      <c r="J12" s="165">
+        <v>-14.6</v>
+      </c>
+      <c r="K12" s="208">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="143"/>
+      <c r="B13" s="113" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="159">
+        <v>-6.7</v>
+      </c>
+      <c r="D13" s="185">
+        <v>-12.6</v>
+      </c>
+      <c r="E13" s="173">
+        <v>-0.2</v>
+      </c>
+      <c r="F13" s="162">
+        <v>-18.2</v>
+      </c>
+      <c r="G13" s="200">
+        <v>-2</v>
+      </c>
+      <c r="H13" s="215">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="I13" s="216">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J13" s="222">
+        <v>-20</v>
+      </c>
+      <c r="K13" s="222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="168">
+        <v>23.2</v>
+      </c>
+      <c r="D14" s="186">
+        <v>18.5</v>
+      </c>
+      <c r="E14" s="187">
+        <v>28.1</v>
+      </c>
+      <c r="F14" s="201">
+        <v>20.8</v>
+      </c>
+      <c r="G14" s="202">
+        <v>25.3</v>
+      </c>
+      <c r="H14" s="217">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I14" s="218">
+        <v>36.5</v>
+      </c>
+      <c r="J14" s="186">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K14" s="221">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="133"/>
+      <c r="B15" s="113" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="169">
+        <v>19</v>
+      </c>
+      <c r="D15" s="188">
+        <v>13.5</v>
+      </c>
+      <c r="E15" s="189">
+        <v>25.2</v>
+      </c>
+      <c r="F15" s="188">
+        <v>13.2</v>
+      </c>
+      <c r="G15" s="203">
         <v>22.4</v>
       </c>
-      <c r="J5" s="213">
-        <v>-4.7</v>
-      </c>
-      <c r="K5" s="179">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="225" t="s">
+      <c r="H15" s="173">
+        <v>-0.2</v>
+      </c>
+      <c r="I15" s="219">
+        <v>39</v>
+      </c>
+      <c r="J15" s="222">
+        <v>8.5</v>
+      </c>
+      <c r="K15" s="222">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="222" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="158">
-        <v>-12.8</v>
-      </c>
-      <c r="D6" s="159">
-        <v>-17.7</v>
-      </c>
-      <c r="E6" s="163">
-        <v>-7</v>
-      </c>
-      <c r="F6" s="182">
-        <v>-23.7</v>
-      </c>
-      <c r="G6" s="154">
-        <v>-3.9</v>
-      </c>
-      <c r="H6" s="198">
-        <v>-43.5</v>
-      </c>
-      <c r="I6" s="199">
-        <v>6.6</v>
-      </c>
-      <c r="J6" s="214">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="K6" s="174">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="225"/>
-      <c r="B7" s="223" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="160">
-        <v>-0.9</v>
-      </c>
-      <c r="D7" s="154">
-        <v>-4</v>
-      </c>
-      <c r="E7" s="171">
-        <v>2</v>
-      </c>
-      <c r="F7" s="163">
-        <v>-6.5</v>
-      </c>
-      <c r="G7" s="157">
-        <v>1.9</v>
-      </c>
-      <c r="H7" s="186">
-        <v>-24.7</v>
-      </c>
-      <c r="I7" s="200">
-        <v>14.8</v>
-      </c>
-      <c r="J7" s="188">
-        <v>-11.7</v>
-      </c>
-      <c r="K7" s="169">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="226" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="222" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="161">
-        <v>-15.8</v>
-      </c>
-      <c r="D8" s="162">
-        <v>-20.9</v>
-      </c>
-      <c r="E8" s="172">
-        <v>-9.3000000000000007</v>
-      </c>
-      <c r="F8" s="183">
-        <v>-25.1</v>
-      </c>
-      <c r="G8" s="184">
-        <v>-10.3</v>
-      </c>
-      <c r="H8" s="201">
-        <v>-41.2</v>
-      </c>
-      <c r="I8" s="202">
-        <v>5.3</v>
-      </c>
-      <c r="J8" s="215">
-        <v>-31.6</v>
-      </c>
-      <c r="K8" s="216">
+      <c r="B16" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="170">
+        <v>3.6</v>
+      </c>
+      <c r="D16" s="190">
         <v>-2.2000000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="226"/>
-      <c r="B9" s="223" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="154">
-        <v>-3.2</v>
-      </c>
-      <c r="D9" s="163">
-        <v>-6.4</v>
-      </c>
-      <c r="E9" s="160">
-        <v>-0.4</v>
-      </c>
-      <c r="F9" s="180">
-        <v>-10.199999999999999</v>
-      </c>
-      <c r="G9" s="185">
-        <v>-1.2</v>
-      </c>
-      <c r="H9" s="203">
-        <v>-27</v>
-      </c>
-      <c r="I9" s="178">
-        <v>11.2</v>
-      </c>
-      <c r="J9" s="180">
-        <v>-11</v>
-      </c>
-      <c r="K9" s="189">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="225" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="222" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="158">
-        <v>-12.4</v>
-      </c>
-      <c r="D10" s="159">
-        <v>-17.8</v>
-      </c>
-      <c r="E10" s="173">
-        <v>-5.7</v>
-      </c>
-      <c r="F10" s="186">
-        <v>-24.9</v>
-      </c>
-      <c r="G10" s="155">
-        <v>-8.1</v>
-      </c>
-      <c r="H10" s="201">
-        <v>-41.5</v>
-      </c>
-      <c r="I10" s="170">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="J10" s="217">
-        <v>-29.3</v>
-      </c>
-      <c r="K10" s="185">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="225"/>
-      <c r="B11" s="223" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="164">
-        <v>-2.7</v>
-      </c>
-      <c r="D11" s="163">
-        <v>-6.2</v>
-      </c>
-      <c r="E11" s="174">
-        <v>0.4</v>
-      </c>
-      <c r="F11" s="187">
-        <v>-7.9</v>
-      </c>
-      <c r="G11" s="160">
-        <v>-0.6</v>
-      </c>
-      <c r="H11" s="204">
-        <v>-28.5</v>
-      </c>
-      <c r="I11" s="179">
-        <v>13.9</v>
-      </c>
-      <c r="J11" s="180">
-        <v>-10.8</v>
-      </c>
-      <c r="K11" s="171">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="224" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="222" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="154">
-        <v>-3.5</v>
-      </c>
-      <c r="D12" s="155">
-        <v>-8.8000000000000007</v>
-      </c>
-      <c r="E12" s="171">
-        <v>2.5</v>
-      </c>
-      <c r="F12" s="188">
-        <v>-11.4</v>
-      </c>
-      <c r="G12" s="189">
-        <v>3.6</v>
-      </c>
-      <c r="H12" s="205">
-        <v>-36.4</v>
-      </c>
-      <c r="I12" s="206">
-        <v>23.1</v>
-      </c>
-      <c r="J12" s="218">
-        <v>-21.4</v>
-      </c>
-      <c r="K12" s="178">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="224"/>
-      <c r="B13" s="223" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="157">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D13" s="164">
-        <v>-2.4</v>
-      </c>
-      <c r="E13" s="175">
-        <v>4.5</v>
-      </c>
-      <c r="F13" s="173">
-        <v>-5.6</v>
-      </c>
-      <c r="G13" s="175">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H13" s="207">
-        <v>-22.6</v>
-      </c>
-      <c r="I13" s="208">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="J13" s="155">
-        <v>-8.6</v>
-      </c>
-      <c r="K13" s="169">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="221" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="222" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="165">
-        <v>21.9</v>
-      </c>
-      <c r="D14" s="166">
-        <v>15.1</v>
-      </c>
-      <c r="E14" s="176">
-        <v>28.5</v>
-      </c>
-      <c r="F14" s="190">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="G14" s="191">
-        <v>24.9</v>
-      </c>
-      <c r="H14" s="209">
-        <v>6</v>
-      </c>
-      <c r="I14" s="210">
-        <v>39.5</v>
-      </c>
-      <c r="J14" s="168">
-        <v>17.3</v>
-      </c>
-      <c r="K14" s="219">
-        <v>26.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="221"/>
-      <c r="B15" s="223" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="167">
-        <v>21.1</v>
-      </c>
-      <c r="D15" s="168">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="E15" s="177">
-        <v>25.4</v>
-      </c>
-      <c r="F15" s="192">
-        <v>16</v>
-      </c>
-      <c r="G15" s="177">
-        <v>25.8</v>
-      </c>
-      <c r="H15" s="156">
-        <v>5.2</v>
-      </c>
-      <c r="I15" s="211">
-        <v>36</v>
-      </c>
-      <c r="J15" s="179">
-        <v>13.5</v>
-      </c>
-      <c r="K15" s="220">
-        <v>27.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="143" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="222" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="156">
-        <v>5</v>
-      </c>
-      <c r="D16" s="160">
-        <v>-0.8</v>
-      </c>
-      <c r="E16" s="178">
-        <v>11.3</v>
-      </c>
-      <c r="F16" s="183">
-        <v>-25.1</v>
-      </c>
-      <c r="G16" s="191">
-        <v>24.9</v>
-      </c>
-      <c r="H16" s="198">
-        <v>-43.5</v>
-      </c>
-      <c r="I16" s="210">
-        <v>39.5</v>
-      </c>
-      <c r="J16" s="214">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="K16" s="219">
-        <v>26.7</v>
+      <c r="E16" s="191">
+        <v>9.9</v>
+      </c>
+      <c r="F16" s="195">
+        <v>-28.2</v>
+      </c>
+      <c r="G16" s="202">
+        <v>25.3</v>
+      </c>
+      <c r="H16" s="209">
+        <v>-42.9</v>
+      </c>
+      <c r="I16" s="220">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="J16" s="195">
+        <v>-28.8</v>
+      </c>
+      <c r="K16" s="221">
+        <v>26.3</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="52.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="143"/>
-      <c r="B17" s="223" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="169">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="D17" s="156">
-        <v>5.7</v>
-      </c>
-      <c r="E17" s="179">
-        <v>13.1</v>
-      </c>
-      <c r="F17" s="180">
-        <v>-10.199999999999999</v>
-      </c>
-      <c r="G17" s="193">
-        <v>26.7</v>
-      </c>
-      <c r="H17" s="204">
-        <v>-28.5</v>
-      </c>
-      <c r="I17" s="211">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="J17" s="188">
-        <v>-11.7</v>
-      </c>
-      <c r="K17" s="220">
-        <v>27.4</v>
+      <c r="A17" s="134"/>
+      <c r="B17" s="113" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="171">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="192">
+        <v>-5.3</v>
+      </c>
+      <c r="E17" s="193">
+        <v>6.7</v>
+      </c>
+      <c r="F17" s="196">
+        <v>-30.5</v>
+      </c>
+      <c r="G17" s="203">
+        <v>22.4</v>
+      </c>
+      <c r="H17" s="210">
+        <v>-43.9</v>
+      </c>
+      <c r="I17" s="219">
+        <v>39</v>
+      </c>
+      <c r="J17" s="222">
+        <v>-31.3</v>
+      </c>
+      <c r="K17" s="222">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -6176,9 +6214,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D29C00-D786-416E-9666-6B64D7F817A9}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6186,28 +6226,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="153" t="s">
-        <v>77</v>
+      <c r="A1" s="111" t="s">
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
         <v>74</v>
       </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -6216,15 +6256,15 @@
         <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>-3.9</v>
@@ -6256,7 +6296,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>-12.8</v>
@@ -6416,7 +6456,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -6447,28 +6487,28 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="153" t="s">
-        <v>78</v>
+      <c r="A11" s="111" t="s">
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
         <v>74</v>
       </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" t="s">
-        <v>76</v>
-      </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
         <v>47</v>
@@ -6477,15 +6517,15 @@
         <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13">
         <v>5.2</v>
@@ -6517,7 +6557,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>-0.9</v>
@@ -6677,7 +6717,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>9.1999999999999993</v>
@@ -6705,6 +6745,528 @@
       </c>
       <c r="J19">
         <v>27.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23">
+        <v>-6.3</v>
+      </c>
+      <c r="C23">
+        <v>-11.4</v>
+      </c>
+      <c r="D23">
+        <v>-0.7</v>
+      </c>
+      <c r="E23">
+        <v>-11.6</v>
+      </c>
+      <c r="F23">
+        <v>-2.5</v>
+      </c>
+      <c r="G23">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="H23">
+        <v>17.8</v>
+      </c>
+      <c r="I23">
+        <v>-19.5</v>
+      </c>
+      <c r="J23">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24">
+        <v>-17.5</v>
+      </c>
+      <c r="C24">
+        <v>-23.1</v>
+      </c>
+      <c r="D24">
+        <v>-11.3</v>
+      </c>
+      <c r="E24">
+        <v>-23.5</v>
+      </c>
+      <c r="F24">
+        <v>-13</v>
+      </c>
+      <c r="G24">
+        <v>-42</v>
+      </c>
+      <c r="H24">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I24">
+        <v>-28.4</v>
+      </c>
+      <c r="J24">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="C25">
+        <v>-26.7</v>
+      </c>
+      <c r="D25">
+        <v>-13.2</v>
+      </c>
+      <c r="E25">
+        <v>-28.2</v>
+      </c>
+      <c r="F25">
+        <v>-14.2</v>
+      </c>
+      <c r="G25">
+        <v>-42.9</v>
+      </c>
+      <c r="H25">
+        <v>3.9</v>
+      </c>
+      <c r="I25">
+        <v>-28.8</v>
+      </c>
+      <c r="J25">
+        <v>-9.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>-14.8</v>
+      </c>
+      <c r="C26">
+        <v>-22.1</v>
+      </c>
+      <c r="D26">
+        <v>-7</v>
+      </c>
+      <c r="E26">
+        <v>-22.8</v>
+      </c>
+      <c r="F26">
+        <v>-10.3</v>
+      </c>
+      <c r="G26">
+        <v>-42.5</v>
+      </c>
+      <c r="H26">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I26">
+        <v>-23.8</v>
+      </c>
+      <c r="J26">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>-4</v>
+      </c>
+      <c r="C27">
+        <v>-10.5</v>
+      </c>
+      <c r="D27">
+        <v>2.4</v>
+      </c>
+      <c r="E27">
+        <v>-13.8</v>
+      </c>
+      <c r="F27">
+        <v>1.3</v>
+      </c>
+      <c r="G27">
+        <v>-35.1</v>
+      </c>
+      <c r="H27">
+        <v>20.2</v>
+      </c>
+      <c r="I27">
+        <v>-14.6</v>
+      </c>
+      <c r="J27">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>23.2</v>
+      </c>
+      <c r="C28">
+        <v>18.5</v>
+      </c>
+      <c r="D28">
+        <v>28.1</v>
+      </c>
+      <c r="E28">
+        <v>20.8</v>
+      </c>
+      <c r="F28">
+        <v>25.3</v>
+      </c>
+      <c r="G28">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H28">
+        <v>36.5</v>
+      </c>
+      <c r="I28">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J28">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <v>3.6</v>
+      </c>
+      <c r="C29">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="D29">
+        <v>9.9</v>
+      </c>
+      <c r="E29">
+        <v>-28.2</v>
+      </c>
+      <c r="F29">
+        <v>25.3</v>
+      </c>
+      <c r="G29">
+        <v>-42.9</v>
+      </c>
+      <c r="H29">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I29">
+        <v>-28.8</v>
+      </c>
+      <c r="J29">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="111" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33">
+        <v>-10.6</v>
+      </c>
+      <c r="C33">
+        <v>-15.1</v>
+      </c>
+      <c r="D33">
+        <v>-4.8</v>
+      </c>
+      <c r="E33">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="F33">
+        <v>-5.4</v>
+      </c>
+      <c r="G33">
+        <v>-35</v>
+      </c>
+      <c r="H33">
+        <v>13</v>
+      </c>
+      <c r="I33">
+        <v>-25.2</v>
+      </c>
+      <c r="J33">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34">
+        <v>-19</v>
+      </c>
+      <c r="C34">
+        <v>-22.9</v>
+      </c>
+      <c r="D34">
+        <v>-13.7</v>
+      </c>
+      <c r="E34">
+        <v>-28.9</v>
+      </c>
+      <c r="F34">
+        <v>-13.8</v>
+      </c>
+      <c r="G34">
+        <v>-42.2</v>
+      </c>
+      <c r="H34">
+        <v>6.1</v>
+      </c>
+      <c r="I34">
+        <v>-28</v>
+      </c>
+      <c r="J34">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>-21.3</v>
+      </c>
+      <c r="C35">
+        <v>-25.6</v>
+      </c>
+      <c r="D35">
+        <v>-15.5</v>
+      </c>
+      <c r="E35">
+        <v>-30.5</v>
+      </c>
+      <c r="F35">
+        <v>-14.7</v>
+      </c>
+      <c r="G35">
+        <v>-43.9</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>-31.3</v>
+      </c>
+      <c r="J35">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>-16.2</v>
+      </c>
+      <c r="C36">
+        <v>-21.7</v>
+      </c>
+      <c r="D36">
+        <v>-9.4</v>
+      </c>
+      <c r="E36">
+        <v>-27.3</v>
+      </c>
+      <c r="F36">
+        <v>-10.9</v>
+      </c>
+      <c r="G36">
+        <v>-42.2</v>
+      </c>
+      <c r="H36">
+        <v>11.3</v>
+      </c>
+      <c r="I36">
+        <v>-27</v>
+      </c>
+      <c r="J36">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <v>-6.7</v>
+      </c>
+      <c r="C37">
+        <v>-12.6</v>
+      </c>
+      <c r="D37">
+        <v>-0.2</v>
+      </c>
+      <c r="E37">
+        <v>-18.2</v>
+      </c>
+      <c r="F37">
+        <v>-2</v>
+      </c>
+      <c r="G37">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="H37">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="I37">
+        <v>-20</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>13.5</v>
+      </c>
+      <c r="D38">
+        <v>25.2</v>
+      </c>
+      <c r="E38">
+        <v>13.2</v>
+      </c>
+      <c r="F38">
+        <v>22.4</v>
+      </c>
+      <c r="G38">
+        <v>-0.2</v>
+      </c>
+      <c r="H38">
+        <v>39</v>
+      </c>
+      <c r="I38">
+        <v>8.5</v>
+      </c>
+      <c r="J38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39">
+        <v>0.2</v>
+      </c>
+      <c r="C39">
+        <v>-5.3</v>
+      </c>
+      <c r="D39">
+        <v>6.7</v>
+      </c>
+      <c r="E39">
+        <v>-30.5</v>
+      </c>
+      <c r="F39">
+        <v>22.4</v>
+      </c>
+      <c r="G39">
+        <v>-43.9</v>
+      </c>
+      <c r="H39">
+        <v>39</v>
+      </c>
+      <c r="I39">
+        <v>-31.3</v>
+      </c>
+      <c r="J39">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -7105,18 +7667,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
     </row>
     <row r="2" spans="1:5" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="131"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="128"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="148"/>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
@@ -7131,7 +7693,7 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="129"/>
+      <c r="C3" s="149"/>
       <c r="D3" s="9">
         <v>42398</v>
       </c>
@@ -7146,7 +7708,7 @@
       <c r="B4" s="5">
         <v>-42.1</v>
       </c>
-      <c r="C4" s="129"/>
+      <c r="C4" s="149"/>
       <c r="D4" s="9">
         <v>42399</v>
       </c>
@@ -7161,7 +7723,7 @@
       <c r="B5" s="5">
         <v>-40.5</v>
       </c>
-      <c r="C5" s="129"/>
+      <c r="C5" s="149"/>
       <c r="D5" s="9">
         <v>42400</v>
       </c>
@@ -7176,7 +7738,7 @@
       <c r="B6" s="5">
         <v>-44.8</v>
       </c>
-      <c r="C6" s="129"/>
+      <c r="C6" s="149"/>
       <c r="D6" s="8">
         <v>42401</v>
       </c>
@@ -7191,7 +7753,7 @@
       <c r="B7" s="5">
         <v>-40.6</v>
       </c>
-      <c r="C7" s="129"/>
+      <c r="C7" s="149"/>
       <c r="D7" s="8">
         <v>42402</v>
       </c>
@@ -7206,7 +7768,7 @@
       <c r="B8" s="5">
         <v>-48.6</v>
       </c>
-      <c r="C8" s="129"/>
+      <c r="C8" s="149"/>
       <c r="D8" s="8">
         <v>42403</v>
       </c>
@@ -7221,7 +7783,7 @@
       <c r="B9" s="5">
         <v>-46.8</v>
       </c>
-      <c r="C9" s="129"/>
+      <c r="C9" s="149"/>
       <c r="D9" s="9">
         <v>42404</v>
       </c>
@@ -7236,7 +7798,7 @@
       <c r="B10" s="5">
         <v>-40.5</v>
       </c>
-      <c r="C10" s="129"/>
+      <c r="C10" s="149"/>
       <c r="D10" s="9">
         <v>42405</v>
       </c>
@@ -7251,7 +7813,7 @@
       <c r="B11" s="5">
         <v>-47.1</v>
       </c>
-      <c r="C11" s="129"/>
+      <c r="C11" s="149"/>
       <c r="D11" s="9">
         <v>42406</v>
       </c>
@@ -7266,7 +7828,7 @@
       <c r="B12" s="5">
         <v>-47.8</v>
       </c>
-      <c r="C12" s="129"/>
+      <c r="C12" s="149"/>
       <c r="D12" s="6">
         <v>42412</v>
       </c>
@@ -7281,7 +7843,7 @@
       <c r="B13" s="5">
         <v>-42.4</v>
       </c>
-      <c r="C13" s="129"/>
+      <c r="C13" s="149"/>
       <c r="D13" s="6">
         <v>42413</v>
       </c>
@@ -7296,7 +7858,7 @@
       <c r="B14" s="5">
         <v>-47.5</v>
       </c>
-      <c r="C14" s="129"/>
+      <c r="C14" s="149"/>
       <c r="D14" s="4">
         <v>42414</v>
       </c>
@@ -7311,7 +7873,7 @@
       <c r="B15" s="5">
         <v>-40</v>
       </c>
-      <c r="C15" s="129"/>
+      <c r="C15" s="149"/>
       <c r="D15" s="4">
         <v>42415</v>
       </c>
@@ -7326,7 +7888,7 @@
       <c r="B16" s="5">
         <v>-40.1</v>
       </c>
-      <c r="C16" s="129"/>
+      <c r="C16" s="149"/>
       <c r="D16" s="4">
         <v>42416</v>
       </c>
@@ -7341,7 +7903,7 @@
       <c r="B17" s="5">
         <v>-42.6</v>
       </c>
-      <c r="C17" s="129"/>
+      <c r="C17" s="149"/>
       <c r="D17" s="4">
         <v>42417</v>
       </c>
@@ -7356,7 +7918,7 @@
       <c r="B18" s="5">
         <v>-41.1</v>
       </c>
-      <c r="C18" s="129"/>
+      <c r="C18" s="149"/>
       <c r="D18" s="8">
         <v>42419</v>
       </c>
@@ -7371,7 +7933,7 @@
       <c r="B19" s="5">
         <v>-43.4</v>
       </c>
-      <c r="C19" s="129"/>
+      <c r="C19" s="149"/>
       <c r="D19" s="8">
         <v>42420</v>
       </c>
@@ -7386,7 +7948,7 @@
       <c r="B20" s="5">
         <v>-46</v>
       </c>
-      <c r="C20" s="129"/>
+      <c r="C20" s="149"/>
       <c r="D20" s="4">
         <v>42422</v>
       </c>
@@ -7401,7 +7963,7 @@
       <c r="B21" s="5">
         <v>-44.8</v>
       </c>
-      <c r="C21" s="129"/>
+      <c r="C21" s="149"/>
       <c r="D21" s="4">
         <v>42423</v>
       </c>
@@ -7416,7 +7978,7 @@
       <c r="B22" s="5">
         <v>-42.9</v>
       </c>
-      <c r="C22" s="129"/>
+      <c r="C22" s="149"/>
       <c r="D22" s="4">
         <v>42424</v>
       </c>
@@ -7431,7 +7993,7 @@
       <c r="B23" s="5">
         <v>-42.3</v>
       </c>
-      <c r="C23" s="129"/>
+      <c r="C23" s="149"/>
       <c r="D23" s="4">
         <v>42425</v>
       </c>
@@ -7446,7 +8008,7 @@
       <c r="B24" s="5">
         <v>-44</v>
       </c>
-      <c r="C24" s="129"/>
+      <c r="C24" s="149"/>
       <c r="D24" s="8">
         <v>42433</v>
       </c>
@@ -7461,7 +8023,7 @@
       <c r="B25" s="5">
         <v>-45.6</v>
       </c>
-      <c r="C25" s="129"/>
+      <c r="C25" s="149"/>
       <c r="D25" s="8">
         <v>42434</v>
       </c>
@@ -7476,7 +8038,7 @@
       <c r="B26" s="5">
         <v>-47.7</v>
       </c>
-      <c r="C26" s="129"/>
+      <c r="C26" s="149"/>
       <c r="D26" s="8">
         <v>42435</v>
       </c>
@@ -7491,7 +8053,7 @@
       <c r="B27" s="5">
         <v>-48.5</v>
       </c>
-      <c r="C27" s="129"/>
+      <c r="C27" s="149"/>
       <c r="D27" s="8">
         <v>42436</v>
       </c>
@@ -7506,7 +8068,7 @@
       <c r="B28" s="5">
         <v>-50</v>
       </c>
-      <c r="C28" s="129"/>
+      <c r="C28" s="149"/>
       <c r="D28" s="9">
         <v>42437</v>
       </c>
@@ -7521,7 +8083,7 @@
       <c r="B29" s="5">
         <v>-48</v>
       </c>
-      <c r="C29" s="129"/>
+      <c r="C29" s="149"/>
       <c r="D29" s="9">
         <v>42438</v>
       </c>
@@ -7536,7 +8098,7 @@
       <c r="B30" s="5">
         <v>-49.3</v>
       </c>
-      <c r="C30" s="129"/>
+      <c r="C30" s="149"/>
       <c r="D30" s="9">
         <v>42439</v>
       </c>
@@ -7551,7 +8113,7 @@
       <c r="B31" s="5">
         <v>-49.1</v>
       </c>
-      <c r="C31" s="130"/>
+      <c r="C31" s="150"/>
       <c r="D31" s="8">
         <v>42440</v>
       </c>
@@ -7875,23 +8437,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="61.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="136"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="156"/>
     </row>
     <row r="2" spans="1:3" ht="31.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="138"/>
+      <c r="C2" s="158"/>
     </row>
     <row r="3" spans="1:3" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="133"/>
+      <c r="A3" s="153"/>
       <c r="B3" s="49" t="s">
         <v>47</v>
       </c>
